--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C1DB3-1EB1-471F-AFBD-02D3FE5BF1F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="12240" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="217">
   <si>
     <t>No.</t>
   </si>
@@ -697,11 +703,17 @@
   <si>
     <t>Generar una vista la determinar el total de aliment consumido por postura</t>
   </si>
+  <si>
+    <t xml:space="preserve">COMPARATIVA CON </t>
+  </si>
+  <si>
+    <t>GV2,GV3,GV4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1313,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1642,237 +1654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1896,6 +1677,243 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1931,14 +1949,14 @@
       <xdr:rowOff>648607</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3046603" cy="525337"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="110" name="CuadroTexto 109">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05EB0221-B6BE-4158-BC1D-52E436E1E9D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1989,7 +2007,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2002,7 +2020,7 @@
                             <m:subHide m:val="on"/>
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
-                              <a:rPr lang="es-MX" sz="1600" b="1">
+                              <a:rPr lang="es-MX" sz="1600" b="1" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
@@ -2181,7 +2199,7 @@
                             <m:subHide m:val="on"/>
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
-                              <a:rPr lang="es-MX" sz="1600" b="1">
+                              <a:rPr lang="es-MX" sz="1600" b="1" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
@@ -2341,7 +2359,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="110" name="CuadroTexto 109">
@@ -2503,7 +2521,7 @@
             <xdr:cNvPr id="111" name="CuadroTexto 110">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7F37249-47F2-4BDA-A210-E8816C620C95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2744,14 +2762,14 @@
       <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4008664" cy="525337"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="CuadroTexto 111">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24655234-7340-43D3-BB35-6E2759AD3FCB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2802,7 +2820,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2815,7 +2833,7 @@
                             <m:subHide m:val="on"/>
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
-                              <a:rPr lang="es-MX" sz="1600" b="1">
+                              <a:rPr lang="es-MX" sz="1600" b="1" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
@@ -3071,7 +3089,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="CuadroTexto 111">
@@ -3209,14 +3227,14 @@
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4095296" cy="857250"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A585A0CA-D3BF-4138-99ED-382ABFF9FDCE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3267,7 +3285,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3541,7 +3559,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="CuadroTexto 112">
@@ -3756,14 +3774,14 @@
       <xdr:rowOff>522967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5519653" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="CuadroTexto 113">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3DBE0E0-76DC-4297-BCCF-2BC417106214}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4042,7 +4060,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="CuadroTexto 113">
@@ -4144,7 +4162,7 @@
             <xdr:cNvPr id="115" name="CuadroTexto 114">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A3D3A-3616-48D7-925C-E5316AEC7B70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4211,7 +4229,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4484,7 +4502,7 @@
             <xdr:cNvPr id="116" name="CuadroTexto 115">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41147B65-5AA3-4458-B9D2-47856530F23C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4551,7 +4569,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4788,7 +4806,7 @@
             <xdr:cNvPr id="117" name="CuadroTexto 116">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FAB2D5B-CB77-4741-8F58-30B35B659959}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4855,7 +4873,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5032,7 +5050,7 @@
             <xdr:cNvPr id="118" name="CuadroTexto 117">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B2513EE-4404-4ECB-BB00-AE0BBA495833}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5099,7 +5117,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5269,14 +5287,14 @@
       <xdr:rowOff>612774</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2835275" cy="568326"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="CuadroTexto 119">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0921033A-F99F-4C9D-9DA5-FC631B59E185}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5343,7 +5361,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5502,7 +5520,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="CuadroTexto 119">
@@ -5645,14 +5663,14 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="908050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="CuadroTexto 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43165275-6F0E-46E4-8896-A4BE09DCE5D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5719,7 +5737,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5986,7 +6004,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="CuadroTexto 120">
@@ -6160,7 +6178,7 @@
             <xdr:cNvPr id="122" name="CuadroTexto 121">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{776C151C-264F-4BBF-81D6-9A6AB5972493}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6227,7 +6245,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6536,7 +6554,7 @@
             <xdr:cNvPr id="123" name="CuadroTexto 122">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9B35DA4-C530-4FF0-A4BA-7E52DB8E3874}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6603,7 +6621,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6864,7 +6882,7 @@
             <xdr:cNvPr id="124" name="CuadroTexto 123">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85BD7480-9600-4D0C-860F-412BF0702E83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6931,7 +6949,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7228,7 +7246,7 @@
             <xdr:cNvPr id="125" name="CuadroTexto 124">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49F452-3728-405C-AD32-832B370AE49E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7295,7 +7313,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7556,7 +7574,7 @@
             <xdr:cNvPr id="126" name="CuadroTexto 125">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B7B604B-5917-46E4-AD24-020D5E2DAE18}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7623,7 +7641,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7944,7 +7962,7 @@
             <xdr:cNvPr id="127" name="CuadroTexto 126">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A759AB87-7884-472E-8E50-6DD35BE3721A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8011,7 +8029,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8055,7 +8073,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8222,7 +8240,7 @@
             <xdr:cNvPr id="128" name="CuadroTexto 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A975AC46-2C26-4A39-BCCA-90015B7785B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8289,7 +8307,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8538,7 +8556,7 @@
             <xdr:cNvPr id="129" name="CuadroTexto 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A503152E-716E-476C-A99C-EE54551CCFFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8605,7 +8623,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8745,7 +8763,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8888,7 +8906,7 @@
             <xdr:cNvPr id="130" name="CuadroTexto 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2861B802-AF3F-4790-8218-8FDBF8D92B76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8955,7 +8973,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9095,7 +9113,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9238,7 +9256,7 @@
             <xdr:cNvPr id="23" name="CuadroTexto 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F63C4E4-A306-4B01-93A2-881854D76BE0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9289,7 +9307,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9578,7 +9596,7 @@
             <xdr:cNvPr id="25" name="CuadroTexto 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A765D23-83E8-409A-9F65-EE59D36F260E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9645,7 +9663,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9966,7 +9984,7 @@
             <xdr:cNvPr id="26" name="CuadroTexto 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C191A3D5-5121-412A-A9E2-324D52693D78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10033,7 +10051,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10402,7 +10420,7 @@
             <xdr:cNvPr id="27" name="CuadroTexto 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9138853-1C53-4849-9FAB-122B407B4455}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10469,7 +10487,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10790,7 +10808,7 @@
             <xdr:cNvPr id="28" name="CuadroTexto 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5E29D60-69A1-4808-ACC4-9881B74ED369}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10857,7 +10875,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11178,7 +11196,7 @@
             <xdr:cNvPr id="29" name="CuadroTexto 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{123B36F2-208E-4318-AC2A-80F41D3028A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11245,7 +11263,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11566,7 +11584,7 @@
             <xdr:cNvPr id="30" name="CuadroTexto 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43AF6168-C411-4BC9-ABB1-A9EE22EE6D60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11633,7 +11651,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11954,7 +11972,7 @@
             <xdr:cNvPr id="31" name="CuadroTexto 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63DDF4-4DEF-4D93-A695-2A8D7984B7A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12021,7 +12039,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12342,7 +12360,7 @@
             <xdr:cNvPr id="33" name="CuadroTexto 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10515F21-FC9D-4C95-AC8B-C05269A51E8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12409,7 +12427,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12706,7 +12724,7 @@
             <xdr:cNvPr id="34" name="CuadroTexto 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C909CAFC-74AB-4BA8-B59E-87C391E1D5BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12773,7 +12791,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13070,7 +13088,7 @@
             <xdr:cNvPr id="35" name="CuadroTexto 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F963270-8AF5-4282-8070-4BAD33FC8AC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13137,7 +13155,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13482,7 +13500,7 @@
             <xdr:cNvPr id="36" name="CuadroTexto 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8876D874-BED9-480A-89E3-6763BF17F45D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13549,7 +13567,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13822,7 +13840,7 @@
             <xdr:cNvPr id="37" name="CuadroTexto 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D91649A-3EC1-4D59-AB89-4C1644010472}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13889,7 +13907,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14155,14 +14173,14 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5124450" cy="525337"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="CuadroTexto 111">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24655234-7340-43D3-BB35-6E2759AD3FCB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14213,7 +14231,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14226,7 +14244,7 @@
                             <m:subHide m:val="on"/>
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
-                              <a:rPr lang="es-MX" sz="1600" b="1">
+                              <a:rPr lang="es-MX" sz="1600" b="1" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
@@ -14602,7 +14620,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="CuadroTexto 111">
@@ -14776,7 +14794,7 @@
             <xdr:cNvPr id="22" name="CuadroTexto 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8883DB3-62AD-48C2-A875-091316EB5616}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14827,7 +14845,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15043,7 +15061,7 @@
             <xdr:cNvPr id="23" name="CuadroTexto 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6659319A-9B66-4746-9DE8-14669E5B3D09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15094,7 +15112,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15262,7 +15280,7 @@
             <xdr:cNvPr id="24" name="CuadroTexto 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD9CEF1-3FD1-44D2-A4F7-8ABA217DC815}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15313,7 +15331,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15481,7 +15499,7 @@
             <xdr:cNvPr id="25" name="CuadroTexto 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{792DA1E7-D507-4C9D-BB05-08BB68A771BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15532,7 +15550,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15712,7 +15730,7 @@
             <xdr:cNvPr id="26" name="CuadroTexto 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D45CAAB-4FA2-4C66-A1A6-677C1DD6EC21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15763,7 +15781,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -15943,7 +15961,7 @@
             <xdr:cNvPr id="27" name="CuadroTexto 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{523D2010-8066-4151-A93D-E2EF24B022EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15994,7 +16012,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16174,7 +16192,7 @@
             <xdr:cNvPr id="28" name="CuadroTexto 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F77818B-9E13-47E4-9DB1-3A74B5043B70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16225,7 +16243,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16393,7 +16411,7 @@
             <xdr:cNvPr id="29" name="CuadroTexto 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40E84834-F345-4198-BA2A-4FAEAFFCC7FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16444,7 +16462,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16648,7 +16666,7 @@
             <xdr:cNvPr id="31" name="CuadroTexto 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4628B184-252D-4442-83C5-2C6D410B75B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16975,7 +16993,7 @@
             <xdr:cNvPr id="32" name="CuadroTexto 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D68E533-DBCD-4493-BB85-E9BBAAD17428}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17054,7 +17072,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -17447,7 +17465,7 @@
             <xdr:cNvPr id="33" name="CuadroTexto 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6F27D08-1D32-4B82-B2E0-DB175A0ADD6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17514,7 +17532,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -17931,7 +17949,7 @@
             <xdr:cNvPr id="34" name="CuadroTexto 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A0CDC0A-F1F0-42C8-875B-53AD3E290D38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17998,7 +18016,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -18391,7 +18409,7 @@
             <xdr:cNvPr id="35" name="CuadroTexto 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696723E8-ECF5-4445-8E55-F2EAD22054F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18458,7 +18476,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -18880,14 +18898,14 @@
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3290094" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C853866-E1B1-4879-94D1-89B45AA41661}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18954,7 +18972,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19221,7 +19239,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35">
@@ -19371,7 +19389,7 @@
             <xdr:cNvPr id="37" name="CuadroTexto 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01C8391E-2DC7-43AE-8263-78F69D428327}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19438,7 +19456,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19675,7 +19693,7 @@
             <xdr:cNvPr id="38" name="CuadroTexto 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC896CD3-AF23-4D01-B18D-24BE245C260B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19742,7 +19760,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19979,7 +19997,7 @@
             <xdr:cNvPr id="39" name="CuadroTexto 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{110ED644-BFFD-42AC-B243-2629B07EEF70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20046,7 +20064,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20367,7 +20385,7 @@
             <xdr:cNvPr id="40" name="CuadroTexto 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06934E58-F5C2-45E7-8608-0D61A1B54746}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20921,7 +20939,7 @@
             <xdr:cNvPr id="41" name="CuadroTexto 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55768FA3-0A6F-4A97-B9B7-505886692206}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20988,7 +21006,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21201,7 +21219,7 @@
             <xdr:cNvPr id="42" name="CuadroTexto 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67D97B1B-BD1F-45CF-9408-589D77B1F048}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21556,14 +21574,14 @@
       <xdr:rowOff>256267</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5519653" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 113">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3DBE0E0-76DC-4297-BCCF-2BC417106214}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21842,7 +21860,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 113">
@@ -21937,14 +21955,14 @@
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2581669" cy="510524"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 114">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79A3D3A-3616-48D7-925C-E5316AEC7B70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22011,7 +22029,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -22182,7 +22200,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 114">
@@ -22325,14 +22343,14 @@
       <xdr:rowOff>517072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1949636" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 115">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41147B65-5AA3-4458-B9D2-47856530F23C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22399,7 +22417,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -22534,7 +22552,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 115">
@@ -22677,14 +22695,14 @@
       <xdr:rowOff>415018</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="998607" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 116">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FAB2D5B-CB77-4741-8F58-30B35B659959}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22751,7 +22769,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -22826,7 +22844,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 116">
@@ -22969,14 +22987,14 @@
       <xdr:rowOff>91168</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1555875" cy="510845"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 117">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B2513EE-4404-4ECB-BB00-AE0BBA495833}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23043,7 +23061,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -23118,7 +23136,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 117">
@@ -23261,14 +23279,14 @@
       <xdr:rowOff>612775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1906997" cy="467692"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 119">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0921033A-F99F-4C9D-9DA5-FC631B59E185}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23335,7 +23353,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -23470,7 +23488,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 119">
@@ -23613,14 +23631,14 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2371611" cy="467692"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43165275-6F0E-46E4-8896-A4BE09DCE5D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23687,7 +23705,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -23858,7 +23876,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 120">
@@ -24001,14 +24019,14 @@
       <xdr:rowOff>987879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2417520" cy="483915"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 121">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{776C151C-264F-4BBF-81D6-9A6AB5972493}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24075,7 +24093,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -24258,7 +24276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 121">
@@ -24425,14 +24443,14 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3011274" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 122">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9B35DA4-C530-4FF0-A4BA-7E52DB8E3874}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24499,7 +24517,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -24658,7 +24676,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 122">
@@ -24801,14 +24819,14 @@
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2961388" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 123">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85BD7480-9600-4D0C-860F-412BF0702E83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24875,7 +24893,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25034,7 +25052,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 123">
@@ -25189,14 +25207,14 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2722412" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 124">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49F452-3728-405C-AD32-832B370AE49E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25263,7 +25281,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25422,7 +25440,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 124">
@@ -25565,14 +25583,14 @@
       <xdr:rowOff>396875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2940805" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 125">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B7B604B-5917-46E4-AD24-020D5E2DAE18}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25639,7 +25657,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25858,7 +25876,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 125">
@@ -26001,14 +26019,14 @@
       <xdr:rowOff>587375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1738104" cy="507960"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 126">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A759AB87-7884-472E-8E50-6DD35BE3721A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26075,7 +26093,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -26119,7 +26137,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -26184,7 +26202,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 126">
@@ -26327,14 +26345,14 @@
       <xdr:rowOff>746125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3192990" cy="509114"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 127">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A975AC46-2C26-4A39-BCCA-90015B7785B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26401,7 +26419,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -26548,7 +26566,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 127">
@@ -26691,14 +26709,14 @@
       <xdr:rowOff>454025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3982565" cy="507960"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 128">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A503152E-716E-476C-A99C-EE54551CCFFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26765,7 +26783,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -26905,7 +26923,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -26946,7 +26964,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 128">
@@ -27089,14 +27107,14 @@
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4038093" cy="507960"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 129">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2861B802-AF3F-4790-8218-8FDBF8D92B76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27163,7 +27181,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -27303,7 +27321,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -27344,7 +27362,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 129">
@@ -27487,14 +27505,14 @@
       <xdr:rowOff>191862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2190856" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B2032E6-ABCF-412D-BB3A-3A613816461B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27545,7 +27563,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -27708,7 +27726,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -27827,14 +27845,14 @@
       <xdr:rowOff>911678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4131066" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A21BEA45-B861-4492-BBA3-7E8A93D3D655}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28077,7 +28095,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -28208,14 +28226,14 @@
       <xdr:rowOff>272143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2817503" cy="508985"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A765D23-83E8-409A-9F65-EE59D36F260E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28282,7 +28300,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -28489,7 +28507,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -28644,14 +28662,14 @@
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3255635" cy="511935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C191A3D5-5121-412A-A9E2-324D52693D78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28718,7 +28736,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -28973,7 +28991,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -29128,14 +29146,14 @@
       <xdr:rowOff>231321</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3213957" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9138853-1C53-4849-9FAB-122B407B4455}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29202,7 +29220,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -29409,7 +29427,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -29564,14 +29582,14 @@
       <xdr:rowOff>272143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3228833" cy="508985"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5E29D60-69A1-4808-ACC4-9881B74ED369}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -29638,7 +29656,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -29845,7 +29863,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="CuadroTexto 27">
@@ -30000,14 +30018,14 @@
       <xdr:rowOff>231321</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2656112" cy="508985"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{123B36F2-208E-4318-AC2A-80F41D3028A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30074,7 +30092,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -30281,7 +30299,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="CuadroTexto 28">
@@ -30436,14 +30454,14 @@
       <xdr:rowOff>261257</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2793522" cy="510717"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43AF6168-C411-4BC9-ABB1-A9EE22EE6D60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30510,7 +30528,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -30717,7 +30735,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CuadroTexto 29">
@@ -30872,14 +30890,14 @@
       <xdr:rowOff>231322</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2581861" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63DDF4-4DEF-4D93-A695-2A8D7984B7A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -30946,7 +30964,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -31153,7 +31171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="CuadroTexto 30">
@@ -31308,14 +31326,14 @@
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882649" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CuadroTexto 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10515F21-FC9D-4C95-AC8B-C05269A51E8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31382,7 +31400,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -31565,7 +31583,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="CuadroTexto 32">
@@ -31720,14 +31738,14 @@
       <xdr:rowOff>274864</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3239285" cy="510653"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C909CAFC-74AB-4BA8-B59E-87C391E1D5BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -31794,7 +31812,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -31977,7 +31995,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 33">
@@ -32132,14 +32150,14 @@
       <xdr:rowOff>263979</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2965427" cy="510204"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F963270-8AF5-4282-8070-4BAD33FC8AC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32206,7 +32224,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -32437,7 +32455,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="CuadroTexto 34">
@@ -32592,14 +32610,14 @@
       <xdr:rowOff>212272</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2784159" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8876D874-BED9-480A-89E3-6763BF17F45D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -32666,7 +32684,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -32825,7 +32843,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 35">
@@ -32980,14 +32998,14 @@
       <xdr:rowOff>269422</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2545569" cy="467564"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D91649A-3EC1-4D59-AB89-4C1644010472}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -33054,7 +33072,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -33213,7 +33231,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 36">
@@ -33618,50 +33636,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L3"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="78.85546875" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
+    <col min="4" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="78.88671875" customWidth="1"/>
+    <col min="12" max="13" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
       <c r="K1" s="105"/>
     </row>
-    <row r="2" spans="1:14" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -33692,178 +33710,189 @@
       <c r="J2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="46" t="s">
         <v>192</v>
       </c>
+      <c r="M2" s="112" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127">
+    <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123">
         <v>1</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="165" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="135" t="s">
         <v>195</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="133"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="131"/>
       <c r="J3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="113" t="s">
         <v>183</v>
       </c>
       <c r="L3" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M3" s="112" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="128"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="158"/>
+    <row r="4" spans="1:15" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="124"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="134"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="132"/>
       <c r="J4" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="191" t="s">
+      <c r="K4" s="114" t="s">
         <v>184</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M4" s="112"/>
     </row>
-    <row r="5" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127">
+    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="123">
         <v>2</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="157" t="s">
+      <c r="C5" s="127"/>
+      <c r="D5" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="135" t="s">
         <v>195</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="133"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="191" t="s">
+      <c r="K5" s="114" t="s">
         <v>185</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M5" s="112"/>
     </row>
-    <row r="6" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:15" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
       <c r="G6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="149"/>
-      <c r="I6" s="134"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="191" t="s">
+      <c r="K6" s="114" t="s">
         <v>186</v>
       </c>
       <c r="L6" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" t="s">
+      <c r="M6" s="112"/>
+      <c r="N6" s="111"/>
+      <c r="O6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127">
+    <row r="7" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="123">
         <v>3</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="119" t="s">
+      <c r="H7" s="129"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="191" t="s">
+      <c r="K7" s="114" t="s">
         <v>187</v>
       </c>
       <c r="L7" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" t="s">
+      <c r="M7" s="112"/>
+      <c r="N7" s="110"/>
+      <c r="O7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="191" t="s">
+    <row r="8" spans="1:15" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="124"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="114" t="s">
         <v>191</v>
       </c>
       <c r="L8" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M8" s="112"/>
     </row>
-    <row r="9" spans="1:14" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="97"/>
       <c r="B9" s="11" t="s">
         <v>190</v>
@@ -33884,9 +33913,9 @@
       <c r="J9" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="114"/>
     </row>
-    <row r="10" spans="1:14" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="109"/>
       <c r="C10" s="2"/>
@@ -33896,14 +33925,14 @@
       <c r="E10" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="195"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="92"/>
       <c r="H10" s="1"/>
       <c r="I10" s="49"/>
       <c r="J10" s="94"/>
-      <c r="K10" s="191"/>
+      <c r="K10" s="114"/>
     </row>
-    <row r="11" spans="1:14" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="91"/>
       <c r="B11" s="109"/>
       <c r="C11" s="2"/>
@@ -33914,9 +33943,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="49"/>
       <c r="J11" s="94"/>
-      <c r="K11" s="191"/>
+      <c r="K11" s="114"/>
     </row>
-    <row r="12" spans="1:14" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -33943,12 +33972,12 @@
       <c r="J12" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="192"/>
+      <c r="K12" s="115"/>
       <c r="L12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="91">
         <v>7</v>
       </c>
@@ -33967,14 +33996,15 @@
       <c r="H13" s="21"/>
       <c r="I13" s="47"/>
       <c r="J13" s="63"/>
-      <c r="K13" s="192" t="s">
+      <c r="K13" s="115" t="s">
         <v>196</v>
       </c>
       <c r="L13" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M13" s="112"/>
     </row>
-    <row r="14" spans="1:14" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -34001,12 +34031,12 @@
       <c r="J14" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="192"/>
+      <c r="K14" s="115"/>
       <c r="L14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>10</v>
       </c>
@@ -34035,122 +34065,126 @@
       <c r="J15" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="192" t="s">
+      <c r="K15" s="115" t="s">
         <v>197</v>
       </c>
       <c r="L15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127">
+    <row r="16" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="123">
         <v>11</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="123" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="133"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="191" t="s">
+      <c r="K16" s="114" t="s">
         <v>199</v>
       </c>
       <c r="L16" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M16" s="112"/>
     </row>
-    <row r="17" spans="1:13" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="128"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+    <row r="17" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="124"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="134"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="132"/>
       <c r="J17" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="191" t="s">
+      <c r="K17" s="114" t="s">
         <v>198</v>
       </c>
       <c r="L17" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M17" s="112"/>
     </row>
-    <row r="18" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127">
+    <row r="18" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="123">
         <v>12</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="114" t="s">
+      <c r="C18" s="127"/>
+      <c r="D18" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="114" t="s">
+      <c r="E18" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="155"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="23"/>
       <c r="J18" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="191" t="s">
+      <c r="K18" s="114" t="s">
         <v>199</v>
       </c>
       <c r="L18" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M18" s="112"/>
     </row>
-    <row r="19" spans="1:13" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="128"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
+    <row r="19" spans="1:14" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="124"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="156"/>
+      <c r="H19" s="142"/>
       <c r="I19" s="49"/>
       <c r="J19" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="K19" s="191" t="s">
+      <c r="K19" s="114" t="s">
         <v>198</v>
       </c>
       <c r="L19" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M19" s="112"/>
     </row>
-    <row r="20" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>13</v>
       </c>
@@ -34179,23 +34213,23 @@
       <c r="J20" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="191"/>
+      <c r="K20" s="114"/>
     </row>
-    <row r="21" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127">
+    <row r="21" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="123">
         <v>14</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="123" t="s">
+      <c r="C21" s="145"/>
+      <c r="D21" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="114" t="s">
+      <c r="E21" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -34210,23 +34244,24 @@
       <c r="J21" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="192" t="s">
+      <c r="K21" s="115" t="s">
         <v>200</v>
       </c>
       <c r="L21" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="112"/>
+      <c r="N21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="128"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
+    <row r="22" spans="1:14" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="124"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="27" t="s">
         <v>65</v>
       </c>
@@ -34235,23 +34270,23 @@
       <c r="J22" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="191"/>
+      <c r="K22" s="114"/>
     </row>
-    <row r="23" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127">
+    <row r="23" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="123">
         <v>15</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="123" t="s">
+      <c r="C23" s="145"/>
+      <c r="D23" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G23" s="42" t="s">
@@ -34266,20 +34301,21 @@
       <c r="J23" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="K23" s="192" t="s">
+      <c r="K23" s="115" t="s">
         <v>201</v>
       </c>
       <c r="L23" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M23" s="112"/>
     </row>
-    <row r="24" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
+    <row r="24" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="151"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
       <c r="G24" s="43" t="s">
         <v>64</v>
       </c>
@@ -34292,18 +34328,18 @@
       <c r="J24" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="192"/>
-      <c r="M24" t="s">
+      <c r="K24" s="115"/>
+      <c r="N24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="128"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
+    <row r="25" spans="1:14" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="124"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="25"/>
       <c r="H25" s="31" t="s">
         <v>79</v>
@@ -34314,23 +34350,23 @@
       <c r="J25" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="192"/>
+      <c r="K25" s="115"/>
     </row>
-    <row r="26" spans="1:13" ht="96" x14ac:dyDescent="0.25">
-      <c r="A26" s="127">
+    <row r="26" spans="1:14" ht="96" x14ac:dyDescent="0.3">
+      <c r="A26" s="123">
         <v>16</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="114" t="s">
+      <c r="C26" s="145"/>
+      <c r="D26" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="114" t="s">
+      <c r="E26" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G26" s="42" t="s">
@@ -34345,20 +34381,21 @@
       <c r="J26" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="193" t="s">
+      <c r="K26" s="116" t="s">
         <v>202</v>
       </c>
       <c r="L26" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M26" s="112"/>
     </row>
-    <row r="27" spans="1:13" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
+    <row r="27" spans="1:14" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="124"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="27" t="s">
         <v>64</v>
       </c>
@@ -34371,9 +34408,9 @@
       <c r="J27" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="193"/>
+      <c r="K27" s="116"/>
     </row>
-    <row r="28" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>17</v>
       </c>
@@ -34408,8 +34445,9 @@
       <c r="L28" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M28" s="112"/>
     </row>
-    <row r="29" spans="1:13" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>18</v>
       </c>
@@ -34444,8 +34482,9 @@
       <c r="L29" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M29" s="112"/>
     </row>
-    <row r="30" spans="1:13" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>19</v>
       </c>
@@ -34476,39 +34515,39 @@
       </c>
       <c r="K30" s="45"/>
     </row>
-    <row r="31" spans="1:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="159" t="s">
+    <row r="31" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="152" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="194"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="117"/>
     </row>
-    <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="127">
+    <row r="32" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="123">
         <v>20</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="123" t="s">
+      <c r="C32" s="129"/>
+      <c r="D32" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="112" t="s">
+      <c r="E32" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="137"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="35" t="s">
         <v>82</v>
       </c>
@@ -34520,14 +34559,14 @@
       </c>
       <c r="K32" s="45"/>
     </row>
-    <row r="33" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="138"/>
+    <row r="33" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="124"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="169"/>
       <c r="H33" s="37" t="s">
         <v>83</v>
       </c>
@@ -34537,29 +34576,29 @@
       <c r="J33" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="193"/>
+      <c r="K33" s="116"/>
       <c r="L33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="127">
+    <row r="34" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="123">
         <v>21</v>
       </c>
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="123" t="s">
+      <c r="C34" s="159"/>
+      <c r="D34" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="112" t="s">
+      <c r="E34" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="112" t="s">
+      <c r="F34" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="137"/>
+      <c r="G34" s="168"/>
       <c r="H34" s="28" t="s">
         <v>71</v>
       </c>
@@ -34571,14 +34610,14 @@
       </c>
       <c r="K34" s="45"/>
     </row>
-    <row r="35" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="128"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="138"/>
+    <row r="35" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="124"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="169"/>
       <c r="H35" s="32" t="s">
         <v>84</v>
       </c>
@@ -34593,24 +34632,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A36" s="143">
+    <row r="36" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="155">
         <v>22</v>
       </c>
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="123" t="s">
+      <c r="C36" s="129"/>
+      <c r="D36" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="137"/>
+      <c r="G36" s="168"/>
       <c r="H36" s="41" t="s">
         <v>85</v>
       </c>
@@ -34625,14 +34664,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="144"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="138"/>
+    <row r="37" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="161"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="169"/>
       <c r="H37" s="38" t="s">
         <v>84</v>
       </c>
@@ -34647,24 +34686,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A38" s="143">
+    <row r="38" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="155">
         <v>23</v>
       </c>
-      <c r="B38" s="139" t="s">
+      <c r="B38" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="123" t="s">
+      <c r="C38" s="127"/>
+      <c r="D38" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="137"/>
+      <c r="G38" s="168"/>
       <c r="H38" s="39" t="s">
         <v>86</v>
       </c>
@@ -34674,19 +34713,19 @@
       <c r="J38" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="K38" s="193"/>
+      <c r="K38" s="116"/>
       <c r="L38" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="138"/>
+    <row r="39" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="156"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="169"/>
       <c r="H39" s="40" t="s">
         <v>71</v>
       </c>
@@ -34701,21 +34740,21 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A40" s="143">
+    <row r="40" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="155">
         <v>24</v>
       </c>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="123" t="s">
+      <c r="C40" s="145"/>
+      <c r="D40" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="112" t="s">
+      <c r="E40" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="166" t="s">
         <v>131</v>
       </c>
       <c r="G40" s="24"/>
@@ -34733,13 +34772,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="148"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
+    <row r="41" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="156"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
       <c r="G41" s="26"/>
       <c r="H41" s="36" t="s">
         <v>71</v>
@@ -34755,7 +34794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>23</v>
       </c>
@@ -34764,25 +34803,25 @@
       </c>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>24</v>
       </c>
       <c r="B43" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="136"/>
+      <c r="G43" s="165"/>
     </row>
-    <row r="44" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>25</v>
       </c>
       <c r="B44" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="136"/>
+      <c r="G44" s="165"/>
     </row>
-    <row r="45" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>26</v>
       </c>
@@ -34790,7 +34829,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>27</v>
       </c>
@@ -34798,7 +34837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>28</v>
       </c>
@@ -34806,7 +34845,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>29</v>
       </c>
@@ -34817,7 +34856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>30</v>
       </c>
@@ -34825,23 +34864,24 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="162" t="s">
+    <row r="50" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="163"/>
-      <c r="J50" s="164"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122"/>
       <c r="K50" s="96"/>
       <c r="L50" s="95"/>
+      <c r="M50" s="198"/>
     </row>
-    <row r="51" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>31</v>
       </c>
@@ -34849,7 +34889,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>32</v>
       </c>
@@ -34857,7 +34897,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>33</v>
       </c>
@@ -34865,7 +34905,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>34</v>
       </c>
@@ -34873,13 +34913,94 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -34896,87 +35017,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34985,42 +35025,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" customWidth="1"/>
-    <col min="4" max="6" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" customWidth="1"/>
+    <col min="4" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" customWidth="1"/>
-    <col min="13" max="13" width="128.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" customWidth="1"/>
+    <col min="11" max="11" width="63.33203125" customWidth="1"/>
+    <col min="12" max="13" width="31.6640625" customWidth="1"/>
+    <col min="14" max="14" width="128.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="188"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="180"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:13" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
@@ -35054,8 +35094,9 @@
       <c r="L2" s="46" t="s">
         <v>192</v>
       </c>
+      <c r="M2" s="112"/>
     </row>
-    <row r="3" spans="1:13" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74">
         <v>1</v>
       </c>
@@ -35086,29 +35127,30 @@
       <c r="L3" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M3" s="112"/>
     </row>
-    <row r="4" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175">
+    <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="181">
         <v>2</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="170" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="170" t="s">
+      <c r="F4" s="187" t="s">
         <v>131</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="181"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="185"/>
       <c r="J4" s="42" t="s">
         <v>99</v>
       </c>
@@ -35118,48 +35160,49 @@
       <c r="L4" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="112"/>
+      <c r="N4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
+    <row r="5" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
       <c r="G5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="168"/>
-      <c r="I5" s="183"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="186"/>
       <c r="J5" s="78" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175">
+    <row r="6" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="181">
         <v>3</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="170" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="170" t="s">
+      <c r="E6" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="170" t="s">
+      <c r="F6" s="187" t="s">
         <v>131</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="167"/>
-      <c r="I6" s="181"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="185"/>
       <c r="J6" s="42" t="s">
         <v>101</v>
       </c>
@@ -35169,19 +35212,20 @@
       <c r="L6" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M6" s="112"/>
     </row>
-    <row r="7" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
+    <row r="7" spans="1:14" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
       <c r="G7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="183"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="78" t="s">
         <v>99</v>
       </c>
@@ -35191,53 +35235,55 @@
       <c r="L7" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M7" s="112"/>
     </row>
-    <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175">
+    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="181">
         <v>4</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="170" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="170" t="s">
+      <c r="E8" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="170" t="s">
+      <c r="F8" s="187" t="s">
         <v>131</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="181"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="185"/>
       <c r="J8" s="42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
+    <row r="9" spans="1:14" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="182"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
       <c r="G9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="168"/>
-      <c r="I9" s="183"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="186"/>
       <c r="J9" s="78" t="s">
         <v>99</v>
       </c>
       <c r="L9" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M9" s="112"/>
     </row>
-    <row r="10" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>5</v>
       </c>
@@ -35272,11 +35318,12 @@
       <c r="L10" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="93" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="93" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>6</v>
       </c>
@@ -35304,8 +35351,9 @@
       <c r="L11" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M11" s="112"/>
     </row>
-    <row r="12" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>7</v>
       </c>
@@ -35335,7 +35383,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>8</v>
       </c>
@@ -35366,8 +35414,9 @@
       <c r="L13" s="46" t="s">
         <v>157</v>
       </c>
+      <c r="M13" s="112"/>
     </row>
-    <row r="14" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>9</v>
       </c>
@@ -35397,11 +35446,11 @@
       <c r="K14" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="M14" s="93" t="s">
+      <c r="N14" s="93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>10</v>
       </c>
@@ -35427,187 +35476,191 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="175">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="181">
         <v>11</v>
       </c>
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="172" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="172" t="s">
+      <c r="F16" s="190" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="181" t="s">
+      <c r="I16" s="185" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="167" t="s">
+      <c r="J16" s="139" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="176"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="189"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="169"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="197"/>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="176"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="189"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="169"/>
-      <c r="M18" t="s">
+      <c r="I18" s="193"/>
+      <c r="J18" s="197"/>
+      <c r="N18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="176"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
+    <row r="19" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="189"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
       <c r="G19" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="18"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="169"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="197"/>
     </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="176"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="189"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="169"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="197"/>
     </row>
-    <row r="21" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
+    <row r="21" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="182"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="168"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="140"/>
     </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="175">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="181">
         <v>12</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="178"/>
-      <c r="D22" s="114" t="s">
+      <c r="C22" s="194"/>
+      <c r="D22" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="114" t="s">
+      <c r="E22" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="79"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="167" t="s">
+      <c r="I22" s="185"/>
+      <c r="J22" s="139" t="s">
         <v>99</v>
       </c>
       <c r="K22" t="s">
         <v>211</v>
       </c>
-      <c r="L22" s="196" t="s">
+      <c r="L22" s="177" t="s">
         <v>157</v>
       </c>
+      <c r="M22" s="119"/>
     </row>
-    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="176"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
       <c r="G23" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="169"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="197"/>
       <c r="K23" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="196"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="119"/>
     </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="176"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="189"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
       <c r="G24" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="80"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="169"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="197"/>
       <c r="K24" t="s">
         <v>213</v>
       </c>
-      <c r="L24" s="196"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="119"/>
     </row>
-    <row r="25" spans="1:13" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
+    <row r="25" spans="1:14" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="182"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="170"/>
       <c r="G25" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="81"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="168"/>
-      <c r="L25" s="196"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="140"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="119"/>
     </row>
-    <row r="26" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>13</v>
       </c>
@@ -35633,7 +35686,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>14</v>
       </c>
@@ -35668,11 +35721,12 @@
       <c r="L27" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="M27" s="93" t="s">
+      <c r="M27" s="46"/>
+      <c r="N27" s="93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>15</v>
       </c>
@@ -35704,58 +35758,58 @@
       <c r="K28" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="M28" s="93" t="s">
+      <c r="N28" s="93" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="175">
+    <row r="29" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="181">
         <v>16</v>
       </c>
-      <c r="B29" s="175" t="s">
+      <c r="B29" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="172" t="s">
+      <c r="C29" s="129"/>
+      <c r="D29" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="172" t="s">
+      <c r="E29" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="172" t="s">
+      <c r="F29" s="190" t="s">
         <v>131</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="167" t="s">
+      <c r="H29" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="181" t="s">
+      <c r="I29" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="167" t="s">
+      <c r="J29" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="177"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
+    <row r="30" spans="1:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="182"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
       <c r="G30" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="168"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="168"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="140"/>
     </row>
-    <row r="31" spans="1:13" ht="47.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>17</v>
       </c>
@@ -35785,7 +35839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>18</v>
       </c>
@@ -35815,7 +35869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>19</v>
       </c>
@@ -35844,11 +35898,11 @@
       <c r="J33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="93" t="s">
+      <c r="N33" s="93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>20</v>
       </c>
@@ -35877,22 +35931,57 @@
       <c r="J34" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="M34" s="93" t="s">
+      <c r="N34" s="93" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M38" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M39" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N39" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="E16:E21"/>
     <mergeCell ref="L22:L25"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:A5"/>
@@ -35909,41 +35998,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35952,42 +36006,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" customWidth="1"/>
-    <col min="12" max="12" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
+    <col min="4" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" customWidth="1"/>
+    <col min="12" max="12" width="48.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
       <c r="K1" s="105"/>
     </row>
-    <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
@@ -36018,12 +36072,12 @@
       <c r="J2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="46" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="97">
         <v>4</v>
       </c>
@@ -36044,12 +36098,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="49"/>
       <c r="J3" s="94"/>
-      <c r="K3" s="191"/>
+      <c r="K3" s="114"/>
       <c r="L3" s="46" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="97">
         <v>5</v>
       </c>
@@ -36064,12 +36118,12 @@
       <c r="H4" s="1"/>
       <c r="I4" s="49"/>
       <c r="J4" s="94"/>
-      <c r="K4" s="191"/>
+      <c r="K4" s="114"/>
       <c r="L4" s="46" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="97">
         <v>8</v>
       </c>
@@ -36090,9 +36144,9 @@
       <c r="H5" s="21"/>
       <c r="I5" s="47"/>
       <c r="J5" s="63"/>
-      <c r="K5" s="192"/>
+      <c r="K5" s="115"/>
     </row>
-    <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97">
         <v>9</v>
       </c>
@@ -36119,12 +36173,12 @@
       <c r="J6" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="192"/>
+      <c r="K6" s="115"/>
       <c r="L6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="97">
         <v>10</v>
       </c>
@@ -36153,100 +36207,100 @@
       <c r="J7" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="192"/>
+      <c r="K7" s="115"/>
       <c r="L7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127">
+    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="123">
         <v>11</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="133"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="131"/>
       <c r="J8" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="191"/>
+      <c r="K8" s="114"/>
     </row>
-    <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="128"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
+    <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="124"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="132"/>
-      <c r="I9" s="134"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="114"/>
     </row>
-    <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127">
+    <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="123">
         <v>12</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="114" t="s">
+      <c r="C10" s="127"/>
+      <c r="D10" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="155"/>
+      <c r="H10" s="141"/>
       <c r="I10" s="104"/>
       <c r="J10" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="191"/>
+      <c r="K10" s="114"/>
     </row>
-    <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
+    <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="124"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="156"/>
+      <c r="H11" s="142"/>
       <c r="I11" s="49"/>
       <c r="J11" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="191"/>
+      <c r="K11" s="114"/>
     </row>
-    <row r="12" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="97">
         <v>13</v>
       </c>
@@ -36275,23 +36329,23 @@
       <c r="J12" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="191"/>
+      <c r="K12" s="114"/>
     </row>
-    <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="127">
+    <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123">
         <v>14</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="123" t="s">
+      <c r="C13" s="145"/>
+      <c r="D13" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G13" s="42" t="s">
@@ -36306,18 +36360,18 @@
       <c r="J13" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="192"/>
+      <c r="K13" s="115"/>
       <c r="L13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
+    <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="124"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="108" t="s">
         <v>65</v>
       </c>
@@ -36326,23 +36380,23 @@
       <c r="J14" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="191"/>
+      <c r="K14" s="114"/>
     </row>
-    <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="127">
+    <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="123">
         <v>15</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="123" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G15" s="42" t="s">
@@ -36357,15 +36411,15 @@
       <c r="J15" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="192"/>
+      <c r="K15" s="115"/>
     </row>
-    <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
+    <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="151"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
       <c r="G16" s="43" t="s">
         <v>64</v>
       </c>
@@ -36378,18 +36432,18 @@
       <c r="J16" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="192"/>
+      <c r="K16" s="115"/>
       <c r="L16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="128"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+    <row r="17" spans="1:12" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="124"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="25"/>
       <c r="H17" s="31" t="s">
         <v>79</v>
@@ -36400,23 +36454,23 @@
       <c r="J17" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="192"/>
+      <c r="K17" s="115"/>
     </row>
-    <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="127">
+    <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.3">
+      <c r="A18" s="123">
         <v>16</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="114" t="s">
+      <c r="C18" s="145"/>
+      <c r="D18" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="114" t="s">
+      <c r="E18" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="137" t="s">
         <v>131</v>
       </c>
       <c r="G18" s="42" t="s">
@@ -36431,15 +36485,15 @@
       <c r="J18" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="193"/>
+      <c r="K18" s="116"/>
     </row>
-    <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="128"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
+    <row r="19" spans="1:12" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="124"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="108" t="s">
         <v>64</v>
       </c>
@@ -36452,9 +36506,9 @@
       <c r="J19" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="193"/>
+      <c r="K19" s="116"/>
     </row>
-    <row r="20" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="97">
         <v>17</v>
       </c>
@@ -36485,7 +36539,7 @@
       </c>
       <c r="K20" s="45"/>
     </row>
-    <row r="21" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="97">
         <v>18</v>
       </c>
@@ -36516,7 +36570,7 @@
       </c>
       <c r="K21" s="45"/>
     </row>
-    <row r="22" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="97">
         <v>19</v>
       </c>
@@ -36547,39 +36601,39 @@
       </c>
       <c r="K22" s="45"/>
     </row>
-    <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="159" t="s">
+    <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="152" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="194"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="117"/>
     </row>
-    <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127">
+    <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="123">
         <v>20</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="123" t="s">
+      <c r="C24" s="129"/>
+      <c r="D24" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="35" t="s">
         <v>82</v>
       </c>
@@ -36591,14 +36645,14 @@
       </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="128"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="138"/>
+    <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="124"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="37" t="s">
         <v>83</v>
       </c>
@@ -36608,29 +36662,29 @@
       <c r="J25" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="193"/>
+      <c r="K25" s="116"/>
       <c r="L25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="127">
+    <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="123">
         <v>21</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="123" t="s">
+      <c r="C26" s="159"/>
+      <c r="D26" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="112" t="s">
+      <c r="E26" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="28" t="s">
         <v>71</v>
       </c>
@@ -36642,14 +36696,14 @@
       </c>
       <c r="K26" s="45"/>
     </row>
-    <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="138"/>
+    <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="124"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="169"/>
       <c r="H27" s="32" t="s">
         <v>84</v>
       </c>
@@ -36664,24 +36718,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="143">
+    <row r="28" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="155">
         <v>22</v>
       </c>
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="123" t="s">
+      <c r="C28" s="129"/>
+      <c r="D28" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="137"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="41" t="s">
         <v>85</v>
       </c>
@@ -36696,14 +36750,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="144"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="138"/>
+    <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="161"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="38" t="s">
         <v>84</v>
       </c>
@@ -36718,24 +36772,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="143">
+    <row r="30" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="155">
         <v>23</v>
       </c>
-      <c r="B30" s="139" t="s">
+      <c r="B30" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="129"/>
-      <c r="D30" s="123" t="s">
+      <c r="C30" s="127"/>
+      <c r="D30" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="112" t="s">
+      <c r="E30" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="112" t="s">
+      <c r="F30" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="137"/>
+      <c r="G30" s="168"/>
       <c r="H30" s="39" t="s">
         <v>86</v>
       </c>
@@ -36745,19 +36799,19 @@
       <c r="J30" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="193"/>
+      <c r="K30" s="116"/>
       <c r="L30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="148"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="138"/>
+    <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="156"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="40" t="s">
         <v>71</v>
       </c>
@@ -36772,21 +36826,21 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="143">
+    <row r="32" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="155">
         <v>24</v>
       </c>
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="123" t="s">
+      <c r="C32" s="145"/>
+      <c r="D32" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="112" t="s">
+      <c r="E32" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="166" t="s">
         <v>131</v>
       </c>
       <c r="G32" s="99"/>
@@ -36804,13 +36858,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="148"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+    <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="156"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
       <c r="G33" s="100"/>
       <c r="H33" s="36" t="s">
         <v>71</v>
@@ -36826,7 +36880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>23</v>
       </c>
@@ -36835,25 +36889,25 @@
       </c>
       <c r="G34" s="104"/>
     </row>
-    <row r="35" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>24</v>
       </c>
       <c r="B35" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="136"/>
+      <c r="G35" s="165"/>
     </row>
-    <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>25</v>
       </c>
       <c r="B36" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="136"/>
+      <c r="G36" s="165"/>
     </row>
-    <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>26</v>
       </c>
@@ -36861,7 +36915,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>27</v>
       </c>
@@ -36869,7 +36923,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>28</v>
       </c>
@@ -36877,7 +36931,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>29</v>
       </c>
@@ -36888,7 +36942,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>30</v>
       </c>
@@ -36896,23 +36950,23 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="162" t="s">
+    <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="164"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="122"/>
       <c r="K42" s="96"/>
       <c r="L42" s="95"/>
     </row>
-    <row r="43" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>31</v>
       </c>
@@ -36920,7 +36974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>32</v>
       </c>
@@ -36928,7 +36982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>33</v>
       </c>
@@ -36936,7 +36990,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>34</v>
       </c>
@@ -36944,13 +36998,69 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -36966,62 +37076,6 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993D0415-9F52-4713-9086-C6956267BE9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E1F8F-243A-43B7-ACD5-40C37FF1E822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,26 @@
     <sheet name="Huevo" sheetId="2" r:id="rId2"/>
     <sheet name="Cerdo Produccion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="240">
   <si>
     <t>No.</t>
   </si>
@@ -39,9 +48,6 @@
   </si>
   <si>
     <t>INFORMACIÓN FALTANTE:</t>
-  </si>
-  <si>
-    <t>Peso promedio de venta por corral</t>
   </si>
   <si>
     <t>Perdida por muerte</t>
@@ -712,12 +718,83 @@
   <si>
     <t>Gasto por lote</t>
   </si>
+  <si>
+    <t>Peso promedio de venta por lote</t>
+  </si>
+  <si>
+    <t>Diferenciador de antes y despues de pelecha</t>
+  </si>
+  <si>
+    <t>Costo mano de obra</t>
+  </si>
+  <si>
+    <t>Costo medicamento prev</t>
+  </si>
+  <si>
+    <t>Costo vacunacion</t>
+  </si>
+  <si>
+    <t>Med curativo</t>
+  </si>
+  <si>
+    <t>Costo global alimento gestacion (población)</t>
+  </si>
+  <si>
+    <t>Costo consumo de alimento por lote (formulacion rapida)</t>
+  </si>
+  <si>
+    <t>Costo material medico veterinario</t>
+  </si>
+  <si>
+    <t>Costo alimento terminado y complemento alimenticios</t>
+  </si>
+  <si>
+    <t>Costo medicamento preventivo  veterinario</t>
+  </si>
+  <si>
+    <t>Se sabe el insumo en cada corral, pero como saber por lote</t>
+  </si>
+  <si>
+    <t>Suma de sueldos y prestaciones más gastos directo</t>
+  </si>
+  <si>
+    <t>De las formulaciones rapidas de alimento</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Se sabe el insumo en cada corral, pero como saber por lote. La descripción se tiene que referenciar con la clasificación de productos en moviemientos de inventario, insumos</t>
+  </si>
+  <si>
+    <t>Cuando se nace el destete se hace desde transpaso entre corrales en donde se genera barrido de corral de todo lo que se consumio en la camada, pero no se sabe si se guarda la fecha de barrido (el inicio de destete)</t>
+  </si>
+  <si>
+    <t>En corral, traspasos de corral se puede saber costos y el número de cerdos, solo falta clasificacion.
+Con contabilidad, cuentas se puede hacer la verificación.</t>
+  </si>
+  <si>
+    <t>Desde corral, traspasos de corral se puede saber los costos  y el numero de cabezas.
+En contabilidad, se pode hacer compración.</t>
+  </si>
+  <si>
+    <t>Porcentaje de Postura despue Pelecha</t>
+  </si>
+  <si>
+    <t>Faltan gallinas que llega</t>
+  </si>
+  <si>
+    <t>Gallinas será manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +945,48 @@
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1334,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1681,10 +1800,82 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,16 +1926,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1789,12 +1998,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1813,6 +2016,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1825,10 +2049,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1855,7 +2079,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1874,6 +2098,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,9 +2174,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF16969"/>
       <color rgb="FFF4D2FE"/>
       <color rgb="FFEEBAFE"/>
-      <color rgb="FFF16969"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1961,7 +2194,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1712233</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>648607</xdr:rowOff>
@@ -2526,7 +2759,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1238251</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>435428</xdr:rowOff>
@@ -2774,7 +3007,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1172936</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97971</xdr:rowOff>
@@ -3239,7 +3472,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>914854</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
@@ -3786,7 +4019,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>99785</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>522967</xdr:rowOff>
@@ -4167,7 +4400,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1592035</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
@@ -4507,12 +4740,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1945822</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>517072</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1949636" cy="509114"/>
+    <xdr:ext cx="2161361" cy="525337"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -4528,8 +4761,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3891643" y="7796893"/>
-              <a:ext cx="1949636" cy="509114"/>
+              <a:off x="4600916" y="14030666"/>
+              <a:ext cx="2161361" cy="525337"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4604,8 +4837,29 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t> ∑ </m:t>
-                        </m:r>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e/>
+                        </m:nary>
                         <m:r>
                           <a:rPr lang="es-MX" sz="1600" i="1">
                             <a:solidFill>
@@ -4728,7 +4982,7 @@
             <xdr:cNvPr id="116" name="CuadroTexto 115">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41147B65-5AA3-4458-B9D2-47856530F23C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4736,8 +4990,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3891643" y="7796893"/>
-              <a:ext cx="1949636" cy="509114"/>
+              <a:off x="4600916" y="14030666"/>
+              <a:ext cx="2161361" cy="525337"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4787,7 +5041,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4811,12 +5065,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2320018</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>248330</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>415018</xdr:rowOff>
+      <xdr:rowOff>1010330</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="998607" cy="509114"/>
+    <xdr:ext cx="5265159" cy="469103"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -4832,8 +5086,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4685393" y="10638518"/>
-              <a:ext cx="998607" cy="509114"/>
+              <a:off x="2903424" y="16690861"/>
+              <a:ext cx="5265159" cy="469103"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4899,16 +5153,28 @@
                       </m:fPr>
                       <m:num>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∑</m:t>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑇𝑜𝑡𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="es-MX" sz="1600" i="1">
@@ -4921,20 +5187,164 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>𝐺𝑎𝑠𝑡𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> (</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑢𝑒𝑙𝑑𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑟𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛𝑒𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+ </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑎𝑠𝑡𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑖𝑟𝑒𝑐𝑡𝑜𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∑ </m:t>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑇𝑜𝑡𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="es-MX" sz="1600" i="1">
@@ -4972,7 +5382,7 @@
             <xdr:cNvPr id="117" name="CuadroTexto 116">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB2D5B-CB77-4741-8F58-30B35B659959}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4980,8 +5390,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4685393" y="10638518"/>
-              <a:ext cx="998607" cy="509114"/>
+              <a:off x="2903424" y="16690861"/>
+              <a:ext cx="5265159" cy="469103"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5031,11 +5441,59 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(∑𝐺𝑎𝑠𝑡𝑜𝑠)/(∑ 𝐶𝑎𝑏𝑒𝑧𝑎𝑠)</a:t>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑇𝑜𝑡𝑎𝑙 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐺𝑎𝑠𝑡𝑜𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (𝑠𝑢𝑒𝑙𝑑𝑜𝑠 𝑦 𝑝𝑟𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛𝑒𝑠+ 𝑔𝑎𝑠𝑡𝑜𝑠 𝑑𝑖𝑟𝑒𝑐𝑡𝑜𝑠))/(𝑇𝑜𝑡𝑎𝑙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝐶𝑎𝑏𝑒𝑧𝑎𝑠)</a:t>
               </a:r>
               <a:endParaRPr lang="es-MX" sz="4800">
                 <a:solidFill>
@@ -5055,7 +5513,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1980293</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>91168</xdr:rowOff>
@@ -5299,7 +5757,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1851025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>612774</xdr:rowOff>
@@ -5675,7 +6133,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -6183,7 +6641,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1604736</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>987879</xdr:rowOff>
@@ -6559,12 +7017,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3011274" cy="509114"/>
+    <xdr:ext cx="3518847" cy="508985"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -6580,8 +7038,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3736975" y="13404850"/>
-              <a:ext cx="3011274" cy="509114"/>
+              <a:off x="4026694" y="26434256"/>
+              <a:ext cx="3518847" cy="508985"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6656,7 +7114,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t> ∑ </m:t>
+                          <m:t> </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="es-MX" sz="1600" i="1">
@@ -6707,16 +7165,40 @@
                           <m:t> </m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑎𝑡𝑒𝑟𝑖𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑒𝑑𝑖𝑐𝑜</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="es-MX" sz="1600" i="1">
@@ -6804,7 +7286,7 @@
             <xdr:cNvPr id="123" name="CuadroTexto 122">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B35DA4-C530-4FF0-A4BA-7E52DB8E3874}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6812,8 +7294,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3736975" y="13404850"/>
-              <a:ext cx="3011274" cy="509114"/>
+              <a:off x="4026694" y="26434256"/>
+              <a:ext cx="3518847" cy="508985"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6863,11 +7345,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>( ∑ 𝐶𝑜𝑠𝑡𝑜 𝑑𝑒 𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜 𝑝𝑟𝑒𝑣𝑒𝑛𝑡𝑖𝑣𝑜)/(∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠.)</a:t>
+                <a:t>( 𝐶𝑜𝑠𝑡𝑜 𝑑𝑒 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚𝑎𝑡𝑒𝑟𝑖𝑎𝑙 𝑚𝑒𝑑𝑖𝑐𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑝𝑟𝑒𝑣𝑒𝑛𝑡𝑖𝑣𝑜)/(∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠.)</a:t>
               </a:r>
               <a:endParaRPr lang="es-MX" sz="71400">
                 <a:solidFill>
@@ -6887,12 +7393,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1412875</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2961388" cy="509114"/>
+    <xdr:ext cx="3569760" cy="508985"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -6908,8 +7414,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3778250" y="14081125"/>
-              <a:ext cx="2961388" cy="509114"/>
+              <a:off x="4067969" y="27106563"/>
+              <a:ext cx="3569760" cy="508985"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6984,7 +7490,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t> ∑ </m:t>
+                          <m:t> </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="es-MX" sz="1600" i="1">
@@ -7035,18 +7541,6 @@
                           <m:t> </m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
-                        </m:r>
-                        <m:r>
                           <a:rPr lang="es-MX" sz="1600" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
@@ -7056,6 +7550,18 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
+                          <m:t>𝑚𝑎𝑡𝑒𝑟𝑖𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
                           <m:t> </m:t>
                         </m:r>
                         <m:r>
@@ -7068,7 +7574,31 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑐𝑜𝑟𝑟𝑒𝑐𝑡𝑖𝑣𝑜</m:t>
+                          <m:t>𝑚𝑒𝑑𝑖𝑐𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑣𝑒𝑡𝑒𝑟𝑖𝑛𝑎𝑟𝑖𝑜</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -7132,7 +7662,7 @@
             <xdr:cNvPr id="124" name="CuadroTexto 123">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BD7480-9600-4D0C-860F-412BF0702E83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7140,8 +7670,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3778250" y="14081125"/>
-              <a:ext cx="2961388" cy="509114"/>
+              <a:off x="4067969" y="27106563"/>
+              <a:ext cx="3569760" cy="508985"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7191,11 +7721,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>( ∑ 𝐶𝑜𝑠𝑡𝑜 𝑑𝑒 𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</a:t>
+                <a:t>( 𝐶𝑜𝑠𝑡𝑜 𝑑𝑒 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-MX" sz="1600" b="0" i="0">
@@ -7207,19 +7737,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑐𝑜𝑟𝑟𝑒𝑐𝑡𝑖𝑣𝑜</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/(</a:t>
+                <a:t>𝑚𝑎𝑡𝑒𝑟𝑖𝑎𝑙 𝑚𝑒𝑑𝑖𝑐𝑜 𝑣𝑒𝑡𝑒𝑟𝑖𝑛𝑎𝑟𝑖𝑜)/(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-MX" sz="1600" i="0">
@@ -7227,7 +7745,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7251,12 +7769,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>116681</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2722412" cy="509114"/>
+    <xdr:ext cx="4815357" cy="710707"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -7272,8 +7790,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3803650" y="14789150"/>
-              <a:ext cx="2722412" cy="509114"/>
+              <a:off x="3188493" y="27953494"/>
+              <a:ext cx="4815357" cy="710707"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7326,7 +7844,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
+                          <a:rPr lang="es-MX" sz="2000" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -7338,106 +7856,209 @@
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>  ∑ </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑑𝑒</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑛𝑜𝑟𝑚𝑎𝑙</m:t>
-                        </m:r>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑑𝑒</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡𝑒𝑟𝑚𝑖𝑛𝑎𝑑𝑜</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑐𝑜𝑚𝑝𝑙𝑒𝑚𝑒𝑛𝑡𝑜𝑠</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜𝑐𝑖𝑜</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
+                          <a:rPr lang="es-MX" sz="2000" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -7449,7 +8070,7 @@
                           <m:t>∑</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
+                          <a:rPr lang="es-MX" sz="2000" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -7461,7 +8082,7 @@
                           <m:t>𝐶𝑎𝑏𝑒𝑧𝑎𝑠</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
+                          <a:rPr lang="es-MX" sz="2000" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -7496,7 +8117,7 @@
             <xdr:cNvPr id="125" name="CuadroTexto 124">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49F452-3728-405C-AD32-832B370AE49E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7504,8 +8125,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3803650" y="14789150"/>
-              <a:ext cx="2722412" cy="509114"/>
+              <a:off x="3188493" y="27953494"/>
+              <a:ext cx="4815357" cy="710707"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7550,7 +8171,31 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="es-MX" sz="1600" i="0">
+                <a:rPr lang="es-MX" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>█( </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1400" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -7559,7 +8204,43 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(  ∑ 𝐶𝑜𝑠𝑡𝑜 𝑑𝑒 𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜 𝑛𝑜𝑟𝑚𝑎𝑙)/(∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠.)</a:t>
+                <a:t> 𝐶𝑜𝑠𝑡𝑜 𝑑𝑒 𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑡𝑒𝑟𝑚𝑖𝑛𝑎𝑑𝑜 𝑦 𝑐𝑜𝑚𝑝𝑙𝑒𝑚𝑒𝑛𝑡𝑜𝑠 𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜𝑐𝑖𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠.)</a:t>
               </a:r>
               <a:endParaRPr lang="es-MX" sz="213200">
                 <a:solidFill>
@@ -7579,7 +8260,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>396875</xdr:rowOff>
@@ -7967,7 +8648,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1687286</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>789215</xdr:rowOff>
@@ -8307,7 +8988,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -8914,6 +9595,2379 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1404939</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2793778" cy="525337"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545D6676-D576-450E-9325-2C58633EC14A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4060033" y="30682406"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-MX" sz="1600" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e/>
+                        </m:nary>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑎𝑛𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑜𝑏𝑟𝑎</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑎𝑏𝑒𝑧𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545D6676-D576-450E-9325-2C58633EC14A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4060033" y="30682406"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  ∑ 𝐶𝑜𝑠𝑡𝑜 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚𝑎𝑛𝑜 𝑑𝑒 𝑜𝑏𝑟𝑎)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠 𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠 𝑎 𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1214437</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2793778" cy="525337"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E3E976-1A49-4BA3-B975-8FD9A435F8B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3869531" y="31408688"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑒𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑟𝑒𝑣𝑒𝑛𝑡𝑖𝑣𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑎𝑏𝑒𝑧𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E3E976-1A49-4BA3-B975-8FD9A435F8B4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3869531" y="31408688"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  𝐶𝑜𝑠𝑡𝑜 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚𝑒𝑑 𝑃𝑟𝑒𝑣𝑒𝑛𝑡𝑖𝑣𝑜)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠 𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠 𝑎 𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1357312</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2793778" cy="525337"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AB836F-8BDA-4170-89EF-07DB8C37F571}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4012406" y="32134969"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑣𝑎𝑐𝑢𝑛𝑎𝑐𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>ó</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑎𝑏𝑒𝑧𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AB836F-8BDA-4170-89EF-07DB8C37F571}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4012406" y="32134969"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  𝐶𝑜𝑠𝑡𝑜 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑣𝑎𝑐𝑢𝑛𝑎𝑐𝑖ó𝑛)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠 𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠 𝑎 𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1345406</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2793778" cy="525337"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="CuadroTexto 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8192620E-AE40-42FC-BA93-802CAF144969}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4000500" y="32789813"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑒𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑐𝑢𝑟𝑎𝑡𝑖𝑣𝑜</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑎𝑏𝑒𝑧𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="CuadroTexto 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8192620E-AE40-42FC-BA93-802CAF144969}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4000500" y="32789813"/>
+              <a:ext cx="2793778" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  𝐶𝑜𝑠𝑡𝑜 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚𝑒𝑑 𝑐𝑢𝑟𝑎𝑡𝑖𝑣𝑜)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑𝐶𝑎𝑏𝑒𝑧𝑎𝑠 𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠 𝑎 𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1321594</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2486450" cy="510717"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="CuadroTexto 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5937CFA4-08B6-4479-A5BC-CF3034BFE271}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6024563" y="36099750"/>
+              <a:ext cx="2486450" cy="510717"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑎𝑟𝑟𝑎𝑛𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="CuadroTexto 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5937CFA4-08B6-4479-A5BC-CF3034BFE271}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6024563" y="36099750"/>
+              <a:ext cx="2486450" cy="510717"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  𝐶𝑜𝑠𝑡𝑜 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜 𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑎𝑟𝑟𝑎𝑛𝑎𝑠 𝑒𝑛 𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1357312</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2888740" cy="525337"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="CuadroTexto 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB55F9E-69CA-4C3B-B63A-124D36A75A32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6060281" y="35349657"/>
+              <a:ext cx="2888740" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑎𝑏𝑒𝑧𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="CuadroTexto 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB55F9E-69CA-4C3B-B63A-124D36A75A32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6060281" y="35349657"/>
+              <a:ext cx="2888740" cy="525337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(  𝐶𝑜𝑠𝑡𝑜 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜 𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶𝑎𝑏𝑒𝑧𝑎𝑠 𝑙𝑙𝑒𝑣𝑎𝑑𝑎𝑠 𝑎 𝑑𝑒𝑠𝑡𝑒𝑡𝑎𝑟)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="368400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8921,7 +11975,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1709737</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
@@ -9188,7 +12242,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1831181</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>388144</xdr:rowOff>
@@ -9407,7 +12461,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1787524</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>246062</xdr:rowOff>
@@ -9626,7 +12680,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1761332</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>231775</xdr:rowOff>
@@ -9857,7 +12911,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1687513</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
@@ -10088,7 +13142,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1703387</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
@@ -10319,7 +13373,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1679575</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
@@ -10538,7 +13592,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1712119</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -10793,7 +13847,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>981869</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>237331</xdr:rowOff>
@@ -11120,7 +14174,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
@@ -11592,7 +14646,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -12076,7 +15130,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91281</xdr:rowOff>
@@ -12536,7 +15590,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>432594</xdr:rowOff>
@@ -13032,7 +16086,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1154906</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
@@ -13516,7 +16570,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1132681</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
@@ -13820,7 +16874,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1205706</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>296863</xdr:rowOff>
@@ -14124,7 +17178,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1024731</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>20638</xdr:rowOff>
@@ -14512,7 +17566,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>431006</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
@@ -15066,7 +18120,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1631156</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
@@ -15346,10 +18400,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1688306</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1742734</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>160338</xdr:rowOff>
+      <xdr:rowOff>201160</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5088060" cy="219163"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -15367,7 +18421,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2450306" y="16575088"/>
+              <a:off x="4273663" y="23346910"/>
               <a:ext cx="5088060" cy="219163"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15620,7 +18674,7 @@
             <xdr:cNvPr id="42" name="CuadroTexto 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D97B1B-BD1F-45CF-9408-589D77B1F048}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15628,7 +18682,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2450306" y="16575088"/>
+              <a:off x="4273663" y="23346910"/>
               <a:ext cx="5088060" cy="219163"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15679,7 +18733,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -27784,42 +30838,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="78.85546875" customWidth="1"/>
-    <col min="12" max="13" width="30.140625" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" customWidth="1"/>
+    <col min="5" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="43.42578125" customWidth="1"/>
+    <col min="12" max="12" width="78.85546875" customWidth="1"/>
+    <col min="13" max="14" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="102"/>
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="102"/>
     </row>
-    <row r="2" spans="1:15" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -27827,947 +30882,1069 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="109"/>
+      <c r="M2" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="142">
+        <v>1</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="F3" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="148"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="149"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="109"/>
+    </row>
+    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="142">
+        <v>2</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="146"/>
+      <c r="E5" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="148"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="109"/>
+    </row>
+    <row r="6" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="143"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="149"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="109"/>
+      <c r="O6" s="108"/>
+      <c r="P6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="M2" s="109" t="s">
-        <v>215</v>
+      <c r="B7" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="139"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="148"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="186" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="109"/>
+      <c r="O7" s="107"/>
+      <c r="P7" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118">
-        <v>1</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="109" t="s">
-        <v>216</v>
-      </c>
+    <row r="8" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="161"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="109"/>
     </row>
-    <row r="4" spans="1:15" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="109"/>
-    </row>
-    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118">
-        <v>2</v>
-      </c>
-      <c r="B5" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="130" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M5" s="109"/>
-    </row>
-    <row r="6" spans="1:15" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="108"/>
-      <c r="O6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118">
-        <v>3</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="158" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="109"/>
-    </row>
-    <row r="9" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="116">
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="14" t="s">
-        <v>60</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="111"/>
+        <v>59</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="111"/>
     </row>
-    <row r="10" spans="1:15" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="116">
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="14" t="s">
-        <v>61</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="112"/>
-      <c r="L10" t="s">
-        <v>140</v>
+      <c r="J10" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="112"/>
+      <c r="M10" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="116">
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="14" t="s">
-        <v>61</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="109"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="109"/>
     </row>
-    <row r="12" spans="1:15" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="116">
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="14" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="14" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="112"/>
-      <c r="L12" t="s">
-        <v>141</v>
+      <c r="K12" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="112"/>
+      <c r="M12" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>133</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="127"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F13" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="142">
+        <v>9</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="146"/>
+      <c r="E14" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="188"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" s="109"/>
+    </row>
+    <row r="15" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="143"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="189"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="109"/>
+    </row>
+    <row r="16" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="142">
+        <v>10</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="61" t="s">
+      <c r="I16" s="190"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="109"/>
+    </row>
+    <row r="17" spans="1:15" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="143"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="191"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="112" t="s">
+      <c r="L17" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="L13" t="s">
-        <v>142</v>
-      </c>
+      <c r="M17" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N17" s="109"/>
     </row>
-    <row r="14" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118">
-        <v>9</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="160"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="109"/>
-    </row>
-    <row r="15" spans="1:15" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="119"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" s="109"/>
-    </row>
-    <row r="16" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118">
-        <v>10</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" s="109"/>
-    </row>
-    <row r="17" spans="1:14" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="119"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="137"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="109"/>
-    </row>
-    <row r="18" spans="1:14" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="127"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="111"/>
+    </row>
+    <row r="19" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="160">
+        <v>12</v>
+      </c>
+      <c r="B19" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="86" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="109"/>
+      <c r="O19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="161"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="111"/>
+    </row>
+    <row r="21" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="160">
+        <v>13</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="125"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="G21" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="62" t="s">
+      <c r="I21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="109"/>
+    </row>
+    <row r="22" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="176"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="111"/>
+      <c r="L22" s="112"/>
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118">
-        <v>12</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="26" t="s">
+    <row r="23" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="161"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="112"/>
+    </row>
+    <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.25">
+      <c r="A24" s="160">
+        <v>14</v>
+      </c>
+      <c r="B24" s="173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="125"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" s="109"/>
-      <c r="N19" t="s">
-        <v>143</v>
-      </c>
+      <c r="J24" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" s="109"/>
     </row>
-    <row r="20" spans="1:14" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="119"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="111"/>
+    <row r="25" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="161"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="113"/>
     </row>
-    <row r="21" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="118">
-        <v>13</v>
-      </c>
-      <c r="B21" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="109"/>
+    <row r="26" spans="1:15" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="122">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="123" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26" s="109"/>
     </row>
-    <row r="22" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="146"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="41" t="s">
+    <row r="27" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122">
+        <v>16</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="123" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="50" t="s">
+      <c r="I27" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="112"/>
-      <c r="N22" t="s">
+      <c r="K27" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="109"/>
+    </row>
+    <row r="28" spans="1:15" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="122">
+        <v>17</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="114"/>
+    </row>
+    <row r="30" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="142">
+        <v>18</v>
+      </c>
+      <c r="B30" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="135" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="148"/>
+      <c r="E30" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="192"/>
+      <c r="I30" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:15" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="168"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="113"/>
+      <c r="M31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="119"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="112"/>
+    <row r="32" spans="1:15" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="130">
+        <v>19</v>
+      </c>
+      <c r="B32" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" ht="96" x14ac:dyDescent="0.25">
-      <c r="A24" s="118">
-        <v>14</v>
-      </c>
-      <c r="B24" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="132" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="109"/>
+    <row r="33" spans="1:4" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="130">
+        <v>20</v>
+      </c>
+      <c r="B33" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="135" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="119"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="113"/>
+    <row r="34" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="130">
+        <v>21</v>
+      </c>
+      <c r="B34" s="121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="141"/>
+      <c r="D34" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="L26" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M26" s="109"/>
+    <row r="35" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="130">
+        <v>22</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="141"/>
+      <c r="D35" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116">
-        <v>16</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="L27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="109"/>
+    <row r="36" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="130"/>
+      <c r="B36" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="141"/>
+      <c r="D36" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116">
-        <v>17</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="43"/>
+    <row r="37" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="130">
+        <v>23</v>
+      </c>
+      <c r="B37" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="136"/>
+      <c r="D37" s="9"/>
     </row>
-    <row r="29" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="114"/>
+    <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="131"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
     </row>
-    <row r="30" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118">
-        <v>18</v>
-      </c>
-      <c r="B30" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="151" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="154"/>
-      <c r="H30" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:14" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="113"/>
-      <c r="L31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>180</v>
-      </c>
+    <row r="39" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="131"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="74">
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:K29"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:J29"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C33:C37"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28777,978 +31954,1033 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" customWidth="1"/>
-    <col min="4" max="6" width="37.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" customWidth="1"/>
-    <col min="12" max="13" width="31.7109375" customWidth="1"/>
-    <col min="14" max="14" width="128.7109375" customWidth="1"/>
+    <col min="2" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" customWidth="1"/>
+    <col min="5" max="7" width="37.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" customWidth="1"/>
+    <col min="12" max="12" width="63.28515625" customWidth="1"/>
+    <col min="13" max="14" width="31.7109375" customWidth="1"/>
+    <col min="15" max="15" width="128.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="74"/>
+    <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="74"/>
     </row>
-    <row r="2" spans="1:14" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" s="73" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="F2" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="109"/>
+    </row>
+    <row r="3" spans="1:15" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="132">
+        <v>1</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="73" t="s">
+      <c r="G3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="109"/>
+    </row>
+    <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="201">
+        <v>2</v>
+      </c>
+      <c r="B4" s="203" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="209" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="209" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="209" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="158"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="109"/>
+      <c r="O4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="202"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="159"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="201">
         <v>3</v>
       </c>
-      <c r="I2" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="M2" s="109"/>
+      <c r="B6" s="203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="209" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="209" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="209" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="158"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="109"/>
     </row>
-    <row r="3" spans="1:14" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117">
-        <v>1</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="20" t="s">
+    <row r="7" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="159"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="L3" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="109"/>
+      <c r="M7" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="109"/>
     </row>
-    <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166">
-        <v>2</v>
-      </c>
-      <c r="B4" s="168" t="s">
+    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="201">
+        <v>4</v>
+      </c>
+      <c r="B8" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="209" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="209" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="158"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="202"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="174" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="174" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="109"/>
-      <c r="N4" t="s">
-        <v>155</v>
-      </c>
+      <c r="I9" s="159"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="109"/>
     </row>
-    <row r="5" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="166">
-        <v>3</v>
-      </c>
-      <c r="B6" s="168" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="174" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="174" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M6" s="109"/>
-    </row>
-    <row r="7" spans="1:14" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M7" s="109"/>
-    </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166">
-        <v>4</v>
-      </c>
-      <c r="B8" s="168" t="s">
+    <row r="10" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="132">
+        <v>5</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="174" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="174" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="135"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="109"/>
-    </row>
-    <row r="10" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117">
-        <v>5</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>114</v>
+        <v>137</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="90" t="s">
-        <v>148</v>
+      <c r="I10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N10" s="44"/>
+      <c r="O10" s="90" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="117">
+    <row r="11" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="132">
         <v>6</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="13" t="s">
-        <v>60</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="13" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="109"/>
+        <v>137</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="109"/>
     </row>
-    <row r="12" spans="1:14" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="72">
         <v>7</v>
       </c>
       <c r="B12" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="132">
+        <v>8</v>
+      </c>
+      <c r="B13" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>117</v>
       </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="109"/>
     </row>
-    <row r="13" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117">
-        <v>8</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="109"/>
-    </row>
-    <row r="14" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="117">
         <v>9</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="N14" s="90" t="s">
-        <v>156</v>
+      <c r="L14" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="O14" s="90" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="72">
         <v>10</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="201">
+        <v>11</v>
+      </c>
+      <c r="B16" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="C16" s="194" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="148"/>
+      <c r="E16" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="214" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="214" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="20" t="s">
-        <v>99</v>
+      <c r="K16" s="158" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="166">
-        <v>11</v>
-      </c>
-      <c r="B16" s="168" t="s">
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="211"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="224"/>
+    </row>
+    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="211"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="224"/>
+      <c r="O18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="211"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="224"/>
+    </row>
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="211"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="224"/>
+    </row>
+    <row r="21" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="202"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="159"/>
+    </row>
+    <row r="22" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="218">
+        <v>12</v>
+      </c>
+      <c r="B22" s="203" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="118"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="156" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="179" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="179" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="179" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="I22" s="77"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" s="197" t="s">
+        <v>156</v>
+      </c>
+      <c r="N22" s="115"/>
+    </row>
+    <row r="23" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="219"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="172" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="224"/>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" s="197"/>
+      <c r="N23" s="115"/>
+    </row>
+    <row r="24" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="219"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="217"/>
+      <c r="K24" s="224"/>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" s="197"/>
+      <c r="N24" s="115"/>
+    </row>
+    <row r="25" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="220"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="79"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="159"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="115"/>
+    </row>
+    <row r="26" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="132">
+        <v>13</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="134" t="s">
-        <v>99</v>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="80" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="176"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="186"/>
+    <row r="27" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="132">
+        <v>14</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="44"/>
+      <c r="O27" s="90" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="176"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="186"/>
-      <c r="N18" t="s">
-        <v>149</v>
+    <row r="28" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="132">
+        <v>15</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" s="90" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="176"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="186"/>
+    <row r="29" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="201">
+        <v>16</v>
+      </c>
+      <c r="B29" s="203" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="118"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="214" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="214" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="158" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="186"/>
+    <row r="30" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="202"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="159"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="159"/>
     </row>
-    <row r="21" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="167"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="135"/>
-    </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="168">
-        <v>12</v>
-      </c>
-      <c r="B22" s="168" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="162" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" s="115"/>
-    </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="177"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="186"/>
-      <c r="K23" t="s">
-        <v>212</v>
-      </c>
-      <c r="L23" s="162"/>
-      <c r="M23" s="115"/>
-    </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="177"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="186"/>
-      <c r="K24" t="s">
-        <v>213</v>
-      </c>
-      <c r="L24" s="162"/>
-      <c r="M24" s="115"/>
-    </row>
-    <row r="25" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="169"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="135"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="115"/>
-    </row>
-    <row r="26" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117">
-        <v>13</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117">
-        <v>14</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="L27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="90" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="117">
-        <v>15</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="N28" s="90" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="166">
-        <v>16</v>
-      </c>
-      <c r="B29" s="168" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="179" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="179" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="179" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="172" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="N29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="167"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="135"/>
-    </row>
-    <row r="31" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="117">
         <v>17</v>
       </c>
       <c r="B31" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>99</v>
+      <c r="J31" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="117">
         <v>18</v>
       </c>
       <c r="B32" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="132">
+        <v>19</v>
+      </c>
+      <c r="B33" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6" t="s">
+      <c r="C33" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>99</v>
+      <c r="F33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="90" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117">
-        <v>19</v>
-      </c>
-      <c r="B33" s="73" t="s">
+    <row r="34" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="132">
+        <v>20</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33" s="90" t="s">
+      <c r="J34" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="90" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="117">
-        <v>20</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34" s="90" t="s">
-        <v>154</v>
+    <row r="35" spans="1:15" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="133">
+        <v>21</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="85"/>
+      <c r="L35" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N38" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N39" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D22:D25"/>
+  <mergeCells count="54">
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29760,8 +32992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29778,18 +33010,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="A1" s="184" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
       <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29803,29 +33035,29 @@
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="109"/>
       <c r="L2" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29833,17 +33065,17 @@
         <v>4</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="99"/>
       <c r="H3" s="1"/>
@@ -29851,7 +33083,7 @@
       <c r="J3" s="91"/>
       <c r="K3" s="111"/>
       <c r="L3" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29859,7 +33091,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="14"/>
@@ -29871,7 +33103,7 @@
       <c r="J4" s="91"/>
       <c r="K4" s="111"/>
       <c r="L4" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29879,17 +33111,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="99"/>
       <c r="H5" s="21"/>
@@ -29902,31 +33134,31 @@
         <v>9</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="112"/>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29934,120 +33166,120 @@
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7" s="112"/>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="197">
+      <c r="A8" s="235">
         <v>11</v>
       </c>
-      <c r="B8" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="132" t="s">
-        <v>131</v>
+      <c r="B8" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="146"/>
+      <c r="D8" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="156" t="s">
+        <v>130</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="126"/>
+        <v>79</v>
+      </c>
+      <c r="H8" s="188"/>
+      <c r="I8" s="150"/>
       <c r="J8" s="103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="A9" s="236"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="127"/>
+        <v>64</v>
+      </c>
+      <c r="H9" s="189"/>
+      <c r="I9" s="151"/>
       <c r="J9" s="104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="197">
+      <c r="A10" s="235">
         <v>12</v>
       </c>
-      <c r="B10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="132" t="s">
-        <v>131</v>
+      <c r="B10" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="146"/>
+      <c r="D10" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="156" t="s">
+        <v>130</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="136"/>
+        <v>73</v>
+      </c>
+      <c r="H10" s="190"/>
       <c r="I10" s="101"/>
       <c r="J10" s="103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="198"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="A11" s="236"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
       <c r="G11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="137"/>
+        <v>64</v>
+      </c>
+      <c r="H11" s="191"/>
       <c r="I11" s="47"/>
       <c r="J11" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="111"/>
     </row>
@@ -30056,206 +33288,206 @@
         <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="197">
+      <c r="A13" s="235">
         <v>14</v>
       </c>
-      <c r="B13" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="132" t="s">
-        <v>131</v>
+      <c r="B13" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="170"/>
+      <c r="D13" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="156" t="s">
+        <v>130</v>
       </c>
       <c r="G13" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>77</v>
-      </c>
       <c r="I13" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="112"/>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="198"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
+      <c r="A14" s="236"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="49"/>
       <c r="J14" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="197">
+      <c r="A15" s="235">
         <v>15</v>
       </c>
-      <c r="B15" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="132" t="s">
-        <v>131</v>
+      <c r="B15" s="173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="170"/>
+      <c r="D15" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="156" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="156" t="s">
+        <v>130</v>
       </c>
       <c r="G15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>77</v>
-      </c>
       <c r="I15" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="A16" s="239"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
       <c r="G16" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J16" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" s="112"/>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="198"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
+      <c r="A17" s="236"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="24"/>
       <c r="H17" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="197">
+      <c r="A18" s="235">
         <v>16</v>
       </c>
-      <c r="B18" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="132" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="132" t="s">
-        <v>131</v>
+      <c r="B18" s="173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="170"/>
+      <c r="D18" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="156" t="s">
+        <v>130</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
+      <c r="A19" s="236"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
       <c r="G19" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="113"/>
     </row>
@@ -30264,29 +33496,29 @@
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="43"/>
     </row>
@@ -30295,29 +33527,29 @@
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" s="43"/>
     </row>
@@ -30326,309 +33558,309 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
+      <c r="A23" s="177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="179"/>
       <c r="K23" s="114"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="197">
+      <c r="A24" s="235">
         <v>20</v>
       </c>
-      <c r="B24" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="151" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="154"/>
+      <c r="B24" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="148"/>
+      <c r="D24" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="192"/>
       <c r="H24" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="70" t="s">
         <v>109</v>
-      </c>
-      <c r="J24" s="70" t="s">
-        <v>110</v>
       </c>
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="198"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="155"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="193"/>
       <c r="H25" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="113"/>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="197">
+      <c r="A26" s="235">
         <v>21</v>
       </c>
-      <c r="B26" s="193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="151" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="154"/>
+      <c r="B26" s="231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="237"/>
+      <c r="D26" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="192"/>
       <c r="H26" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="198"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="155"/>
+      <c r="A27" s="236"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="193"/>
       <c r="H27" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="191">
+      <c r="A28" s="229">
         <v>22</v>
       </c>
-      <c r="B28" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="151" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="154"/>
+      <c r="B28" s="231" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="192"/>
       <c r="H28" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K28" s="43"/>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="195"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="155"/>
+      <c r="A29" s="233"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="193"/>
       <c r="H29" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" s="43"/>
       <c r="L29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="191">
+      <c r="A30" s="229">
         <v>23</v>
       </c>
-      <c r="B30" s="193" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="151" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="154"/>
+      <c r="B30" s="231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="146"/>
+      <c r="D30" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="192"/>
       <c r="H30" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J30" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30" s="113"/>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="192"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="155"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="232"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="193"/>
       <c r="H31" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K31" s="43"/>
       <c r="L31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="191">
+      <c r="A32" s="229">
         <v>24</v>
       </c>
-      <c r="B32" s="193" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="151" t="s">
-        <v>131</v>
+      <c r="B32" s="231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="170"/>
+      <c r="D32" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="181" t="s">
+        <v>130</v>
       </c>
       <c r="G32" s="96"/>
       <c r="H32" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J32" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="43"/>
       <c r="L32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="192"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
       <c r="G33" s="97"/>
       <c r="H33" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K33" s="43"/>
       <c r="L33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30636,7 +33868,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G34" s="101"/>
     </row>
@@ -30645,25 +33877,25 @@
         <v>24</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="187"/>
+        <v>165</v>
+      </c>
+      <c r="G35" s="225"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>25</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="187"/>
+        <v>166</v>
+      </c>
+      <c r="G36" s="225"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>26</v>
       </c>
       <c r="B37" s="106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30671,7 +33903,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30679,7 +33911,7 @@
         <v>28</v>
       </c>
       <c r="B39" s="106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30687,10 +33919,10 @@
         <v>29</v>
       </c>
       <c r="B40" s="106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30698,22 +33930,22 @@
         <v>30</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="188" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="190"/>
+      <c r="A42" s="226" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="227"/>
+      <c r="H42" s="227"/>
+      <c r="I42" s="227"/>
+      <c r="J42" s="228"/>
       <c r="K42" s="93"/>
       <c r="L42" s="92"/>
     </row>
@@ -30722,7 +33954,7 @@
         <v>31</v>
       </c>
       <c r="B43" s="106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30730,7 +33962,7 @@
         <v>32</v>
       </c>
       <c r="B44" s="106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30738,7 +33970,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30746,12 +33978,12 @@
         <v>34</v>
       </c>
       <c r="B46" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E1F8F-243A-43B7-ACD5-40C37FF1E822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB94FCC-C854-4B1D-AF2C-4AAAB16F781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1515" yWindow="1470" windowWidth="14400" windowHeight="8235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
@@ -784,10 +784,10 @@
     <t>Faltan gallinas que llega</t>
   </si>
   <si>
-    <t>Gallinas será manual</t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>Gallinas será manual o conforme a un historial</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1800,15 +1800,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1851,25 +1842,61 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,17 +1905,29 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1896,73 +1935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,47 +1959,137 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2049,77 +2112,35 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2133,37 +2154,7 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11976,13 +11967,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1709737</xdr:colOff>
+      <xdr:colOff>1641702</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:rowOff>538163</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1641411" cy="403380"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -11996,7 +11987,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3769518" y="1145382"/>
+              <a:off x="5941559" y="2034949"/>
               <a:ext cx="1641411" cy="403380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12154,13 +12145,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8883DB3-62AD-48C2-A875-091316EB5616}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12168,7 +12159,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3769518" y="1145382"/>
+              <a:off x="5941559" y="2034949"/>
               <a:ext cx="1641411" cy="403380"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12196,13 +12187,14 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-MX" sz="1400" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -12218,19 +12210,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑃𝑜𝑠𝑡𝑢𝑟𝑎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-MX" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                <a:t>𝑃𝑜𝑠𝑡𝑢𝑟𝑎)</a:t>
               </a:r>
               <a:endParaRPr lang="es-MX" sz="1600"/>
             </a:p>
@@ -30859,19 +30839,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
       <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30917,28 +30897,28 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142">
+      <c r="A3" s="151">
         <v>1</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="152" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="152" t="s">
+      <c r="F3" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="172" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="148"/>
-      <c r="J3" s="150"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="157"/>
       <c r="K3" s="40" t="s">
         <v>102</v>
       </c>
@@ -30953,18 +30933,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="155"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="151"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="158"/>
       <c r="K4" s="59" t="s">
         <v>100</v>
       </c>
@@ -30977,30 +30957,30 @@
       <c r="N4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142">
+      <c r="A5" s="151">
         <v>2</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="184" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="154" t="s">
+      <c r="D5" s="153"/>
+      <c r="E5" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="172" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="172" t="s">
         <v>194</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="148"/>
-      <c r="J5" s="150"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="157"/>
       <c r="K5" s="60" t="s">
         <v>100</v>
       </c>
@@ -31013,18 +30993,18 @@
       <c r="N5" s="109"/>
     </row>
     <row r="6" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="149"/>
-      <c r="J6" s="151"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="158"/>
       <c r="K6" s="59" t="s">
         <v>97</v>
       </c>
@@ -31041,29 +31021,29 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160">
+      <c r="A7" s="149">
         <v>3</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="156" t="s">
+      <c r="C7" s="186"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="158" t="s">
+      <c r="H7" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="148"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="186" t="s">
+      <c r="I7" s="161"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="141" t="s">
         <v>188</v>
       </c>
       <c r="L7" s="111" t="s">
@@ -31079,17 +31059,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="187"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="111" t="s">
         <v>190</v>
       </c>
@@ -31105,7 +31085,7 @@
       <c r="B9" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="127"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="2"/>
       <c r="E9" s="14" t="s">
         <v>59</v>
@@ -31131,7 +31111,7 @@
       <c r="B10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="127"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="2"/>
       <c r="E10" s="14" t="s">
         <v>60</v>
@@ -31164,7 +31144,7 @@
       <c r="B11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="127"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="2"/>
       <c r="E11" s="14" t="s">
         <v>60</v>
@@ -31192,7 +31172,7 @@
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="2"/>
       <c r="E12" s="14" t="s">
         <v>59</v>
@@ -31225,7 +31205,7 @@
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="127"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
         <v>60</v>
@@ -31256,30 +31236,30 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142">
+      <c r="A14" s="151">
         <v>9</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="176" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="162" t="s">
+      <c r="D14" s="153"/>
+      <c r="E14" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="156" t="s">
+      <c r="G14" s="132" t="s">
         <v>130</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="188"/>
-      <c r="J14" s="150"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="157"/>
       <c r="K14" s="60" t="s">
         <v>98</v>
       </c>
@@ -31292,18 +31272,18 @@
       <c r="N14" s="109"/>
     </row>
     <row r="15" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="189"/>
-      <c r="J15" s="151"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="158"/>
       <c r="K15" s="59" t="s">
         <v>100</v>
       </c>
@@ -31316,29 +31296,29 @@
       <c r="N15" s="109"/>
     </row>
     <row r="16" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="142">
+      <c r="A16" s="151">
         <v>10</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="174" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="156" t="s">
+      <c r="D16" s="153"/>
+      <c r="E16" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="156" t="s">
+      <c r="F16" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="132" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="190"/>
+      <c r="I16" s="159"/>
       <c r="J16" s="23"/>
       <c r="K16" s="60" t="s">
         <v>98</v>
@@ -31352,17 +31332,17 @@
       <c r="N16" s="109"/>
     </row>
     <row r="17" spans="1:15" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="191"/>
+      <c r="I17" s="160"/>
       <c r="J17" s="47"/>
       <c r="K17" s="59" t="s">
         <v>102</v>
@@ -31382,7 +31362,7 @@
       <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="2"/>
       <c r="E18" s="14" t="s">
         <v>61</v>
@@ -31408,21 +31388,21 @@
       <c r="L18" s="111"/>
     </row>
     <row r="19" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160">
+      <c r="A19" s="149">
         <v>12</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="162" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="156" t="s">
+      <c r="F19" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="156" t="s">
+      <c r="G19" s="132" t="s">
         <v>130</v>
       </c>
       <c r="H19" s="40" t="s">
@@ -31449,13 +31429,13 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="25" t="s">
         <v>64</v>
       </c>
@@ -31467,21 +31447,21 @@
       <c r="L20" s="111"/>
     </row>
     <row r="21" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160">
+      <c r="A21" s="149">
         <v>13</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="162" t="s">
+      <c r="C21" s="122"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="156" t="s">
+      <c r="G21" s="132" t="s">
         <v>130</v>
       </c>
       <c r="H21" s="40" t="s">
@@ -31505,13 +31485,13 @@
       <c r="N21" s="109"/>
     </row>
     <row r="22" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
+      <c r="A22" s="167"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
       <c r="H22" s="41" t="s">
         <v>63</v>
       </c>
@@ -31530,13 +31510,13 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
       <c r="H23" s="24"/>
       <c r="I23" s="29" t="s">
         <v>78</v>
@@ -31550,21 +31530,21 @@
       <c r="L23" s="112"/>
     </row>
     <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.25">
-      <c r="A24" s="160">
+      <c r="A24" s="149">
         <v>14</v>
       </c>
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="156" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="156" t="s">
+      <c r="F24" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="156" t="s">
+      <c r="G24" s="132" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="40" t="s">
@@ -31588,13 +31568,13 @@
       <c r="N24" s="109"/>
     </row>
     <row r="25" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="161"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="25" t="s">
         <v>63</v>
       </c>
@@ -31610,13 +31590,13 @@
       <c r="L25" s="113"/>
     </row>
     <row r="26" spans="1:15" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="122">
+      <c r="A26" s="119">
         <v>15</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="120" t="s">
         <v>228</v>
       </c>
       <c r="D26" s="3"/>
@@ -31650,13 +31630,13 @@
       <c r="N26" s="109"/>
     </row>
     <row r="27" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122">
+      <c r="A27" s="119">
         <v>16</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="120" t="s">
         <v>228</v>
       </c>
       <c r="D27" s="1"/>
@@ -31690,13 +31670,13 @@
       <c r="N27" s="109"/>
     </row>
     <row r="28" spans="1:15" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="122">
+      <c r="A28" s="119">
         <v>17</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="120" t="s">
         <v>232</v>
       </c>
       <c r="D28" s="1"/>
@@ -31724,42 +31704,42 @@
       <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="179"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
       <c r="L29" s="114"/>
     </row>
     <row r="30" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="142">
+      <c r="A30" s="151">
         <v>18</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="182" t="s">
         <v>235</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="162" t="s">
+      <c r="D30" s="161"/>
+      <c r="E30" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="181" t="s">
+      <c r="F30" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="181" t="s">
+      <c r="G30" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="192"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="33" t="s">
         <v>81</v>
       </c>
@@ -31772,14 +31752,14 @@
       <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:15" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="168"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="193"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="138"/>
       <c r="I31" s="35" t="s">
         <v>82</v>
       </c>
@@ -31795,13 +31775,13 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="130">
+      <c r="A32" s="127">
         <v>19</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="126" t="s">
         <v>235</v>
       </c>
       <c r="D32" s="9"/>
@@ -31810,72 +31790,120 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130">
+      <c r="A33" s="127">
         <v>20</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="182" t="s">
         <v>234</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="130">
+      <c r="A34" s="127">
         <v>21</v>
       </c>
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="141"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="130">
+      <c r="A35" s="127">
         <v>22</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="141"/>
+      <c r="C35" s="188"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="130"/>
-      <c r="B36" s="121" t="s">
+      <c r="A36" s="127"/>
+      <c r="B36" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="141"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="130">
+      <c r="A37" s="127">
         <v>23</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="136"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="131"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
+      <c r="A38" s="128"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
     </row>
     <row r="39" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="131"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="B19:B20"/>
@@ -31892,59 +31920,11 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31956,8 +31936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31975,18 +31955,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="200"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="221"/>
       <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32027,13 +32007,13 @@
       <c r="N2" s="109"/>
     </row>
     <row r="3" spans="1:15" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132">
+      <c r="A3" s="129">
         <v>1</v>
       </c>
       <c r="B3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="127"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="s">
         <v>60</v>
@@ -32061,28 +32041,28 @@
       <c r="N3" s="109"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="201">
+      <c r="A4" s="209">
         <v>2</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="209" t="s">
+      <c r="C4" s="186"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="192" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="G4" s="192" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="207"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="206"/>
       <c r="K4" s="40" t="s">
         <v>98</v>
       </c>
@@ -32098,47 +32078,47 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="202"/>
-      <c r="B5" s="204"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
+      <c r="A5" s="210"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
       <c r="H5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="159"/>
+      <c r="I5" s="179"/>
       <c r="J5" s="208"/>
       <c r="K5" s="76" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="201">
+      <c r="A6" s="209">
         <v>3</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="209" t="s">
+      <c r="C6" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="211"/>
+      <c r="E6" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="209" t="s">
+      <c r="G6" s="192" t="s">
         <v>130</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="158"/>
-      <c r="J6" s="207"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="206"/>
       <c r="K6" s="40" t="s">
         <v>100</v>
       </c>
@@ -32151,17 +32131,17 @@
       <c r="N6" s="109"/>
     </row>
     <row r="7" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="202"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
+      <c r="A7" s="210"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="159"/>
+      <c r="I7" s="179"/>
       <c r="J7" s="208"/>
       <c r="K7" s="76" t="s">
         <v>98</v>
@@ -32175,44 +32155,44 @@
       <c r="N7" s="109"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="201">
+      <c r="A8" s="209">
         <v>4</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="209" t="s">
+      <c r="C8" s="200"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="209" t="s">
+      <c r="G8" s="192" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="158"/>
-      <c r="J8" s="207"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="206"/>
       <c r="K8" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
+      <c r="A9" s="210"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
       <c r="H9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="159"/>
+      <c r="I9" s="179"/>
       <c r="J9" s="208"/>
       <c r="K9" s="76" t="s">
         <v>98</v>
@@ -32223,7 +32203,7 @@
       <c r="N9" s="109"/>
     </row>
     <row r="10" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132">
+      <c r="A10" s="129">
         <v>5</v>
       </c>
       <c r="B10" s="73" t="s">
@@ -32264,7 +32244,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="132">
+      <c r="A11" s="129">
         <v>6</v>
       </c>
       <c r="B11" s="73" t="s">
@@ -32326,7 +32306,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="132">
+      <c r="A13" s="129">
         <v>8</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -32422,203 +32402,203 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201">
+      <c r="A16" s="209">
         <v>11</v>
       </c>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="215" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="214" t="s">
+      <c r="D16" s="161"/>
+      <c r="E16" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="214" t="s">
+      <c r="F16" s="194" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="214" t="s">
+      <c r="G16" s="194" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="207" t="s">
+      <c r="J16" s="206" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="158" t="s">
+      <c r="K16" s="178" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="211"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
+      <c r="A17" s="213"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
       <c r="H17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="224"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="191"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="211"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="215"/>
+      <c r="A18" s="213"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
       <c r="H18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="224"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="191"/>
       <c r="O18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="211"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
+      <c r="A19" s="213"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
       <c r="H19" s="18" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="224"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="191"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="211"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="224"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="191"/>
     </row>
     <row r="21" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="216"/>
+      <c r="A21" s="210"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="208"/>
-      <c r="K21" s="159"/>
+      <c r="K21" s="179"/>
     </row>
-    <row r="22" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="218">
+    <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="197">
         <v>12</v>
       </c>
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="156" t="s">
+      <c r="C22" s="200"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="156" t="s">
+      <c r="F22" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="156" t="s">
+      <c r="G22" s="132" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="77"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="158" t="s">
+      <c r="J22" s="206"/>
+      <c r="K22" s="178" t="s">
         <v>98</v>
       </c>
       <c r="L22" t="s">
         <v>210</v>
       </c>
-      <c r="M22" s="197" t="s">
+      <c r="M22" s="218" t="s">
         <v>156</v>
       </c>
       <c r="N22" s="115"/>
     </row>
-    <row r="23" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="219"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
+    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="198"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="224"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="191"/>
       <c r="L23" t="s">
         <v>211</v>
       </c>
-      <c r="M23" s="197"/>
+      <c r="M23" s="218"/>
       <c r="N23" s="115"/>
     </row>
-    <row r="24" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="219"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
+    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="198"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="78"/>
-      <c r="J24" s="217"/>
-      <c r="K24" s="224"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="191"/>
       <c r="L24" t="s">
         <v>212</v>
       </c>
-      <c r="M24" s="197"/>
+      <c r="M24" s="218"/>
       <c r="N24" s="115"/>
     </row>
     <row r="25" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="220"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="180"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="79"/>
       <c r="J25" s="208"/>
-      <c r="K25" s="159"/>
-      <c r="M25" s="197"/>
+      <c r="K25" s="179"/>
+      <c r="M25" s="218"/>
       <c r="N25" s="115"/>
     </row>
     <row r="26" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="132">
+      <c r="A26" s="129">
         <v>13</v>
       </c>
       <c r="B26" s="73" t="s">
@@ -32645,7 +32625,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="132">
+      <c r="A27" s="129">
         <v>14</v>
       </c>
       <c r="B27" s="73" t="s">
@@ -32686,7 +32666,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="132">
+      <c r="A28" s="129">
         <v>15</v>
       </c>
       <c r="B28" s="73" t="s">
@@ -32723,33 +32703,33 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="201">
+      <c r="A29" s="209">
         <v>16</v>
       </c>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="214" t="s">
+      <c r="C29" s="200"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="214" t="s">
+      <c r="F29" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="214" t="s">
+      <c r="G29" s="194" t="s">
         <v>130</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="158" t="s">
+      <c r="I29" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="207" t="s">
+      <c r="J29" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="158" t="s">
+      <c r="K29" s="178" t="s">
         <v>98</v>
       </c>
       <c r="O29" t="s">
@@ -32757,19 +32737,19 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
+      <c r="A30" s="210"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
       <c r="H30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="159"/>
+      <c r="I30" s="179"/>
       <c r="J30" s="208"/>
-      <c r="K30" s="159"/>
+      <c r="K30" s="179"/>
     </row>
     <row r="31" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="117">
@@ -32833,15 +32813,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="132">
+    <row r="33" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="129">
         <v>19</v>
       </c>
       <c r="B33" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="134" t="s">
-        <v>238</v>
+      <c r="C33" s="131" t="s">
+        <v>239</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="6" t="s">
@@ -32870,7 +32850,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="132">
+      <c r="A34" s="129">
         <v>20</v>
       </c>
       <c r="B34" s="73" t="s">
@@ -32904,7 +32884,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="133">
+      <c r="A35" s="130">
         <v>21</v>
       </c>
       <c r="B35" s="85" t="s">
@@ -32926,7 +32906,48 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="57">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="K16:K21"/>
     <mergeCell ref="K22:K25"/>
     <mergeCell ref="K29:K30"/>
@@ -32943,44 +32964,6 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33010,18 +32993,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
       <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -33196,70 +33179,70 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="235">
+      <c r="A8" s="222">
         <v>11</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="162" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="156" t="s">
+      <c r="F8" s="132" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="150"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="157"/>
       <c r="J8" s="103" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="151"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="158"/>
       <c r="J9" s="104" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="235">
+      <c r="A10" s="222">
         <v>12</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="156" t="s">
+      <c r="C10" s="153"/>
+      <c r="D10" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="156" t="s">
+      <c r="F10" s="132" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="190"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="101"/>
       <c r="J10" s="103" t="s">
         <v>98</v>
@@ -33267,16 +33250,16 @@
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="236"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
+      <c r="A11" s="223"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="191"/>
+      <c r="H11" s="160"/>
       <c r="I11" s="47"/>
       <c r="J11" s="104" t="s">
         <v>102</v>
@@ -33315,20 +33298,20 @@
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="235">
+      <c r="A13" s="222">
         <v>14</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="162" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="E13" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="132" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="40" t="s">
@@ -33349,12 +33332,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="236"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
+      <c r="A14" s="223"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="105" t="s">
         <v>64</v>
       </c>
@@ -33366,20 +33349,20 @@
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="235">
+      <c r="A15" s="222">
         <v>15</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="162" t="s">
+      <c r="C15" s="147"/>
+      <c r="D15" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="156" t="s">
+      <c r="E15" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="132" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -33397,12 +33380,12 @@
       <c r="K15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="239"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
+      <c r="A16" s="224"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
       <c r="G16" s="41" t="s">
         <v>63</v>
       </c>
@@ -33421,12 +33404,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="236"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="24"/>
       <c r="H17" s="29" t="s">
         <v>78</v>
@@ -33440,20 +33423,20 @@
       <c r="K17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="235">
+      <c r="A18" s="222">
         <v>16</v>
       </c>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="156" t="s">
+      <c r="C18" s="147"/>
+      <c r="D18" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="156" t="s">
+      <c r="E18" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="156" t="s">
+      <c r="F18" s="132" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="40" t="s">
@@ -33471,12 +33454,12 @@
       <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="236"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
+      <c r="A19" s="223"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
       <c r="G19" s="105" t="s">
         <v>63</v>
       </c>
@@ -33585,38 +33568,38 @@
       <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
       <c r="K23" s="114"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="235">
+      <c r="A24" s="222">
         <v>20</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="162" t="s">
+      <c r="C24" s="161"/>
+      <c r="D24" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="181" t="s">
+      <c r="E24" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="181" t="s">
+      <c r="F24" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="192"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="33" t="s">
         <v>81</v>
       </c>
@@ -33629,13 +33612,13 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="236"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="193"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="35" t="s">
         <v>82</v>
       </c>
@@ -33651,23 +33634,23 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="235">
+      <c r="A26" s="222">
         <v>21</v>
       </c>
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="237"/>
-      <c r="D26" s="162" t="s">
+      <c r="C26" s="230"/>
+      <c r="D26" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="181" t="s">
+      <c r="E26" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="181" t="s">
+      <c r="F26" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="192"/>
+      <c r="G26" s="137"/>
       <c r="H26" s="26" t="s">
         <v>70</v>
       </c>
@@ -33680,13 +33663,13 @@
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="236"/>
-      <c r="B27" s="232"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="193"/>
+      <c r="A27" s="223"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="30" t="s">
         <v>83</v>
       </c>
@@ -33702,23 +33685,23 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="229">
+      <c r="A28" s="225">
         <v>22</v>
       </c>
-      <c r="B28" s="231" t="s">
+      <c r="B28" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="148"/>
-      <c r="D28" s="162" t="s">
+      <c r="C28" s="161"/>
+      <c r="D28" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="181" t="s">
+      <c r="E28" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="181" t="s">
+      <c r="F28" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="192"/>
+      <c r="G28" s="137"/>
       <c r="H28" s="39" t="s">
         <v>84</v>
       </c>
@@ -33734,13 +33717,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="233"/>
-      <c r="B29" s="234"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="193"/>
+      <c r="A29" s="226"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="138"/>
       <c r="H29" s="36" t="s">
         <v>83</v>
       </c>
@@ -33756,23 +33739,23 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="229">
+      <c r="A30" s="225">
         <v>23</v>
       </c>
-      <c r="B30" s="231" t="s">
+      <c r="B30" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="162" t="s">
+      <c r="C30" s="153"/>
+      <c r="D30" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="181" t="s">
+      <c r="E30" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="181" t="s">
+      <c r="F30" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="192"/>
+      <c r="G30" s="137"/>
       <c r="H30" s="37" t="s">
         <v>85</v>
       </c>
@@ -33788,13 +33771,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="230"/>
-      <c r="B31" s="232"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="193"/>
+      <c r="A31" s="236"/>
+      <c r="B31" s="229"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="138"/>
       <c r="H31" s="38" t="s">
         <v>70</v>
       </c>
@@ -33810,20 +33793,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="229">
+      <c r="A32" s="225">
         <v>24</v>
       </c>
-      <c r="B32" s="231" t="s">
+      <c r="B32" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="162" t="s">
+      <c r="C32" s="147"/>
+      <c r="D32" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="181" t="s">
+      <c r="E32" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="181" t="s">
+      <c r="F32" s="135" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="96"/>
@@ -33842,12 +33825,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="230"/>
-      <c r="B33" s="232"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
+      <c r="A33" s="236"/>
+      <c r="B33" s="229"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
       <c r="G33" s="97"/>
       <c r="H33" s="34" t="s">
         <v>70</v>
@@ -33879,7 +33862,7 @@
       <c r="B35" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="225"/>
+      <c r="G35" s="232"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
@@ -33888,7 +33871,7 @@
       <c r="B36" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="225"/>
+      <c r="G36" s="232"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -33934,18 +33917,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="226" t="s">
+      <c r="A42" s="233" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="227"/>
-      <c r="I42" s="227"/>
-      <c r="J42" s="228"/>
+      <c r="B42" s="234"/>
+      <c r="C42" s="234"/>
+      <c r="D42" s="234"/>
+      <c r="E42" s="234"/>
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="234"/>
+      <c r="J42" s="235"/>
       <c r="K42" s="93"/>
       <c r="L42" s="92"/>
     </row>
@@ -33988,62 +33971,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -34059,6 +33986,62 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB94FCC-C854-4B1D-AF2C-4AAAB16F781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE7B5D5-F099-4548-9249-A2A5A5018F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1515" yWindow="1470" windowWidth="14400" windowHeight="8235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="2205" windowWidth="14400" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,6 +1050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1842,37 +1848,19 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1881,16 +1869,52 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,43 +1923,43 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,137 +1983,47 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2112,35 +2046,77 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2154,7 +2130,64 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11972,8 +12005,8 @@
       <xdr:rowOff>538163</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1641411" cy="403380"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -12145,7 +12178,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -30820,9 +30853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30839,19 +30872,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
       <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30897,28 +30930,28 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="151">
+      <c r="A3" s="135">
         <v>1</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="137" t="s">
         <v>217</v>
       </c>
       <c r="C3" s="122"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="180" t="s">
+      <c r="D3" s="141"/>
+      <c r="E3" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="180" t="s">
+      <c r="F3" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="172" t="s">
+      <c r="G3" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="157"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="145"/>
       <c r="K3" s="40" t="s">
         <v>102</v>
       </c>
@@ -30933,18 +30966,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="152"/>
-      <c r="B4" s="144"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="121"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="238" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="158"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="146"/>
       <c r="K4" s="59" t="s">
         <v>100</v>
       </c>
@@ -30957,30 +30990,30 @@
       <c r="N4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151">
+      <c r="A5" s="135">
         <v>2</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="157" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="172" t="s">
+      <c r="D5" s="141"/>
+      <c r="E5" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="172" t="s">
+      <c r="G5" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="161"/>
-      <c r="J5" s="157"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="145"/>
       <c r="K5" s="60" t="s">
         <v>100</v>
       </c>
@@ -30993,18 +31026,18 @@
       <c r="N5" s="109"/>
     </row>
     <row r="6" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="18" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="158"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="59" t="s">
         <v>97</v>
       </c>
@@ -31021,29 +31054,29 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149">
+      <c r="A7" s="155">
         <v>3</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="132" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="172" t="s">
+      <c r="G7" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="178" t="s">
+      <c r="H7" s="240" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="161"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="141" t="s">
+      <c r="I7" s="143"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="183" t="s">
         <v>188</v>
       </c>
       <c r="L7" s="111" t="s">
@@ -31059,17 +31092,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="142"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="184"/>
       <c r="L8" s="111" t="s">
         <v>190</v>
       </c>
@@ -31082,7 +31115,7 @@
       <c r="A9" s="116">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="106" t="s">
         <v>189</v>
       </c>
       <c r="C9" s="124"/>
@@ -31120,10 +31153,10 @@
         <v>193</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="242" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="243" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="45" t="s">
@@ -31184,7 +31217,7 @@
         <v>130</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="243" t="s">
         <v>71</v>
       </c>
       <c r="J12" s="45" t="s">
@@ -31236,30 +31269,30 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="151">
+      <c r="A14" s="135">
         <v>9</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="153"/>
-      <c r="E14" s="145" t="s">
+      <c r="D14" s="141"/>
+      <c r="E14" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="132" t="s">
+      <c r="G14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="155"/>
-      <c r="J14" s="157"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="145"/>
       <c r="K14" s="60" t="s">
         <v>98</v>
       </c>
@@ -31272,18 +31305,18 @@
       <c r="N14" s="109"/>
     </row>
     <row r="15" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="22" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="158"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="146"/>
       <c r="K15" s="59" t="s">
         <v>100</v>
       </c>
@@ -31296,29 +31329,29 @@
       <c r="N15" s="109"/>
     </row>
     <row r="16" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="151">
+      <c r="A16" s="135">
         <v>10</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="163" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="132" t="s">
+      <c r="D16" s="141"/>
+      <c r="E16" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="159"/>
+      <c r="I16" s="187"/>
       <c r="J16" s="23"/>
       <c r="K16" s="60" t="s">
         <v>98</v>
@@ -31332,17 +31365,17 @@
       <c r="N16" s="109"/>
     </row>
     <row r="17" spans="1:15" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
       <c r="H17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="160"/>
+      <c r="I17" s="188"/>
       <c r="J17" s="47"/>
       <c r="K17" s="59" t="s">
         <v>102</v>
@@ -31376,7 +31409,7 @@
       <c r="H18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="239" t="s">
         <v>74</v>
       </c>
       <c r="J18" s="43" t="s">
@@ -31388,27 +31421,27 @@
       <c r="L18" s="111"/>
     </row>
     <row r="19" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="149">
+      <c r="A19" s="155">
         <v>12</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="137" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="122"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="145" t="s">
+      <c r="D19" s="167"/>
+      <c r="E19" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="132" t="s">
+      <c r="F19" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="132" t="s">
+      <c r="G19" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="245" t="s">
         <v>76</v>
       </c>
       <c r="J19" s="48" t="s">
@@ -31429,13 +31462,13 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="150"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="121"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
       <c r="H20" s="25" t="s">
         <v>64</v>
       </c>
@@ -31447,27 +31480,27 @@
       <c r="L20" s="111"/>
     </row>
     <row r="21" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="149">
+      <c r="A21" s="155">
         <v>13</v>
       </c>
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="170" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="122"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="145" t="s">
+      <c r="D21" s="167"/>
+      <c r="E21" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="132" t="s">
+      <c r="F21" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="132" t="s">
+      <c r="G21" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="245" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="48" t="s">
@@ -31485,13 +31518,13 @@
       <c r="N21" s="109"/>
     </row>
     <row r="22" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="167"/>
-      <c r="B22" s="165"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="123"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="41" t="s">
         <v>63</v>
       </c>
@@ -31510,13 +31543,13 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
-      <c r="B23" s="166"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="121"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="24"/>
       <c r="I23" s="29" t="s">
         <v>78</v>
@@ -31530,21 +31563,21 @@
       <c r="L23" s="112"/>
     </row>
     <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.25">
-      <c r="A24" s="149">
+      <c r="A24" s="155">
         <v>14</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="170" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="122"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="132" t="s">
+      <c r="D24" s="167"/>
+      <c r="E24" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="132" t="s">
+      <c r="F24" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="132" t="s">
+      <c r="G24" s="151" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="40" t="s">
@@ -31568,13 +31601,13 @@
       <c r="N24" s="109"/>
     </row>
     <row r="25" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="166"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="121"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="25" t="s">
         <v>63</v>
       </c>
@@ -31704,42 +31737,42 @@
       <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="176"/>
       <c r="L29" s="114"/>
     </row>
     <row r="30" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="151">
+      <c r="A30" s="135">
         <v>18</v>
       </c>
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="182" t="s">
+      <c r="C30" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="D30" s="161"/>
-      <c r="E30" s="145" t="s">
+      <c r="D30" s="143"/>
+      <c r="E30" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="135" t="s">
+      <c r="F30" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="135" t="s">
+      <c r="G30" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="137"/>
+      <c r="H30" s="189"/>
       <c r="I30" s="33" t="s">
         <v>81</v>
       </c>
@@ -31752,14 +31785,14 @@
       <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:15" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="189"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="138"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="190"/>
       <c r="I31" s="35" t="s">
         <v>82</v>
       </c>
@@ -31796,7 +31829,7 @@
       <c r="B33" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="C33" s="132" t="s">
         <v>234</v>
       </c>
       <c r="D33" s="9"/>
@@ -31808,7 +31841,7 @@
       <c r="B34" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31818,7 +31851,7 @@
       <c r="B35" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31826,7 +31859,7 @@
       <c r="B36" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="133"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31836,7 +31869,7 @@
       <c r="B37" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="183"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
@@ -31851,59 +31884,11 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="B19:B20"/>
@@ -31920,11 +31905,59 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31936,7 +31969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -31955,18 +31988,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="221"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="197"/>
       <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32041,28 +32074,28 @@
       <c r="N3" s="109"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="209">
+      <c r="A4" s="198">
         <v>2</v>
       </c>
       <c r="B4" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="192" t="s">
+      <c r="C4" s="159"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="192" t="s">
+      <c r="F4" s="206" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="192" t="s">
+      <c r="G4" s="206" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="178"/>
-      <c r="J4" s="206"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="204"/>
       <c r="K4" s="40" t="s">
         <v>98</v>
       </c>
@@ -32078,47 +32111,47 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="210"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
+      <c r="A5" s="199"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
       <c r="H5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="179"/>
-      <c r="J5" s="208"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="205"/>
       <c r="K5" s="76" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="209">
+      <c r="A6" s="198">
         <v>3</v>
       </c>
       <c r="B6" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="159" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="192" t="s">
+      <c r="D6" s="202"/>
+      <c r="E6" s="206" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="192" t="s">
+      <c r="F6" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="192" t="s">
+      <c r="G6" s="206" t="s">
         <v>130</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="178"/>
-      <c r="J6" s="206"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="40" t="s">
         <v>100</v>
       </c>
@@ -32131,18 +32164,18 @@
       <c r="N6" s="109"/>
     </row>
     <row r="7" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="210"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="208"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="205"/>
       <c r="K7" s="76" t="s">
         <v>98</v>
       </c>
@@ -32155,45 +32188,45 @@
       <c r="N7" s="109"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="209">
+      <c r="A8" s="198">
         <v>4</v>
       </c>
       <c r="B8" s="200" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="200"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="192" t="s">
+      <c r="D8" s="202"/>
+      <c r="E8" s="206" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="192" t="s">
+      <c r="F8" s="206" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="192" t="s">
+      <c r="G8" s="206" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="178"/>
-      <c r="J8" s="206"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="204"/>
       <c r="K8" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="210"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
       <c r="H9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="179"/>
-      <c r="J9" s="208"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="205"/>
       <c r="K9" s="76" t="s">
         <v>98</v>
       </c>
@@ -32402,199 +32435,199 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="209">
+      <c r="A16" s="198">
         <v>11</v>
       </c>
       <c r="B16" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="215" t="s">
+      <c r="C16" s="191" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="194" t="s">
+      <c r="D16" s="143"/>
+      <c r="E16" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="194" t="s">
+      <c r="F16" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="194" t="s">
+      <c r="G16" s="211" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="206" t="s">
+      <c r="J16" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="178" t="s">
+      <c r="K16" s="153" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="213"/>
-      <c r="B17" s="201"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
+      <c r="A17" s="208"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
       <c r="H17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="191"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="221"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="213"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
+      <c r="A18" s="208"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="191"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="221"/>
       <c r="O18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="213"/>
-      <c r="B19" s="201"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="195"/>
+      <c r="A19" s="208"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="18" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="191"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="221"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="213"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
+      <c r="A20" s="208"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="191"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="221"/>
     </row>
     <row r="21" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="210"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="208"/>
-      <c r="K21" s="179"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="154"/>
     </row>
     <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="197">
+      <c r="A22" s="215">
         <v>12</v>
       </c>
       <c r="B22" s="200" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="200"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="132" t="s">
+      <c r="D22" s="218"/>
+      <c r="E22" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="132" t="s">
+      <c r="F22" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="132" t="s">
+      <c r="G22" s="151" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="77"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="178" t="s">
+      <c r="J22" s="204"/>
+      <c r="K22" s="153" t="s">
         <v>98</v>
       </c>
       <c r="L22" t="s">
         <v>210</v>
       </c>
-      <c r="M22" s="218" t="s">
+      <c r="M22" s="194" t="s">
         <v>156</v>
       </c>
       <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
+      <c r="A23" s="216"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="191"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="221"/>
       <c r="L23" t="s">
         <v>211</v>
       </c>
-      <c r="M23" s="218"/>
+      <c r="M23" s="194"/>
       <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="198"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
+      <c r="A24" s="216"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="78"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="191"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="221"/>
       <c r="L24" t="s">
         <v>212</v>
       </c>
-      <c r="M24" s="218"/>
+      <c r="M24" s="194"/>
       <c r="N24" s="115"/>
     </row>
     <row r="25" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="199"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="79"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="179"/>
-      <c r="M25" s="218"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="154"/>
+      <c r="M25" s="194"/>
       <c r="N25" s="115"/>
     </row>
     <row r="26" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32703,33 +32736,33 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="209">
+      <c r="A29" s="198">
         <v>16</v>
       </c>
       <c r="B29" s="200" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="200"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="194" t="s">
+      <c r="D29" s="143"/>
+      <c r="E29" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="194" t="s">
+      <c r="F29" s="211" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="194" t="s">
+      <c r="G29" s="211" t="s">
         <v>130</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="178" t="s">
+      <c r="I29" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="206" t="s">
+      <c r="J29" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="178" t="s">
+      <c r="K29" s="153" t="s">
         <v>98</v>
       </c>
       <c r="O29" t="s">
@@ -32737,19 +32770,19 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="210"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
+      <c r="A30" s="199"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
       <c r="H30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="179"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="179"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="154"/>
     </row>
     <row r="31" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="117">
@@ -32907,6 +32940,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C16:C21"/>
@@ -32923,47 +32997,6 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32993,18 +33026,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
       <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -33179,70 +33212,70 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="222">
+      <c r="A8" s="232">
         <v>11</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="145" t="s">
+      <c r="C8" s="141"/>
+      <c r="D8" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="132" t="s">
+      <c r="F8" s="151" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="157"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="145"/>
       <c r="J8" s="103" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="223"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
       <c r="G9" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="158"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="104" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="222">
+      <c r="A10" s="232">
         <v>12</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="132" t="s">
+      <c r="C10" s="141"/>
+      <c r="D10" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="151" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="159"/>
+      <c r="H10" s="187"/>
       <c r="I10" s="101"/>
       <c r="J10" s="103" t="s">
         <v>98</v>
@@ -33250,16 +33283,16 @@
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="223"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="A11" s="233"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
       <c r="G11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="160"/>
+      <c r="H11" s="188"/>
       <c r="I11" s="47"/>
       <c r="J11" s="104" t="s">
         <v>102</v>
@@ -33298,20 +33331,20 @@
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="222">
+      <c r="A13" s="232">
         <v>14</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="145" t="s">
+      <c r="C13" s="167"/>
+      <c r="D13" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="151" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="40" t="s">
@@ -33332,12 +33365,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="223"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
+      <c r="A14" s="233"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="105" t="s">
         <v>64</v>
       </c>
@@ -33349,20 +33382,20 @@
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="222">
+      <c r="A15" s="232">
         <v>15</v>
       </c>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="145" t="s">
+      <c r="C15" s="167"/>
+      <c r="D15" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="132" t="s">
+      <c r="E15" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="132" t="s">
+      <c r="F15" s="151" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -33380,12 +33413,12 @@
       <c r="K15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="224"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
       <c r="G16" s="41" t="s">
         <v>63</v>
       </c>
@@ -33404,12 +33437,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="223"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
+      <c r="A17" s="233"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
       <c r="G17" s="24"/>
       <c r="H17" s="29" t="s">
         <v>78</v>
@@ -33423,20 +33456,20 @@
       <c r="K17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="222">
+      <c r="A18" s="232">
         <v>16</v>
       </c>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="132" t="s">
+      <c r="C18" s="167"/>
+      <c r="D18" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="132" t="s">
+      <c r="E18" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="132" t="s">
+      <c r="F18" s="151" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="40" t="s">
@@ -33454,12 +33487,12 @@
       <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="223"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
+      <c r="A19" s="233"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="105" t="s">
         <v>63</v>
       </c>
@@ -33568,38 +33601,38 @@
       <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="170"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
       <c r="K23" s="114"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="222">
+      <c r="A24" s="232">
         <v>20</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="145" t="s">
+      <c r="C24" s="143"/>
+      <c r="D24" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="135" t="s">
+      <c r="F24" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="189"/>
       <c r="H24" s="33" t="s">
         <v>81</v>
       </c>
@@ -33612,13 +33645,13 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="223"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="138"/>
+      <c r="A25" s="233"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="190"/>
       <c r="H25" s="35" t="s">
         <v>82</v>
       </c>
@@ -33634,23 +33667,23 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="222">
+      <c r="A26" s="232">
         <v>21</v>
       </c>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="145" t="s">
+      <c r="C26" s="234"/>
+      <c r="D26" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="189"/>
       <c r="H26" s="26" t="s">
         <v>70</v>
       </c>
@@ -33663,13 +33696,13 @@
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="223"/>
+      <c r="A27" s="233"/>
       <c r="B27" s="229"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="138"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="190"/>
       <c r="H27" s="30" t="s">
         <v>83</v>
       </c>
@@ -33685,23 +33718,23 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="225">
+      <c r="A28" s="226">
         <v>22</v>
       </c>
-      <c r="B28" s="227" t="s">
+      <c r="B28" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="161"/>
-      <c r="D28" s="145" t="s">
+      <c r="C28" s="143"/>
+      <c r="D28" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="135" t="s">
+      <c r="E28" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="135" t="s">
+      <c r="F28" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="137"/>
+      <c r="G28" s="189"/>
       <c r="H28" s="39" t="s">
         <v>84</v>
       </c>
@@ -33717,13 +33750,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="226"/>
-      <c r="B29" s="228"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="138"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="190"/>
       <c r="H29" s="36" t="s">
         <v>83</v>
       </c>
@@ -33739,23 +33772,23 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="225">
+      <c r="A30" s="226">
         <v>23</v>
       </c>
-      <c r="B30" s="227" t="s">
+      <c r="B30" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="153"/>
-      <c r="D30" s="145" t="s">
+      <c r="C30" s="141"/>
+      <c r="D30" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="135" t="s">
+      <c r="E30" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="135" t="s">
+      <c r="F30" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="137"/>
+      <c r="G30" s="189"/>
       <c r="H30" s="37" t="s">
         <v>85</v>
       </c>
@@ -33771,13 +33804,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="236"/>
+      <c r="A31" s="227"/>
       <c r="B31" s="229"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="138"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="190"/>
       <c r="H31" s="38" t="s">
         <v>70</v>
       </c>
@@ -33793,20 +33826,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="225">
+      <c r="A32" s="226">
         <v>24</v>
       </c>
-      <c r="B32" s="227" t="s">
+      <c r="B32" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="145" t="s">
+      <c r="C32" s="167"/>
+      <c r="D32" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="135" t="s">
+      <c r="E32" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="135" t="s">
+      <c r="F32" s="178" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="96"/>
@@ -33825,12 +33858,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="236"/>
+      <c r="A33" s="227"/>
       <c r="B33" s="229"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
       <c r="G33" s="97"/>
       <c r="H33" s="34" t="s">
         <v>70</v>
@@ -33862,7 +33895,7 @@
       <c r="B35" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="232"/>
+      <c r="G35" s="222"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
@@ -33871,7 +33904,7 @@
       <c r="B36" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="232"/>
+      <c r="G36" s="222"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -33917,18 +33950,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="233" t="s">
+      <c r="A42" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="234"/>
-      <c r="C42" s="234"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="234"/>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="234"/>
-      <c r="J42" s="235"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="224"/>
+      <c r="G42" s="224"/>
+      <c r="H42" s="224"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="225"/>
       <c r="K42" s="93"/>
       <c r="L42" s="92"/>
     </row>
@@ -33971,6 +34004,62 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -33986,62 +34075,6 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE7B5D5-F099-4548-9249-A2A5A5018F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C45FA-76D4-4596-97DD-BAB6E0ABE3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2205" windowWidth="14400" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="242">
   <si>
     <t>No.</t>
   </si>
@@ -789,12 +789,18 @@
   <si>
     <t>Gallinas será manual o conforme a un historial</t>
   </si>
+  <si>
+    <t>þþ</t>
+  </si>
+  <si>
+    <t>þ x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +993,19 @@
     <font>
       <b/>
       <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1459,7 +1478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1848,6 +1867,27 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1911,10 +1951,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,6 +2104,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2163,32 +2209,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2218,7 +2242,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1712233</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>648607</xdr:rowOff>
@@ -2783,7 +2807,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1238251</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>435428</xdr:rowOff>
@@ -3031,7 +3055,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1172936</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97971</xdr:rowOff>
@@ -3496,7 +3520,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>914854</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
@@ -4043,7 +4067,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>99785</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>522967</xdr:rowOff>
@@ -4424,7 +4448,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1592035</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
@@ -4764,7 +4788,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1945822</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>517072</xdr:rowOff>
@@ -5089,7 +5113,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>248330</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1010330</xdr:rowOff>
@@ -5537,7 +5561,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1980293</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>91168</xdr:rowOff>
@@ -5781,7 +5805,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1851025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>612774</xdr:rowOff>
@@ -6157,7 +6181,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -6665,7 +6689,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1604736</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>987879</xdr:rowOff>
@@ -7041,7 +7065,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -7417,7 +7441,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1412875</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -7793,7 +7817,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>116681</xdr:rowOff>
@@ -8284,7 +8308,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>396875</xdr:rowOff>
@@ -8672,7 +8696,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1687286</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>789215</xdr:rowOff>
@@ -9012,7 +9036,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -9621,7 +9645,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1404939</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
@@ -10054,7 +10078,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1214437</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -10442,7 +10466,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1357312</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
@@ -10830,7 +10854,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1345406</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -11218,7 +11242,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1321594</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -11594,7 +11618,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1357312</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
@@ -30851,1113 +30875,1154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33:C37"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="85.140625" customWidth="1"/>
-    <col min="5" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="43.42578125" customWidth="1"/>
-    <col min="12" max="12" width="78.85546875" customWidth="1"/>
-    <col min="13" max="14" width="30.140625" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="85.140625" customWidth="1"/>
+    <col min="6" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="43.42578125" customWidth="1"/>
+    <col min="13" max="13" width="78.85546875" customWidth="1"/>
+    <col min="14" max="15" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="102"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="102"/>
     </row>
-    <row r="2" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="109"/>
+      <c r="N2" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="O2" s="109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135">
+    <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="142">
         <v>1</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="C3" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="147" t="s">
+      <c r="D3" s="122"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="G3" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="H3" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="237" t="s">
+      <c r="I3" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="40" t="s">
+      <c r="J3" s="150"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="110" t="s">
+      <c r="M3" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="N3" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="109" t="s">
+      <c r="O3" s="109" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="238" t="s">
+    <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="247"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="59" t="s">
+      <c r="J4" s="151"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="111" t="s">
+      <c r="M4" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="N4" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
     </row>
-    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135">
+    <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="142">
         <v>2</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="C5" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="D5" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="149" t="s">
+      <c r="G5" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="149" t="s">
+      <c r="H5" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="237" t="s">
+      <c r="I5" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="143"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="150"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="111" t="s">
+      <c r="M5" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="N5" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
     </row>
-    <row r="6" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="136"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="239" t="s">
+    <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="247"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="151"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="111" t="s">
+      <c r="M6" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="N6" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="108"/>
-      <c r="P6" t="s">
+      <c r="O6" s="109"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155">
+    <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="162">
         <v>3</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="C7" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="151" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="151" t="s">
+      <c r="G7" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="149" t="s">
+      <c r="H7" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="240" t="s">
+      <c r="I7" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="143"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="183" t="s">
+      <c r="J7" s="150"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="190" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="111" t="s">
+      <c r="M7" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="N7" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="107"/>
-      <c r="P7" t="s">
+      <c r="O7" s="109"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="111" t="s">
+    <row r="8" spans="1:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="246"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="N8" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
     </row>
-    <row r="9" spans="1:16" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="116">
+    <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="116">
         <v>4</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="C9" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="H9" s="100" t="s">
         <v>194</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="91" t="s">
+      <c r="I9" s="99"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
     </row>
-    <row r="10" spans="1:16" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116">
+    <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="116">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="124"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="242" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="243" t="s">
+      <c r="J10" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="K10" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="L10" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="112"/>
-      <c r="M10" t="s">
+      <c r="M10" s="112"/>
+      <c r="N10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116">
+    <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="116">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="124"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="112" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="N11" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
     </row>
-    <row r="12" spans="1:16" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116">
+    <row r="12" spans="1:17" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="116">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="124"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="243" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="K12" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="L12" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="112"/>
-      <c r="M12" t="s">
+      <c r="M12" s="112"/>
+      <c r="N12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="124"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="G13" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="H13" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="J13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="K13" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="L13" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="L13" s="112" t="s">
+      <c r="M13" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135">
+    <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="142">
         <v>9</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="C14" s="144" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="165" t="s">
+      <c r="D14" s="172" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="148"/>
+      <c r="F14" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="151" t="s">
+      <c r="G14" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="151" t="s">
+      <c r="H14" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="237" t="s">
+      <c r="I14" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="185"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="60" t="s">
+      <c r="J14" s="192"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="111" t="s">
+      <c r="M14" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="N14" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
     </row>
-    <row r="15" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="136"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="244" t="s">
+    <row r="15" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="143"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="186"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="59" t="s">
+      <c r="J15" s="193"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="111" t="s">
+      <c r="M15" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="N15" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
     </row>
-    <row r="16" spans="1:16" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135">
+    <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="142">
         <v>10</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="C16" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="D16" s="170" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="148"/>
+      <c r="F16" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="151" t="s">
+      <c r="G16" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="151" t="s">
+      <c r="H16" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="237" t="s">
+      <c r="I16" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="187"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="60" t="s">
+      <c r="J16" s="194"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="111" t="s">
+      <c r="M16" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="N16" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
     </row>
-    <row r="17" spans="1:15" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="19" t="s">
+    <row r="17" spans="1:16" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="143"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="188"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="59" t="s">
+      <c r="J17" s="195"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="111" t="s">
+      <c r="M17" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="N17" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
     </row>
-    <row r="18" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="10">
         <v>11</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="124"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="G18" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="H18" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="239" t="s">
+      <c r="J18" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="K18" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="62" t="s">
+      <c r="L18" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
     </row>
-    <row r="19" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155">
+    <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="248" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="162">
         <v>12</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="C19" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="161" t="s">
+      <c r="D19" s="122"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="151" t="s">
+      <c r="G19" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="151" t="s">
+      <c r="H19" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="237" t="s">
+      <c r="I19" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="245" t="s">
+      <c r="J19" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="K19" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="L19" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="112" t="s">
+      <c r="M19" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="N19" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N19" s="109"/>
-      <c r="O19" t="s">
+      <c r="O19" s="109"/>
+      <c r="P19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="156"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="25" t="s">
+    <row r="20" spans="1:16" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="163"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="59" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
     </row>
-    <row r="21" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155">
+    <row r="21" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="162">
         <v>13</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="C21" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="161" t="s">
+      <c r="D21" s="122"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="151" t="s">
+      <c r="G21" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="151" t="s">
+      <c r="H21" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="237" t="s">
+      <c r="I21" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="245" t="s">
+      <c r="J21" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="K21" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="K21" s="63" t="s">
+      <c r="L21" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="112" t="s">
+      <c r="M21" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="N21" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
     </row>
-    <row r="22" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="41" t="s">
+    <row r="22" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="180"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="J22" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="K22" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="K22" s="66" t="s">
+      <c r="L22" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="112"/>
-      <c r="O22" t="s">
+      <c r="M22" s="112"/>
+      <c r="P22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="156"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="29" t="s">
+    <row r="23" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="163"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="51" t="s">
+      <c r="K23" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="68" t="s">
+      <c r="L23" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
     </row>
-    <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.25">
-      <c r="A24" s="155">
+    <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.25">
+      <c r="B24" s="162">
         <v>14</v>
       </c>
-      <c r="B24" s="170" t="s">
+      <c r="C24" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="151" t="s">
+      <c r="D24" s="122"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="151" t="s">
+      <c r="G24" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="151" t="s">
+      <c r="H24" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="I24" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="J24" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="52" t="s">
+      <c r="K24" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="64" t="s">
+      <c r="L24" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="113" t="s">
+      <c r="M24" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="M24" s="44" t="s">
+      <c r="N24" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
     </row>
-    <row r="25" spans="1:15" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="156"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="25" t="s">
+    <row r="25" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="163"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="J25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="K25" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="L25" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
     </row>
-    <row r="26" spans="1:15" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="119">
+    <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="119">
         <v>15</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="D26" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="G26" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="88" t="s">
+      <c r="H26" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="I26" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="J26" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="K26" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="K26" s="69" t="s">
+      <c r="L26" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="43" t="s">
+      <c r="M26" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="M26" s="44" t="s">
+      <c r="N26" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
     </row>
-    <row r="27" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="119">
+    <row r="27" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="119">
         <v>16</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="D27" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="G27" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="H27" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="I27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="J27" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="K27" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="67" t="s">
+      <c r="L27" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="M27" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="M27" s="44" t="s">
+      <c r="N27" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
     </row>
-    <row r="28" spans="1:15" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="119">
+    <row r="28" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="119">
         <v>17</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="D28" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="G28" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="86" t="s">
+      <c r="H28" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="I28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="J28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="K28" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="L28" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
     </row>
-    <row r="29" spans="1:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="174" t="s">
+    <row r="29" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="114"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="114"/>
     </row>
-    <row r="30" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="135">
+    <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="142">
         <v>18</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="C30" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="D30" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="161" t="s">
+      <c r="E30" s="150"/>
+      <c r="F30" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="G30" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="H30" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="189"/>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="196"/>
+      <c r="J30" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="K30" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="70" t="s">
+      <c r="L30" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
-    <row r="31" spans="1:15" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="139"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="35" t="s">
+    <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="53" t="s">
+      <c r="K31" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="L31" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" t="s">
+      <c r="M31" s="113"/>
+      <c r="N31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="127">
+    <row r="32" spans="1:16" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="127">
         <v>19</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="C32" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="D32" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="127">
+    <row r="33" spans="2:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="127">
         <v>20</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="C33" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="D33" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="127">
+    <row r="34" spans="2:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="127">
         <v>21</v>
       </c>
-      <c r="B34" s="118" t="s">
+      <c r="C34" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="133"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="127">
+    <row r="35" spans="2:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="127">
         <v>22</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="C35" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="127"/>
-      <c r="B36" s="118" t="s">
+    <row r="36" spans="2:5" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="127">
+        <v>23</v>
+      </c>
+      <c r="C36" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="133"/>
-      <c r="D36" s="9"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="127">
-        <v>23</v>
-      </c>
-      <c r="B37" s="118" t="s">
+    <row r="37" spans="2:5" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="127">
+        <v>24</v>
+      </c>
+      <c r="C37" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="128"/>
-      <c r="B38" s="125"/>
+    <row r="38" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="128"/>
       <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
     </row>
-    <row r="39" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="128"/>
-      <c r="B39" s="125"/>
+    <row r="39" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="128"/>
       <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:L29"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:K29"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D33:D37"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31988,18 +32053,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="197"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="204"/>
       <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32074,28 +32139,28 @@
       <c r="N3" s="109"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198">
+      <c r="A4" s="205">
         <v>2</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="206" t="s">
+      <c r="C4" s="166"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="206" t="s">
+      <c r="F4" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="206" t="s">
+      <c r="G4" s="215" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="204"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="213"/>
       <c r="K4" s="40" t="s">
         <v>98</v>
       </c>
@@ -32111,47 +32176,47 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="199"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
+      <c r="A5" s="206"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
       <c r="H5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="205"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="214"/>
       <c r="K5" s="76" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="198">
+      <c r="A6" s="205">
         <v>3</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="166" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="206" t="s">
+      <c r="D6" s="209"/>
+      <c r="E6" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="206" t="s">
+      <c r="F6" s="215" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="206" t="s">
+      <c r="G6" s="215" t="s">
         <v>130</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="153"/>
-      <c r="J6" s="204"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="213"/>
       <c r="K6" s="40" t="s">
         <v>100</v>
       </c>
@@ -32164,18 +32229,18 @@
       <c r="N6" s="109"/>
     </row>
     <row r="7" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="199"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="154"/>
-      <c r="J7" s="205"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="214"/>
       <c r="K7" s="76" t="s">
         <v>98</v>
       </c>
@@ -32188,45 +32253,45 @@
       <c r="N7" s="109"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198">
+      <c r="A8" s="205">
         <v>4</v>
       </c>
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="206" t="s">
+      <c r="C8" s="207"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="206" t="s">
+      <c r="F8" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="206" t="s">
+      <c r="G8" s="215" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="153"/>
-      <c r="J8" s="204"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="213"/>
       <c r="K8" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
+      <c r="A9" s="206"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
       <c r="H9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="154"/>
-      <c r="J9" s="205"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="214"/>
       <c r="K9" s="76" t="s">
         <v>98</v>
       </c>
@@ -32435,199 +32500,199 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="198">
+      <c r="A16" s="205">
         <v>11</v>
       </c>
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="198" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="211" t="s">
+      <c r="D16" s="150"/>
+      <c r="E16" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="211" t="s">
+      <c r="F16" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="211" t="s">
+      <c r="G16" s="220" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="204" t="s">
+      <c r="J16" s="213" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="153" t="s">
+      <c r="K16" s="211" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="208"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
       <c r="H17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="221"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="230"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="208"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
       <c r="H18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="221"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="230"/>
       <c r="O18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="208"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
       <c r="H19" s="18" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="221"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="230"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="208"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="214"/>
-      <c r="K20" s="221"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="230"/>
     </row>
     <row r="21" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
-      <c r="B21" s="201"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
+      <c r="A21" s="206"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="222"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="154"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="212"/>
     </row>
     <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215">
+      <c r="A22" s="224">
         <v>12</v>
       </c>
-      <c r="B22" s="200" t="s">
+      <c r="B22" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="151" t="s">
+      <c r="C22" s="207"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="151" t="s">
+      <c r="F22" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="158" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="77"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="153" t="s">
+      <c r="J22" s="213"/>
+      <c r="K22" s="211" t="s">
         <v>98</v>
       </c>
       <c r="L22" t="s">
         <v>210</v>
       </c>
-      <c r="M22" s="194" t="s">
+      <c r="M22" s="201" t="s">
         <v>156</v>
       </c>
       <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
+      <c r="A23" s="225"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="221"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="230"/>
       <c r="L23" t="s">
         <v>211</v>
       </c>
-      <c r="M23" s="194"/>
+      <c r="M23" s="201"/>
       <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
+      <c r="A24" s="225"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="78"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="221"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="230"/>
       <c r="L24" t="s">
         <v>212</v>
       </c>
-      <c r="M24" s="194"/>
+      <c r="M24" s="201"/>
       <c r="N24" s="115"/>
     </row>
     <row r="25" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="217"/>
-      <c r="B25" s="201"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="177"/>
+      <c r="A25" s="226"/>
+      <c r="B25" s="208"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="184"/>
       <c r="H25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="79"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="154"/>
-      <c r="M25" s="194"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="212"/>
+      <c r="M25" s="201"/>
       <c r="N25" s="115"/>
     </row>
     <row r="26" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32736,33 +32801,33 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="198">
+      <c r="A29" s="205">
         <v>16</v>
       </c>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="211" t="s">
+      <c r="C29" s="207"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="211" t="s">
+      <c r="F29" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="211" t="s">
+      <c r="G29" s="220" t="s">
         <v>130</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="153" t="s">
+      <c r="I29" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="204" t="s">
+      <c r="J29" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="153" t="s">
+      <c r="K29" s="211" t="s">
         <v>98</v>
       </c>
       <c r="O29" t="s">
@@ -32770,19 +32835,19 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="199"/>
-      <c r="B30" s="201"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
+      <c r="A30" s="206"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="222"/>
       <c r="H30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="154"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="154"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="212"/>
     </row>
     <row r="31" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="117">
@@ -33026,18 +33091,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
       <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -33212,70 +33277,70 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="232">
+      <c r="A8" s="241">
         <v>11</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="161" t="s">
+      <c r="C8" s="148"/>
+      <c r="D8" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="151" t="s">
+      <c r="E8" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="151" t="s">
+      <c r="F8" s="158" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="145"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="152"/>
       <c r="J8" s="103" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
       <c r="G9" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="186"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="104" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="232">
+      <c r="A10" s="241">
         <v>12</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="151" t="s">
+      <c r="C10" s="148"/>
+      <c r="D10" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="151" t="s">
+      <c r="E10" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="151" t="s">
+      <c r="F10" s="158" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="187"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="101"/>
       <c r="J10" s="103" t="s">
         <v>98</v>
@@ -33283,16 +33348,16 @@
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="233"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
+      <c r="A11" s="242"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
       <c r="G11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="188"/>
+      <c r="H11" s="195"/>
       <c r="I11" s="47"/>
       <c r="J11" s="104" t="s">
         <v>102</v>
@@ -33331,20 +33396,20 @@
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="232">
+      <c r="A13" s="241">
         <v>14</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="161" t="s">
+      <c r="C13" s="174"/>
+      <c r="D13" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="151" t="s">
+      <c r="E13" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="151" t="s">
+      <c r="F13" s="158" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="40" t="s">
@@ -33365,12 +33430,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="233"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
       <c r="G14" s="105" t="s">
         <v>64</v>
       </c>
@@ -33382,20 +33447,20 @@
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="232">
+      <c r="A15" s="241">
         <v>15</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="161" t="s">
+      <c r="C15" s="174"/>
+      <c r="D15" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="151" t="s">
+      <c r="E15" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="151" t="s">
+      <c r="F15" s="158" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -33413,12 +33478,12 @@
       <c r="K15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
+      <c r="A16" s="245"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="41" t="s">
         <v>63</v>
       </c>
@@ -33437,12 +33502,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="233"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
+      <c r="A17" s="242"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
       <c r="G17" s="24"/>
       <c r="H17" s="29" t="s">
         <v>78</v>
@@ -33456,20 +33521,20 @@
       <c r="K17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="232">
+      <c r="A18" s="241">
         <v>16</v>
       </c>
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="151" t="s">
+      <c r="C18" s="174"/>
+      <c r="D18" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="151" t="s">
+      <c r="E18" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="151" t="s">
+      <c r="F18" s="158" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="40" t="s">
@@ -33487,12 +33552,12 @@
       <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="233"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
       <c r="G19" s="105" t="s">
         <v>63</v>
       </c>
@@ -33601,38 +33666,38 @@
       <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="174" t="s">
+      <c r="A23" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="114"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="232">
+      <c r="A24" s="241">
         <v>20</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="161" t="s">
+      <c r="C24" s="150"/>
+      <c r="D24" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="178" t="s">
+      <c r="E24" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="178" t="s">
+      <c r="F24" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="189"/>
+      <c r="G24" s="196"/>
       <c r="H24" s="33" t="s">
         <v>81</v>
       </c>
@@ -33645,13 +33710,13 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="233"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="190"/>
+      <c r="A25" s="242"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="197"/>
       <c r="H25" s="35" t="s">
         <v>82</v>
       </c>
@@ -33667,23 +33732,23 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="232">
+      <c r="A26" s="241">
         <v>21</v>
       </c>
-      <c r="B26" s="228" t="s">
+      <c r="B26" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="161" t="s">
+      <c r="C26" s="243"/>
+      <c r="D26" s="168" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="178" t="s">
+      <c r="F26" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="189"/>
+      <c r="G26" s="196"/>
       <c r="H26" s="26" t="s">
         <v>70</v>
       </c>
@@ -33696,13 +33761,13 @@
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="233"/>
-      <c r="B27" s="229"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="190"/>
+      <c r="A27" s="242"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="197"/>
       <c r="H27" s="30" t="s">
         <v>83</v>
       </c>
@@ -33718,23 +33783,23 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="226">
+      <c r="A28" s="235">
         <v>22</v>
       </c>
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="161" t="s">
+      <c r="C28" s="150"/>
+      <c r="D28" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="178" t="s">
+      <c r="E28" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="178" t="s">
+      <c r="F28" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="189"/>
+      <c r="G28" s="196"/>
       <c r="H28" s="39" t="s">
         <v>84</v>
       </c>
@@ -33750,13 +33815,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="230"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="190"/>
+      <c r="A29" s="239"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="197"/>
       <c r="H29" s="36" t="s">
         <v>83</v>
       </c>
@@ -33772,23 +33837,23 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="226">
+      <c r="A30" s="235">
         <v>23</v>
       </c>
-      <c r="B30" s="228" t="s">
+      <c r="B30" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="161" t="s">
+      <c r="C30" s="148"/>
+      <c r="D30" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="178" t="s">
+      <c r="E30" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="189"/>
+      <c r="G30" s="196"/>
       <c r="H30" s="37" t="s">
         <v>85</v>
       </c>
@@ -33804,13 +33869,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="227"/>
-      <c r="B31" s="229"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="190"/>
+      <c r="A31" s="236"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="197"/>
       <c r="H31" s="38" t="s">
         <v>70</v>
       </c>
@@ -33826,20 +33891,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="226">
+      <c r="A32" s="235">
         <v>24</v>
       </c>
-      <c r="B32" s="228" t="s">
+      <c r="B32" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="161" t="s">
+      <c r="C32" s="174"/>
+      <c r="D32" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="F32" s="185" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="96"/>
@@ -33858,12 +33923,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="227"/>
-      <c r="B33" s="229"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
+      <c r="A33" s="236"/>
+      <c r="B33" s="238"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
       <c r="G33" s="97"/>
       <c r="H33" s="34" t="s">
         <v>70</v>
@@ -33895,7 +33960,7 @@
       <c r="B35" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="222"/>
+      <c r="G35" s="231"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
@@ -33904,7 +33969,7 @@
       <c r="B36" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="222"/>
+      <c r="G36" s="231"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -33950,18 +34015,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="223" t="s">
+      <c r="A42" s="232" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="224"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="224"/>
-      <c r="G42" s="224"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="224"/>
-      <c r="J42" s="225"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="233"/>
+      <c r="F42" s="233"/>
+      <c r="G42" s="233"/>
+      <c r="H42" s="233"/>
+      <c r="I42" s="233"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="93"/>
       <c r="L42" s="92"/>
     </row>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C45FA-76D4-4596-97DD-BAB6E0ABE3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A689CB-01F3-4DA6-B7E0-1707680B2B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="242">
   <si>
     <t>No.</t>
   </si>
@@ -1888,13 +1888,66 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1903,23 +1956,29 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1927,79 +1986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2023,47 +2010,143 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2086,83 +2169,35 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2176,43 +2211,8 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30878,8 +30878,8 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30896,19 +30896,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
       <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30954,31 +30954,31 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="142">
+      <c r="B3" s="161">
         <v>1</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="153" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="122"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="154" t="s">
+      <c r="E3" s="163"/>
+      <c r="F3" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="196" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="184" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="167"/>
       <c r="L3" s="40" t="s">
         <v>102</v>
       </c>
@@ -30993,19 +30993,19 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="247"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="145"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="121"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="157"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="185"/>
       <c r="I4" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="153"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="168"/>
       <c r="L4" s="59" t="s">
         <v>100</v>
       </c>
@@ -31018,33 +31018,33 @@
       <c r="O4" s="109"/>
     </row>
     <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="142">
+      <c r="B5" s="161">
         <v>2</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="156" t="s">
+      <c r="E5" s="163"/>
+      <c r="F5" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="156" t="s">
+      <c r="G5" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="184" t="s">
         <v>194</v>
       </c>
       <c r="I5" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="150"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="167"/>
       <c r="L5" s="60" t="s">
         <v>100</v>
       </c>
@@ -31057,19 +31057,19 @@
       <c r="O5" s="109"/>
     </row>
     <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="247"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
       <c r="I6" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="151"/>
-      <c r="K6" s="153"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="168"/>
       <c r="L6" s="59" t="s">
         <v>97</v>
       </c>
@@ -31086,32 +31086,32 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="159">
         <v>3</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="158" t="s">
+      <c r="D7" s="194"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="158" t="s">
+      <c r="G7" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="156" t="s">
+      <c r="H7" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="160" t="s">
+      <c r="I7" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="150"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="190" t="s">
+      <c r="J7" s="171"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="151" t="s">
         <v>188</v>
       </c>
       <c r="M7" s="111" t="s">
@@ -31127,18 +31127,18 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="246"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="191"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="152"/>
       <c r="M8" s="111" t="s">
         <v>190</v>
       </c>
@@ -31148,7 +31148,7 @@
       <c r="O8" s="109"/>
     </row>
     <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="246" t="s">
+      <c r="A9" s="139" t="s">
         <v>240</v>
       </c>
       <c r="B9" s="116">
@@ -31176,7 +31176,10 @@
       </c>
       <c r="M9" s="111"/>
     </row>
-    <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="141" t="s">
+        <v>241</v>
+      </c>
       <c r="B10" s="116">
         <v>5</v>
       </c>
@@ -31209,7 +31212,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="141" t="s">
+        <v>241</v>
+      </c>
       <c r="B11" s="116">
         <v>6</v>
       </c>
@@ -31271,7 +31277,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="139" t="s">
         <v>240</v>
       </c>
       <c r="B13" s="10">
@@ -31311,33 +31317,33 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="246" t="s">
+      <c r="A14" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="142">
+      <c r="B14" s="161">
         <v>9</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="188" t="s">
         <v>230</v>
       </c>
-      <c r="E14" s="148"/>
-      <c r="F14" s="168" t="s">
+      <c r="E14" s="163"/>
+      <c r="F14" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="158" t="s">
+      <c r="G14" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="158" t="s">
+      <c r="H14" s="142" t="s">
         <v>130</v>
       </c>
       <c r="I14" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="192"/>
-      <c r="K14" s="152"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="167"/>
       <c r="L14" s="60" t="s">
         <v>98</v>
       </c>
@@ -31350,18 +31356,18 @@
       <c r="O14" s="109"/>
     </row>
     <row r="15" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="143"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="193"/>
-      <c r="K15" s="153"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="168"/>
       <c r="L15" s="59" t="s">
         <v>100</v>
       </c>
@@ -31374,32 +31380,32 @@
       <c r="O15" s="109"/>
     </row>
     <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="246" t="s">
+      <c r="A16" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="142">
+      <c r="B16" s="161">
         <v>10</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="186" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="148"/>
-      <c r="F16" s="158" t="s">
+      <c r="E16" s="163"/>
+      <c r="F16" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="158" t="s">
+      <c r="G16" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="158" t="s">
+      <c r="H16" s="142" t="s">
         <v>130</v>
       </c>
       <c r="I16" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="194"/>
+      <c r="J16" s="169"/>
       <c r="K16" s="23"/>
       <c r="L16" s="60" t="s">
         <v>98</v>
@@ -31413,17 +31419,17 @@
       <c r="O16" s="109"/>
     </row>
     <row r="17" spans="1:16" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="143"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
       <c r="I17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="195"/>
+      <c r="J17" s="170"/>
       <c r="K17" s="47"/>
       <c r="L17" s="59" t="s">
         <v>102</v>
@@ -31437,7 +31443,7 @@
       <c r="O17" s="109"/>
     </row>
     <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="246" t="s">
+      <c r="A18" s="139" t="s">
         <v>240</v>
       </c>
       <c r="B18" s="10">
@@ -31472,24 +31478,24 @@
       <c r="M18" s="111"/>
     </row>
     <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="141" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="159">
         <v>12</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="153" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="122"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="168" t="s">
+      <c r="E19" s="157"/>
+      <c r="F19" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="158" t="s">
+      <c r="G19" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="158" t="s">
+      <c r="H19" s="142" t="s">
         <v>130</v>
       </c>
       <c r="I19" s="132" t="s">
@@ -31516,13 +31522,13 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="163"/>
-      <c r="C20" s="145"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="121"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="25" t="s">
         <v>64</v>
       </c>
@@ -31534,21 +31540,21 @@
       <c r="M20" s="111"/>
     </row>
     <row r="21" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="162">
+      <c r="B21" s="159">
         <v>13</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="174" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="122"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="168" t="s">
+      <c r="E21" s="157"/>
+      <c r="F21" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="158" t="s">
+      <c r="G21" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="158" t="s">
+      <c r="H21" s="142" t="s">
         <v>130</v>
       </c>
       <c r="I21" s="132" t="s">
@@ -31572,13 +31578,13 @@
       <c r="O21" s="109"/>
     </row>
     <row r="22" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="180"/>
-      <c r="C22" s="178"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="123"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
       <c r="I22" s="41" t="s">
         <v>63</v>
       </c>
@@ -31597,13 +31603,13 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="163"/>
-      <c r="C23" s="179"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="121"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
       <c r="I23" s="24"/>
       <c r="J23" s="29" t="s">
         <v>78</v>
@@ -31617,21 +31623,21 @@
       <c r="M23" s="112"/>
     </row>
     <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.25">
-      <c r="B24" s="162">
+      <c r="B24" s="159">
         <v>14</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="174" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="122"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="158" t="s">
+      <c r="E24" s="157"/>
+      <c r="F24" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="158" t="s">
+      <c r="G24" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="158" t="s">
+      <c r="H24" s="142" t="s">
         <v>130</v>
       </c>
       <c r="I24" s="40" t="s">
@@ -31655,13 +31661,13 @@
       <c r="O24" s="109"/>
     </row>
     <row r="25" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="163"/>
-      <c r="C25" s="179"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="121"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
       <c r="I25" s="25" t="s">
         <v>63</v>
       </c>
@@ -31677,7 +31683,7 @@
       <c r="M25" s="113"/>
     </row>
     <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="246" t="s">
+      <c r="A26" s="139" t="s">
         <v>240</v>
       </c>
       <c r="B26" s="119">
@@ -31720,7 +31726,7 @@
       <c r="O26" s="109"/>
     </row>
     <row r="27" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="246" t="s">
+      <c r="A27" s="139" t="s">
         <v>240</v>
       </c>
       <c r="B27" s="119">
@@ -31763,7 +31769,7 @@
       <c r="O27" s="109"/>
     </row>
     <row r="28" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="246" t="s">
+      <c r="A28" s="139" t="s">
         <v>240</v>
       </c>
       <c r="B28" s="119">
@@ -31800,42 +31806,42 @@
       <c r="M28" s="43"/>
     </row>
     <row r="29" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="183"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="180"/>
       <c r="M29" s="114"/>
     </row>
     <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="142">
+      <c r="B30" s="161">
         <v>18</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="139" t="s">
+      <c r="D30" s="182" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="168" t="s">
+      <c r="E30" s="171"/>
+      <c r="F30" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="185" t="s">
+      <c r="G30" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="185" t="s">
+      <c r="H30" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="196"/>
+      <c r="I30" s="147"/>
       <c r="J30" s="33" t="s">
         <v>81</v>
       </c>
@@ -31848,14 +31854,14 @@
       <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="197"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="148"/>
       <c r="J31" s="35" t="s">
         <v>82</v>
       </c>
@@ -31892,7 +31898,7 @@
       <c r="C33" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="139" t="s">
+      <c r="D33" s="182" t="s">
         <v>234</v>
       </c>
       <c r="E33" s="9"/>
@@ -31904,7 +31910,7 @@
       <c r="C34" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="140"/>
+      <c r="D34" s="198"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="2:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31914,7 +31920,7 @@
       <c r="C35" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="140"/>
+      <c r="D35" s="198"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="2:5" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31924,7 +31930,7 @@
       <c r="C36" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="D36" s="140"/>
+      <c r="D36" s="198"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="2:5" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31934,7 +31940,7 @@
       <c r="C37" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="141"/>
+      <c r="D37" s="183"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
@@ -31949,11 +31955,59 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="C19:C20"/>
@@ -31970,59 +32024,11 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32053,18 +32059,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="204"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="233"/>
       <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32139,28 +32145,28 @@
       <c r="N3" s="109"/>
     </row>
     <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205">
+      <c r="A4" s="221">
         <v>2</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="215" t="s">
+      <c r="C4" s="194"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="215" t="s">
+      <c r="F4" s="204" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="204" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="211"/>
-      <c r="J4" s="213"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="218"/>
       <c r="K4" s="40" t="s">
         <v>98</v>
       </c>
@@ -32176,47 +32182,47 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="206"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
+      <c r="A5" s="222"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
       <c r="H5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="212"/>
-      <c r="J5" s="214"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="220"/>
       <c r="K5" s="76" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="205">
+      <c r="A6" s="221">
         <v>3</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="194" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="215" t="s">
+      <c r="D6" s="223"/>
+      <c r="E6" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="215" t="s">
+      <c r="F6" s="204" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="215" t="s">
+      <c r="G6" s="204" t="s">
         <v>130</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="211"/>
-      <c r="J6" s="213"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="218"/>
       <c r="K6" s="40" t="s">
         <v>100</v>
       </c>
@@ -32229,18 +32235,18 @@
       <c r="N6" s="109"/>
     </row>
     <row r="7" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
-      <c r="B7" s="208"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="212"/>
-      <c r="J7" s="214"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="220"/>
       <c r="K7" s="76" t="s">
         <v>98</v>
       </c>
@@ -32253,45 +32259,45 @@
       <c r="N7" s="109"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="205">
+      <c r="A8" s="221">
         <v>4</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="215" t="s">
+      <c r="C8" s="212"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="215" t="s">
+      <c r="F8" s="204" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="215" t="s">
+      <c r="G8" s="204" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="211"/>
-      <c r="J8" s="213"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="218"/>
       <c r="K8" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="206"/>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
       <c r="H9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="212"/>
-      <c r="J9" s="214"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="220"/>
       <c r="K9" s="76" t="s">
         <v>98</v>
       </c>
@@ -32500,199 +32506,199 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="205">
+      <c r="A16" s="221">
         <v>11</v>
       </c>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="171"/>
+      <c r="E16" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="220" t="s">
+      <c r="F16" s="206" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="220" t="s">
+      <c r="G16" s="206" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="213" t="s">
+      <c r="J16" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="211" t="s">
+      <c r="K16" s="201" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="217"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
+      <c r="A17" s="225"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
       <c r="H17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="230"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="202"/>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
+      <c r="A18" s="225"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
       <c r="H18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="230"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="202"/>
       <c r="O18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="217"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
+      <c r="A19" s="225"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
       <c r="H19" s="18" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="230"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="202"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
-      <c r="B20" s="218"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
+      <c r="A20" s="225"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="230"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="206"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="222"/>
-      <c r="G21" s="222"/>
+      <c r="A21" s="222"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="212"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="203"/>
     </row>
     <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="224">
+      <c r="A22" s="209">
         <v>12</v>
       </c>
-      <c r="B22" s="207" t="s">
+      <c r="B22" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="207"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="158" t="s">
+      <c r="C22" s="212"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="158" t="s">
+      <c r="F22" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="158" t="s">
+      <c r="G22" s="142" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="77"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="211" t="s">
+      <c r="J22" s="218"/>
+      <c r="K22" s="201" t="s">
         <v>98</v>
       </c>
       <c r="L22" t="s">
         <v>210</v>
       </c>
-      <c r="M22" s="201" t="s">
+      <c r="M22" s="230" t="s">
         <v>156</v>
       </c>
       <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="225"/>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
+      <c r="A23" s="210"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
       <c r="H23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="230"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="202"/>
       <c r="L23" t="s">
         <v>211</v>
       </c>
-      <c r="M23" s="201"/>
+      <c r="M23" s="230"/>
       <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="225"/>
-      <c r="B24" s="218"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="228"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="78"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="230"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="202"/>
       <c r="L24" t="s">
         <v>212</v>
       </c>
-      <c r="M24" s="201"/>
+      <c r="M24" s="230"/>
       <c r="N24" s="115"/>
     </row>
     <row r="25" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="226"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="184"/>
+      <c r="A25" s="211"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="144"/>
       <c r="H25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="79"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="212"/>
-      <c r="M25" s="201"/>
+      <c r="J25" s="220"/>
+      <c r="K25" s="203"/>
+      <c r="M25" s="230"/>
       <c r="N25" s="115"/>
     </row>
     <row r="26" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32801,33 +32807,33 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="205">
+      <c r="A29" s="221">
         <v>16</v>
       </c>
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="220" t="s">
+      <c r="C29" s="212"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="220" t="s">
+      <c r="F29" s="206" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="220" t="s">
+      <c r="G29" s="206" t="s">
         <v>130</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="211" t="s">
+      <c r="I29" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="213" t="s">
+      <c r="J29" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="211" t="s">
+      <c r="K29" s="201" t="s">
         <v>98</v>
       </c>
       <c r="O29" t="s">
@@ -32835,19 +32841,19 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="206"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="222"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
       <c r="H30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="212"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="212"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="203"/>
     </row>
     <row r="31" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="117">
@@ -33005,6 +33011,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="K16:K21"/>
     <mergeCell ref="K22:K25"/>
     <mergeCell ref="K29:K30"/>
@@ -33021,47 +33068,6 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33091,18 +33097,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
       <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -33277,70 +33283,70 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="241">
+      <c r="A8" s="234">
         <v>11</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="168" t="s">
+      <c r="C8" s="163"/>
+      <c r="D8" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="158" t="s">
+      <c r="E8" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="142" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="192"/>
-      <c r="I8" s="152"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="167"/>
       <c r="J8" s="103" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
       <c r="G9" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="168"/>
       <c r="J9" s="104" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="241">
+      <c r="A10" s="234">
         <v>12</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="158" t="s">
+      <c r="C10" s="163"/>
+      <c r="D10" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="158" t="s">
+      <c r="E10" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="158" t="s">
+      <c r="F10" s="142" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="194"/>
+      <c r="H10" s="169"/>
       <c r="I10" s="101"/>
       <c r="J10" s="103" t="s">
         <v>98</v>
@@ -33348,16 +33354,16 @@
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="242"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
+      <c r="A11" s="235"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="195"/>
+      <c r="H11" s="170"/>
       <c r="I11" s="47"/>
       <c r="J11" s="104" t="s">
         <v>102</v>
@@ -33396,20 +33402,20 @@
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="241">
+      <c r="A13" s="234">
         <v>14</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="168" t="s">
+      <c r="C13" s="157"/>
+      <c r="D13" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="158" t="s">
+      <c r="E13" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="158" t="s">
+      <c r="F13" s="142" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="40" t="s">
@@ -33430,12 +33436,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="242"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
+      <c r="A14" s="235"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="105" t="s">
         <v>64</v>
       </c>
@@ -33447,20 +33453,20 @@
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="241">
+      <c r="A15" s="234">
         <v>15</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="168" t="s">
+      <c r="C15" s="157"/>
+      <c r="D15" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="158" t="s">
+      <c r="E15" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="142" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -33478,12 +33484,12 @@
       <c r="K15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="245"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="41" t="s">
         <v>63</v>
       </c>
@@ -33502,12 +33508,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="242"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
+      <c r="A17" s="235"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
       <c r="G17" s="24"/>
       <c r="H17" s="29" t="s">
         <v>78</v>
@@ -33521,20 +33527,20 @@
       <c r="K17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="241">
+      <c r="A18" s="234">
         <v>16</v>
       </c>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="158" t="s">
+      <c r="C18" s="157"/>
+      <c r="D18" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="158" t="s">
+      <c r="E18" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="158" t="s">
+      <c r="F18" s="142" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="40" t="s">
@@ -33552,12 +33558,12 @@
       <c r="K18" s="113"/>
     </row>
     <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="242"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="105" t="s">
         <v>63</v>
       </c>
@@ -33666,38 +33672,38 @@
       <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
       <c r="K23" s="114"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="241">
+      <c r="A24" s="234">
         <v>20</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="168" t="s">
+      <c r="C24" s="171"/>
+      <c r="D24" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="185" t="s">
+      <c r="E24" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="185" t="s">
+      <c r="F24" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="196"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="33" t="s">
         <v>81</v>
       </c>
@@ -33710,13 +33716,13 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="242"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="197"/>
+      <c r="A25" s="235"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="35" t="s">
         <v>82</v>
       </c>
@@ -33732,23 +33738,23 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="241">
+      <c r="A26" s="234">
         <v>21</v>
       </c>
-      <c r="B26" s="237" t="s">
+      <c r="B26" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="243"/>
-      <c r="D26" s="168" t="s">
+      <c r="C26" s="242"/>
+      <c r="D26" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="185" t="s">
+      <c r="E26" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="185" t="s">
+      <c r="F26" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="196"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="26" t="s">
         <v>70</v>
       </c>
@@ -33761,13 +33767,13 @@
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="242"/>
-      <c r="B27" s="238"/>
-      <c r="C27" s="244"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="197"/>
+      <c r="A27" s="235"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="30" t="s">
         <v>83</v>
       </c>
@@ -33783,23 +33789,23 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="235">
+      <c r="A28" s="237">
         <v>22</v>
       </c>
-      <c r="B28" s="237" t="s">
+      <c r="B28" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="168" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="185" t="s">
+      <c r="E28" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="185" t="s">
+      <c r="F28" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="196"/>
+      <c r="G28" s="147"/>
       <c r="H28" s="39" t="s">
         <v>84</v>
       </c>
@@ -33815,13 +33821,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="239"/>
+      <c r="A29" s="238"/>
       <c r="B29" s="240"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="197"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="36" t="s">
         <v>83</v>
       </c>
@@ -33837,23 +33843,23 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="235">
+      <c r="A30" s="237">
         <v>23</v>
       </c>
-      <c r="B30" s="237" t="s">
+      <c r="B30" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="148"/>
-      <c r="D30" s="168" t="s">
+      <c r="C30" s="163"/>
+      <c r="D30" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="185" t="s">
+      <c r="E30" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="185" t="s">
+      <c r="F30" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="196"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="37" t="s">
         <v>85</v>
       </c>
@@ -33869,13 +33875,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="236"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="197"/>
+      <c r="A31" s="248"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="38" t="s">
         <v>70</v>
       </c>
@@ -33891,20 +33897,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="235">
+      <c r="A32" s="237">
         <v>24</v>
       </c>
-      <c r="B32" s="237" t="s">
+      <c r="B32" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="168" t="s">
+      <c r="C32" s="157"/>
+      <c r="D32" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="185" t="s">
+      <c r="E32" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="185" t="s">
+      <c r="F32" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="96"/>
@@ -33923,12 +33929,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="236"/>
-      <c r="B33" s="238"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
+      <c r="A33" s="248"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
       <c r="G33" s="97"/>
       <c r="H33" s="34" t="s">
         <v>70</v>
@@ -33960,7 +33966,7 @@
       <c r="B35" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="231"/>
+      <c r="G35" s="244"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
@@ -33969,7 +33975,7 @@
       <c r="B36" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="231"/>
+      <c r="G36" s="244"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -34015,18 +34021,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="232" t="s">
+      <c r="A42" s="245" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="233"/>
-      <c r="C42" s="233"/>
-      <c r="D42" s="233"/>
-      <c r="E42" s="233"/>
-      <c r="F42" s="233"/>
-      <c r="G42" s="233"/>
-      <c r="H42" s="233"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="234"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
+      <c r="E42" s="246"/>
+      <c r="F42" s="246"/>
+      <c r="G42" s="246"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="246"/>
+      <c r="J42" s="247"/>
       <c r="K42" s="93"/>
       <c r="L42" s="92"/>
     </row>
@@ -34069,62 +34075,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -34140,6 +34090,62 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A689CB-01F3-4DA6-B7E0-1707680B2B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37BE03-D8D7-48A6-B049-6920067A1052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="243">
   <si>
     <t>No.</t>
   </si>
@@ -731,15 +731,6 @@
     <t>Costo medicamento prev</t>
   </si>
   <si>
-    <t>Costo vacunacion</t>
-  </si>
-  <si>
-    <t>Med curativo</t>
-  </si>
-  <si>
-    <t>Costo global alimento gestacion (población)</t>
-  </si>
-  <si>
     <t>Costo consumo de alimento por lote (formulacion rapida)</t>
   </si>
   <si>
@@ -793,7 +784,19 @@
     <t>þþ</t>
   </si>
   <si>
-    <t>þ x</t>
+    <t>þx</t>
+  </si>
+  <si>
+    <t>þl</t>
+  </si>
+  <si>
+    <t>þdþ</t>
+  </si>
+  <si>
+    <t>Material med vet</t>
+  </si>
+  <si>
+    <t>Alimento (Formulas)</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,13 +1071,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,7 +1487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1505,9 +1514,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1819,16 +1825,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1858,45 +1855,160 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1908,10 +2020,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,53 +2035,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1981,172 +2048,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2169,35 +2074,65 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2211,8 +2146,95 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11243,382 +11265,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1321594</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2486450" cy="510717"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="CuadroTexto 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5937CFA4-08B6-4479-A5BC-CF3034BFE271}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6024563" y="36099750"/>
-              <a:ext cx="2486450" cy="510717"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>  </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐶𝑜𝑠𝑡𝑜</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>∑</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑀𝑎𝑟𝑟𝑎𝑛𝑎𝑠</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑒𝑛</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-MX" sz="1600" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="es-MX" sz="368400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="CuadroTexto 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5937CFA4-08B6-4479-A5BC-CF3034BFE271}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6024563" y="36099750"/>
-              <a:ext cx="2486450" cy="510717"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="es-MX" sz="1600" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(  𝐶𝑜𝑠𝑡𝑜 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎𝑙𝑖𝑚𝑒𝑛𝑡𝑜 𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛)/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-MX" sz="1600" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-MX" sz="1600" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑀𝑎𝑟𝑟𝑎𝑛𝑎𝑠 𝑒𝑛 𝑔𝑒𝑠𝑡𝑎𝑐𝑖𝑜𝑛)</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-MX" sz="368400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>1357312</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
@@ -12023,7 +11669,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1641702</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>538163</xdr:rowOff>
@@ -12279,7 +11925,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1831181</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>388144</xdr:rowOff>
@@ -12498,7 +12144,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1787524</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>246062</xdr:rowOff>
@@ -12717,7 +12363,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1761332</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>231775</xdr:rowOff>
@@ -12948,7 +12594,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1687513</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
@@ -13179,7 +12825,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1703387</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
@@ -13410,7 +13056,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1679575</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
@@ -13629,7 +13275,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1712119</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -13884,7 +13530,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>981869</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>237331</xdr:rowOff>
@@ -14211,7 +13857,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
@@ -14683,7 +14329,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -15167,7 +14813,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91281</xdr:rowOff>
@@ -15627,7 +15273,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>432594</xdr:rowOff>
@@ -16123,7 +15769,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1154906</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
@@ -16607,7 +16253,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1132681</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
@@ -16911,7 +16557,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1205706</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>296863</xdr:rowOff>
@@ -17215,7 +16861,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1024731</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>20638</xdr:rowOff>
@@ -17603,7 +17249,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>431006</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
@@ -18157,7 +17803,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1631156</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
@@ -18437,7 +18083,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1742734</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>201160</xdr:rowOff>
@@ -30877,13 +30523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="3" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="85.140625" customWidth="1"/>
     <col min="6" max="8" width="30.85546875" customWidth="1"/>
@@ -30896,1118 +30543,1101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="102"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="44" t="s">
+      <c r="M2" s="108"/>
+      <c r="N2" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="108" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="161">
+    <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="233">
         <v>1</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="196" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="196" t="s">
+      <c r="G3" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="171"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="40" t="s">
+      <c r="J3" s="146"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O3" s="109" t="s">
+      <c r="O3" s="108" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="140"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="133" t="s">
+    <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="245"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="172"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="59" t="s">
+      <c r="J4" s="147"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O4" s="109"/>
+      <c r="O4" s="108"/>
     </row>
-    <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="161">
+    <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="233">
         <v>2</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="192" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="163"/>
-      <c r="F5" s="184" t="s">
+      <c r="D5" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="144"/>
+      <c r="F5" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="184" t="s">
+      <c r="H5" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="171"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="60" t="s">
+      <c r="J5" s="146"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="109"/>
+      <c r="O5" s="108"/>
     </row>
-    <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="140"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="134" t="s">
+    <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="245"/>
+      <c r="B6" s="234"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="172"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="59" t="s">
+      <c r="J6" s="147"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="111" t="s">
+      <c r="M6" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="109"/>
-      <c r="P6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="107"/>
       <c r="Q6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="159">
+    <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="233">
         <v>3</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="142" t="s">
+      <c r="D7" s="160"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="G7" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="190" t="s">
+      <c r="I7" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="171"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="151" t="s">
+      <c r="J7" s="146"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="183" t="s">
         <v>188</v>
       </c>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="107"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="106"/>
       <c r="Q7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="139"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="111" t="s">
+    <row r="8" spans="1:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="245"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O8" s="109"/>
+      <c r="O8" s="108"/>
     </row>
-    <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="139" t="s">
+    <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="247" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="235">
+        <v>4</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="98"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="110"/>
+    </row>
+    <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="116">
-        <v>4</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="100" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="91" t="s">
+      <c r="B10" s="235">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="111"/>
-    </row>
-    <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="116">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="112"/>
+      <c r="M10" s="111"/>
       <c r="N10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="116">
+    <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="235">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="124"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="112" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O11" s="109"/>
+      <c r="O11" s="108"/>
     </row>
     <row r="12" spans="1:17" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="116">
+      <c r="A12" s="249"/>
+      <c r="B12" s="133">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="124"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="136" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="112"/>
+      <c r="M12" s="111"/>
       <c r="N12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="10">
+    <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="247" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="235">
         <v>8</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="124"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="112" t="s">
+      <c r="M13" s="111" t="s">
         <v>196</v>
       </c>
       <c r="N13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="161">
+    <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="233">
         <v>9</v>
       </c>
-      <c r="C14" s="153" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="188" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="155" t="s">
+      <c r="C14" s="140" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="144"/>
+      <c r="F14" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="142" t="s">
+      <c r="G14" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="142" t="s">
+      <c r="H14" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="132" t="s">
+      <c r="I14" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="165"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="60" t="s">
+      <c r="J14" s="185"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="111" t="s">
+      <c r="M14" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O14" s="109"/>
+      <c r="O14" s="108"/>
     </row>
     <row r="15" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="162"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="137" t="s">
+      <c r="A15" s="245"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="166"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="59" t="s">
+      <c r="J15" s="186"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="111" t="s">
+      <c r="M15" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="N15" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O15" s="109"/>
+      <c r="O15" s="108"/>
     </row>
-    <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="139" t="s">
+    <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="161">
+      <c r="B16" s="233">
         <v>10</v>
       </c>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="186" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="142" t="s">
+      <c r="D16" s="164" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="144"/>
+      <c r="F16" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="142" t="s">
+      <c r="G16" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="142" t="s">
+      <c r="H16" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="132" t="s">
+      <c r="I16" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="169"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="60" t="s">
+      <c r="J16" s="187"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="111" t="s">
+      <c r="M16" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O16" s="109"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" spans="1:16" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="162"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="19" t="s">
+      <c r="A17" s="249"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="170"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="59" t="s">
+      <c r="J17" s="188"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="111" t="s">
+      <c r="M17" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="44" t="s">
+      <c r="N17" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O17" s="109"/>
+      <c r="O17" s="108"/>
     </row>
-    <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="139" t="s">
+    <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="247" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="235">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="120"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="110"/>
+    </row>
+    <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="246" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="10">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="86" t="s">
+      <c r="B19" s="233">
+        <v>12</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" s="111"/>
-    </row>
-    <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="159">
-        <v>12</v>
-      </c>
-      <c r="C19" s="153" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="155" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="132" t="s">
+      <c r="I19" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="63" t="s">
+      <c r="L19" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="112" t="s">
+      <c r="M19" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O19" s="109"/>
+      <c r="O19" s="108"/>
       <c r="P19" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="160"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="25" t="s">
+      <c r="A20" s="246"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="59" t="s">
+      <c r="J20" s="26"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="111"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="159">
+      <c r="A21" s="249"/>
+      <c r="B21" s="138">
         <v>13</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="155" t="s">
+      <c r="D21" s="118"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="142" t="s">
+      <c r="G21" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="138" t="s">
+      <c r="J21" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="63" t="s">
+      <c r="L21" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="112" t="s">
+      <c r="M21" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O21" s="109"/>
+      <c r="O21" s="108"/>
     </row>
     <row r="22" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="177"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="41" t="s">
+      <c r="A22" s="249"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="112"/>
+      <c r="M22" s="111"/>
       <c r="P22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="160"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="29" t="s">
+      <c r="A23" s="249"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M23" s="112"/>
+      <c r="M23" s="111"/>
     </row>
     <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.25">
-      <c r="B24" s="159">
+      <c r="A24" s="249"/>
+      <c r="B24" s="138">
         <v>14</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="142" t="s">
+      <c r="D24" s="118"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="142" t="s">
+      <c r="G24" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="142" t="s">
+      <c r="H24" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="64" t="s">
+      <c r="L24" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="N24" s="44" t="s">
+      <c r="N24" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O24" s="109"/>
+      <c r="O24" s="108"/>
     </row>
     <row r="25" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="160"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="25" t="s">
+      <c r="A25" s="249"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="65" t="s">
+      <c r="L25" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="113"/>
+      <c r="M25" s="112"/>
     </row>
-    <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="139" t="s">
+    <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="119">
+      <c r="B26" s="235">
         <v>15</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="120" t="s">
-        <v>228</v>
+      <c r="C26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>225</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="88" t="s">
+      <c r="G26" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="88" t="s">
+      <c r="H26" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="54" t="s">
+      <c r="K26" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="N26" s="44" t="s">
+      <c r="N26" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O26" s="109"/>
+      <c r="O26" s="108"/>
     </row>
-    <row r="27" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="139" t="s">
+    <row r="27" spans="1:16" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="119">
+      <c r="B27" s="235">
         <v>16</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="120" t="s">
-        <v>228</v>
-      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="54" t="s">
+      <c r="K27" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="L27" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="M27" s="43" t="s">
+      <c r="M27" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O27" s="109"/>
+      <c r="O27" s="108"/>
     </row>
-    <row r="28" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="139" t="s">
+    <row r="28" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="119">
+      <c r="B28" s="235">
         <v>17</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="120" t="s">
-        <v>232</v>
+      <c r="C28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="116" t="s">
+        <v>229</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="88" t="s">
+      <c r="G28" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="67" t="s">
+      <c r="L28" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="43"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="178" t="s">
+      <c r="A29" s="249"/>
+      <c r="B29" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="114"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="113"/>
     </row>
     <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="161">
+      <c r="A30" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="138">
         <v>18</v>
       </c>
-      <c r="C30" s="153" t="s">
+      <c r="C30" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="182" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="171"/>
-      <c r="F30" s="155" t="s">
+      <c r="D30" s="135" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="146"/>
+      <c r="F30" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="145" t="s">
+      <c r="G30" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="145" t="s">
+      <c r="H30" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="147"/>
-      <c r="J30" s="33" t="s">
+      <c r="I30" s="189"/>
+      <c r="J30" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="M30" s="43"/>
+      <c r="M30" s="42"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="199"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="35" t="s">
+      <c r="A31" s="245"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="53" t="s">
+      <c r="K31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="M31" s="113"/>
+      <c r="M31" s="112"/>
       <c r="N31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="127">
+    <row r="32" spans="1:16" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="236">
         <v>19</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="126" t="s">
-        <v>235</v>
+      <c r="D32" s="122" t="s">
+        <v>232</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="127">
+    <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="236">
         <v>20</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="182" t="s">
-        <v>234</v>
+      <c r="D33" s="135" t="s">
+        <v>231</v>
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="2:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="127">
+    <row r="34" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="236">
         <v>21</v>
       </c>
-      <c r="C34" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="198"/>
+      <c r="C34" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="136"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="2:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="127">
+    <row r="35" spans="1:5" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="236">
         <v>22</v>
       </c>
-      <c r="C35" s="118" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="198"/>
+      <c r="C35" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="136"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="2:5" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="127">
+    <row r="36" spans="1:5" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="236">
         <v>23</v>
       </c>
-      <c r="C36" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="198"/>
+      <c r="C36" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="136"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="2:5" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="127">
-        <v>24</v>
-      </c>
-      <c r="C37" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="183"/>
+    <row r="37" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="123"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="137"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="128"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
+    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="124"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
     </row>
-    <row r="39" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="128"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
+    <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="124"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D30:D31"/>
+  <mergeCells count="80">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="C19:C20"/>
@@ -32024,11 +31654,59 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32038,1036 +31716,1099 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="75.140625" customWidth="1"/>
-    <col min="5" max="7" width="37.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" customWidth="1"/>
-    <col min="12" max="12" width="63.28515625" customWidth="1"/>
-    <col min="13" max="14" width="31.7109375" customWidth="1"/>
-    <col min="15" max="15" width="128.7109375" customWidth="1"/>
+    <col min="3" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="75.140625" customWidth="1"/>
+    <col min="6" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="12" max="12" width="39.7109375" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+    <col min="14" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="128.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="231" t="s">
+    <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="74"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="73"/>
     </row>
-    <row r="2" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:16" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="F2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="G2" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="I2" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="K2" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="L2" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="N2" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="109"/>
+      <c r="O2" s="108"/>
     </row>
-    <row r="3" spans="1:15" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129">
+    <row r="3" spans="1:16" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="247" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="237">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="N3" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="109"/>
+      <c r="O3" s="108"/>
     </row>
-    <row r="4" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="221">
+    <row r="4" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="238">
         <v>2</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="C4" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="204" t="s">
+      <c r="D4" s="160"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="204" t="s">
+      <c r="G4" s="206" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="204" t="s">
+      <c r="H4" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="201"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="40" t="s">
+      <c r="J4" s="202"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="M4" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="N4" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="109"/>
-      <c r="O4" t="s">
+      <c r="O4" s="108"/>
+      <c r="P4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="222"/>
-      <c r="B5" s="214"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="19" t="s">
+    <row r="5" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="245"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="203"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="76" t="s">
+      <c r="J5" s="203"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="221">
+    <row r="6" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="238">
         <v>3</v>
       </c>
-      <c r="B6" s="212" t="s">
+      <c r="C6" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="194" t="s">
+      <c r="D6" s="160" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="200"/>
+      <c r="F6" s="206" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="206" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="202"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="108"/>
+    </row>
+    <row r="7" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="245"/>
+      <c r="B7" s="239"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="203"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="108"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="238">
+        <v>4</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="198"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="206" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="206" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="202"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="245"/>
+      <c r="B9" s="239"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="203"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O9" s="108"/>
+    </row>
+    <row r="10" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="247" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="204" t="s">
+      <c r="B10" s="237">
+        <v>5</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="237">
+        <v>6</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" s="108"/>
+    </row>
+    <row r="12" spans="1:16" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="250"/>
+      <c r="B12" s="237">
+        <v>7</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="247" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="237">
+        <v>8</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="108"/>
+    </row>
+    <row r="14" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="250"/>
+      <c r="B14" s="134">
+        <v>9</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="250"/>
+      <c r="B15" s="134">
+        <v>10</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="204" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="204" t="s">
+      <c r="G15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="201"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="44" t="s">
+      <c r="I15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="251"/>
+      <c r="B16" s="238">
+        <v>11</v>
+      </c>
+      <c r="C16" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="191" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="146"/>
+      <c r="F16" s="210" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="210" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="210" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="204" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="202" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="251"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="217"/>
+    </row>
+    <row r="18" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="251"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="217"/>
+      <c r="P18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="251"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="217"/>
+    </row>
+    <row r="20" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="251"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="217"/>
+    </row>
+    <row r="21" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="251"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="203"/>
+    </row>
+    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="251"/>
+      <c r="B22" s="241">
+        <v>12</v>
+      </c>
+      <c r="C22" s="198" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="198"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="154" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="154" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="76"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="202" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="194" t="s">
         <v>156</v>
       </c>
-      <c r="N6" s="109"/>
+      <c r="O22" s="114"/>
     </row>
-    <row r="7" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="222"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="203"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="76" t="s">
+    <row r="23" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="251"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="217"/>
+      <c r="M23" t="s">
+        <v>211</v>
+      </c>
+      <c r="N23" s="194"/>
+      <c r="O23" s="114"/>
+    </row>
+    <row r="24" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="251"/>
+      <c r="B24" s="242"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="77"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="217"/>
+      <c r="M24" t="s">
+        <v>212</v>
+      </c>
+      <c r="N24" s="194"/>
+      <c r="O24" s="114"/>
+    </row>
+    <row r="25" spans="1:16" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="251"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="78"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="203"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="114"/>
+    </row>
+    <row r="26" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="250"/>
+      <c r="B26" s="237">
+        <v>13</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="80"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="M7" s="44" t="s">
+    </row>
+    <row r="27" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="247" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="237">
+        <v>14</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="72"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="109"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="89" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="221">
+    <row r="28" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="237">
+        <v>15</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="245" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="238">
+        <v>16</v>
+      </c>
+      <c r="C29" s="198" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="198"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="210" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="210" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="210" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="202" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="204" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="202" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="245"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="203"/>
+      <c r="K30" s="205"/>
+      <c r="L30" s="203"/>
+    </row>
+    <row r="31" spans="1:16" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="250"/>
+      <c r="B31" s="134">
+        <v>17</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="250"/>
+      <c r="B32" s="134">
+        <v>18</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="237">
+        <v>19</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" s="89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="247" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="237">
+        <v>20</v>
+      </c>
+      <c r="C34" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="212" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="204" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="204" t="s">
+      <c r="D34" s="72"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="204" t="s">
+      <c r="H34" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="201"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="40" t="s">
-        <v>100</v>
+      <c r="I34" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="89" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="203"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="44" t="s">
+    <row r="35" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="250"/>
+      <c r="B35" s="244">
+        <v>21</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="84"/>
+      <c r="M35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="109"/>
     </row>
-    <row r="10" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129">
-        <v>5</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="M10" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="129">
-        <v>6</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="N11" s="109"/>
-    </row>
-    <row r="12" spans="1:15" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72">
-        <v>7</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="129">
-        <v>8</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="M13" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" s="109"/>
-    </row>
-    <row r="14" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117">
-        <v>9</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="O14" s="90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72">
-        <v>10</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221">
-        <v>11</v>
-      </c>
-      <c r="B16" s="212" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="227" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="206" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="206" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="206" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="218" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="201" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="225"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="202"/>
-    </row>
-    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="225"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="202"/>
-      <c r="O18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="225"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="228"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="202"/>
-    </row>
-    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="225"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="202"/>
-    </row>
-    <row r="21" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="222"/>
-      <c r="B21" s="214"/>
-      <c r="C21" s="229"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="203"/>
-    </row>
-    <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209">
-        <v>12</v>
-      </c>
-      <c r="B22" s="212" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="142" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="201" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M22" s="230" t="s">
-        <v>156</v>
-      </c>
-      <c r="N22" s="115"/>
-    </row>
-    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="210"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="202"/>
-      <c r="L23" t="s">
-        <v>211</v>
-      </c>
-      <c r="M23" s="230"/>
-      <c r="N23" s="115"/>
-    </row>
-    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="210"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="202"/>
-      <c r="L24" t="s">
-        <v>212</v>
-      </c>
-      <c r="M24" s="230"/>
-      <c r="N24" s="115"/>
-    </row>
-    <row r="25" spans="1:15" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="211"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="220"/>
-      <c r="K25" s="203"/>
-      <c r="M25" s="230"/>
-      <c r="N25" s="115"/>
-    </row>
-    <row r="26" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="129">
-        <v>13</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="129">
-        <v>14</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="M27" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="129">
-        <v>15</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="O28" s="90" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="221">
-        <v>16</v>
-      </c>
-      <c r="B29" s="212" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="212"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="206" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="206" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="206" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="201" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="218" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="201" t="s">
-        <v>98</v>
-      </c>
-      <c r="O29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="222"/>
-      <c r="B30" s="214"/>
-      <c r="C30" s="214"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="203"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="203"/>
-    </row>
-    <row r="31" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117">
-        <v>17</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117">
-        <v>18</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="129">
-        <v>19</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="131" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="O33" s="90" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="129">
-        <v>20</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="O34" s="90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="130">
-        <v>21</v>
-      </c>
-      <c r="B35" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="85"/>
-      <c r="L35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O39" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="63">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
     <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33097,915 +32838,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="102"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="108"/>
+      <c r="L2" s="43" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94">
+      <c r="A3" s="93">
         <v>4</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="105" t="s">
         <v>160</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="99"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="44" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="43" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94">
+      <c r="A4" s="93">
         <v>5</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="105" t="s">
         <v>171</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="99"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="44" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="43" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94">
+      <c r="A5" s="93">
         <v>8</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="105" t="s">
         <v>162</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="112"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94">
+      <c r="A6" s="93">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="112"/>
+      <c r="K6" s="111"/>
       <c r="L6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94">
+      <c r="A7" s="93">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="112"/>
+      <c r="K7" s="111"/>
       <c r="L7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="234">
+      <c r="A8" s="228">
         <v>11</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="155" t="s">
+      <c r="C8" s="144"/>
+      <c r="D8" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="103" t="s">
+      <c r="H8" s="185"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="111"/>
+      <c r="K8" s="110"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="99" t="s">
+      <c r="A9" s="229"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="104" t="s">
+      <c r="H9" s="186"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="111"/>
+      <c r="K9" s="110"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="234">
+      <c r="A10" s="228">
         <v>12</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="142" t="s">
+      <c r="C10" s="144"/>
+      <c r="D10" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="103" t="s">
+      <c r="H10" s="187"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="111"/>
+      <c r="K10" s="110"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="235"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="19" t="s">
+      <c r="A11" s="229"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="104" t="s">
+      <c r="H11" s="188"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="111"/>
+      <c r="K11" s="110"/>
     </row>
     <row r="12" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94">
+      <c r="A12" s="93">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="111"/>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="234">
+      <c r="A13" s="228">
         <v>14</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="155" t="s">
+      <c r="C13" s="168"/>
+      <c r="D13" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="142" t="s">
+      <c r="E13" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="142" t="s">
+      <c r="F13" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="112"/>
+      <c r="K13" s="111"/>
       <c r="L13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="235"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="105" t="s">
+      <c r="A14" s="229"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="104" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="111"/>
+      <c r="K14" s="110"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="234">
+      <c r="A15" s="228">
         <v>15</v>
       </c>
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="155" t="s">
+      <c r="C15" s="168"/>
+      <c r="D15" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="112"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="41" t="s">
+      <c r="A16" s="232"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="J16" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="112"/>
+      <c r="K16" s="111"/>
       <c r="L16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="235"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="29" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="112"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="234">
+      <c r="A18" s="228">
         <v>16</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="142" t="s">
+      <c r="C18" s="168"/>
+      <c r="D18" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="142" t="s">
+      <c r="F18" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="113"/>
+      <c r="K18" s="112"/>
     </row>
     <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="235"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="105" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="113"/>
+      <c r="K19" s="112"/>
     </row>
     <row r="20" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="94">
+      <c r="A20" s="93">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="88" t="s">
+      <c r="F20" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="43"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="94">
+      <c r="A21" s="93">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="43"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94">
+      <c r="A22" s="93">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="86" t="s">
+      <c r="F22" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="43"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="114"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="113"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="234">
+      <c r="A24" s="228">
         <v>20</v>
       </c>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="155" t="s">
+      <c r="C24" s="146"/>
+      <c r="D24" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="145" t="s">
+      <c r="E24" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="145" t="s">
+      <c r="F24" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="147"/>
-      <c r="H24" s="33" t="s">
+      <c r="G24" s="189"/>
+      <c r="H24" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="43"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="235"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="35" t="s">
+      <c r="A25" s="229"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="113"/>
+      <c r="K25" s="112"/>
       <c r="L25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="234">
+      <c r="A26" s="228">
         <v>21</v>
       </c>
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="242"/>
-      <c r="D26" s="155" t="s">
+      <c r="C26" s="230"/>
+      <c r="D26" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="147"/>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="189"/>
+      <c r="H26" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="43"/>
+      <c r="K26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="235"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="30" t="s">
+      <c r="A27" s="229"/>
+      <c r="B27" s="225"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="43"/>
+      <c r="K27" s="42"/>
       <c r="L27" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="237">
+      <c r="A28" s="222">
         <v>22</v>
       </c>
-      <c r="B28" s="239" t="s">
+      <c r="B28" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="155" t="s">
+      <c r="C28" s="146"/>
+      <c r="D28" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="145" t="s">
+      <c r="E28" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="145" t="s">
+      <c r="F28" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="147"/>
-      <c r="H28" s="39" t="s">
+      <c r="G28" s="189"/>
+      <c r="H28" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="43"/>
+      <c r="K28" s="42"/>
       <c r="L28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="238"/>
-      <c r="B29" s="240"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="36" t="s">
+      <c r="A29" s="226"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="43"/>
+      <c r="K29" s="42"/>
       <c r="L29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="237">
+      <c r="A30" s="222">
         <v>23</v>
       </c>
-      <c r="B30" s="239" t="s">
+      <c r="B30" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="163"/>
-      <c r="D30" s="155" t="s">
+      <c r="C30" s="144"/>
+      <c r="D30" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="145" t="s">
+      <c r="E30" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="145" t="s">
+      <c r="F30" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="147"/>
-      <c r="H30" s="37" t="s">
+      <c r="G30" s="189"/>
+      <c r="H30" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="113"/>
+      <c r="K30" s="112"/>
       <c r="L30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="248"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="38" t="s">
+      <c r="A31" s="223"/>
+      <c r="B31" s="225"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="J31" s="71" t="s">
+      <c r="J31" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="43"/>
+      <c r="K31" s="42"/>
       <c r="L31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="237">
+      <c r="A32" s="222">
         <v>24</v>
       </c>
-      <c r="B32" s="239" t="s">
+      <c r="B32" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="155" t="s">
+      <c r="C32" s="168"/>
+      <c r="D32" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="145" t="s">
+      <c r="F32" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="96"/>
-      <c r="H32" s="37" t="s">
+      <c r="G32" s="95"/>
+      <c r="H32" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="K32" s="43"/>
+      <c r="K32" s="42"/>
       <c r="L32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="248"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="34" t="s">
+      <c r="A33" s="223"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="58" t="s">
+      <c r="I33" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K33" s="43"/>
+      <c r="K33" s="42"/>
       <c r="L33" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>23</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="101"/>
+      <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>24</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="244"/>
+      <c r="G35" s="218"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>25</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="244"/>
+      <c r="G36" s="218"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>26</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="105" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>27</v>
       </c>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="105" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>28</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="105" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>29</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="105" t="s">
         <v>169</v>
       </c>
       <c r="L40" t="s">
@@ -34013,58 +33754,58 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>30</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="105" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="245" t="s">
+      <c r="A42" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="246"/>
-      <c r="C42" s="246"/>
-      <c r="D42" s="246"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="246"/>
-      <c r="G42" s="246"/>
-      <c r="H42" s="246"/>
-      <c r="I42" s="246"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="92"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="91"/>
     </row>
     <row r="43" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>31</v>
       </c>
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="105" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>32</v>
       </c>
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="105" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>33</v>
       </c>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="105" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>34</v>
       </c>
-      <c r="B46" s="106" t="s">
+      <c r="B46" s="105" t="s">
         <v>178</v>
       </c>
     </row>
@@ -34075,6 +33816,62 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -34090,62 +33887,6 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37BE03-D8D7-48A6-B049-6920067A1052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67053EED-DC4A-447F-8687-913DE696C7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
@@ -1885,19 +1885,67 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,10 +1954,22 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1918,11 +1978,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1930,11 +1990,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1942,10 +2047,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,92 +2077,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2074,65 +2191,35 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2146,95 +2233,8 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30523,9 +30523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A20"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30543,19 +30543,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30601,31 +30601,31 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="233">
+      <c r="B3" s="162">
         <v>1</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="156" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="118"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="150" t="s">
+      <c r="E3" s="164"/>
+      <c r="F3" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="199" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="187" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="146"/>
-      <c r="K3" s="148"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39" t="s">
         <v>102</v>
       </c>
@@ -30640,19 +30640,19 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
-      <c r="B4" s="234"/>
-      <c r="C4" s="141"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="117"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="153"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="188"/>
       <c r="I4" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="149"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="169"/>
       <c r="L4" s="58" t="s">
         <v>100</v>
       </c>
@@ -30665,33 +30665,33 @@
       <c r="O4" s="108"/>
     </row>
     <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="233">
+      <c r="B5" s="162">
         <v>2</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="195" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="152" t="s">
+      <c r="E5" s="164"/>
+      <c r="F5" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="187" t="s">
         <v>194</v>
       </c>
       <c r="I5" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="146"/>
-      <c r="K5" s="148"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="168"/>
       <c r="L5" s="59" t="s">
         <v>100</v>
       </c>
@@ -30704,19 +30704,19 @@
       <c r="O5" s="108"/>
     </row>
     <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="245"/>
-      <c r="B6" s="234"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
       <c r="I6" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="149"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="169"/>
       <c r="L6" s="58" t="s">
         <v>97</v>
       </c>
@@ -30733,32 +30733,32 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="233">
+      <c r="B7" s="162">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="154" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="156" t="s">
+      <c r="I7" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="183" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="154" t="s">
         <v>188</v>
       </c>
       <c r="M7" s="110" t="s">
@@ -30774,18 +30774,18 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="184"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="155"/>
       <c r="M8" s="110" t="s">
         <v>190</v>
       </c>
@@ -30795,10 +30795,10 @@
       <c r="O8" s="108"/>
     </row>
     <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="247" t="s">
+      <c r="A9" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="235">
+      <c r="B9" s="135">
         <v>4</v>
       </c>
       <c r="C9" s="105" t="s">
@@ -30824,10 +30824,10 @@
       <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="235">
+      <c r="A10" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="135">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -30860,10 +30860,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="235">
+      <c r="A11" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="135">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -30891,7 +30891,7 @@
       <c r="O11" s="108"/>
     </row>
     <row r="12" spans="1:17" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="249"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="133">
         <v>7</v>
       </c>
@@ -30925,10 +30925,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="247" t="s">
+      <c r="A13" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="235">
+      <c r="B13" s="135">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -30965,33 +30965,33 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="245" t="s">
+      <c r="A14" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="233">
+      <c r="B14" s="162">
         <v>9</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="156" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="191" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="162" t="s">
+      <c r="E14" s="164"/>
+      <c r="F14" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="154" t="s">
+      <c r="G14" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="154" t="s">
+      <c r="H14" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I14" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="185"/>
-      <c r="K14" s="148"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="168"/>
       <c r="L14" s="59" t="s">
         <v>98</v>
       </c>
@@ -31004,19 +31004,19 @@
       <c r="O14" s="108"/>
     </row>
     <row r="15" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="186"/>
-      <c r="K15" s="149"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="58" t="s">
         <v>100</v>
       </c>
@@ -31029,32 +31029,32 @@
       <c r="O15" s="108"/>
     </row>
     <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="233">
+      <c r="A16" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="162">
         <v>10</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="156" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="154" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I16" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="187"/>
+      <c r="J16" s="170"/>
       <c r="K16" s="22"/>
       <c r="L16" s="59" t="s">
         <v>98</v>
@@ -31068,18 +31068,18 @@
       <c r="O16" s="108"/>
     </row>
     <row r="17" spans="1:16" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="249"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
       <c r="I17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="188"/>
+      <c r="J17" s="171"/>
       <c r="K17" s="46"/>
       <c r="L17" s="58" t="s">
         <v>102</v>
@@ -31093,10 +31093,10 @@
       <c r="O17" s="108"/>
     </row>
     <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="247" t="s">
+      <c r="A18" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="235">
+      <c r="B18" s="135">
         <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -31128,24 +31128,24 @@
       <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="246" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="233">
+      <c r="A19" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="162">
         <v>12</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="156" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="118"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="162" t="s">
+      <c r="E19" s="160"/>
+      <c r="F19" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="154" t="s">
+      <c r="G19" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="154" t="s">
+      <c r="H19" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I19" s="126" t="s">
@@ -31172,14 +31172,14 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
-      <c r="B20" s="234"/>
-      <c r="C20" s="141"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="117"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
       <c r="I20" s="24" t="s">
         <v>64</v>
       </c>
@@ -31191,22 +31191,22 @@
       <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="249"/>
-      <c r="B21" s="138">
+      <c r="A21" s="141"/>
+      <c r="B21" s="178">
         <v>13</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="175" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="118"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="162" t="s">
+      <c r="E21" s="160"/>
+      <c r="F21" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I21" s="126" t="s">
@@ -31230,14 +31230,14 @@
       <c r="O21" s="108"/>
     </row>
     <row r="22" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="249"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="172"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="176"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="40" t="s">
         <v>63</v>
       </c>
@@ -31256,14 +31256,14 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="173"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="177"/>
       <c r="D23" s="117"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
       <c r="I23" s="23"/>
       <c r="J23" s="28" t="s">
         <v>78</v>
@@ -31277,22 +31277,22 @@
       <c r="M23" s="111"/>
     </row>
     <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.25">
-      <c r="A24" s="249"/>
-      <c r="B24" s="138">
+      <c r="A24" s="141"/>
+      <c r="B24" s="178">
         <v>14</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="175" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="118"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="154" t="s">
+      <c r="E24" s="160"/>
+      <c r="F24" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="154" t="s">
+      <c r="G24" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="154" t="s">
+      <c r="H24" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I24" s="39" t="s">
@@ -31316,14 +31316,14 @@
       <c r="O24" s="108"/>
     </row>
     <row r="25" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="249"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="173"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="177"/>
       <c r="D25" s="117"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
       <c r="I25" s="24" t="s">
         <v>63</v>
       </c>
@@ -31339,10 +31339,10 @@
       <c r="M25" s="112"/>
     </row>
     <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="235">
+      <c r="A26" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="135">
         <v>15</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -31381,11 +31381,11 @@
       </c>
       <c r="O26" s="108"/>
     </row>
-    <row r="27" spans="1:16" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="235">
+    <row r="27" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="135">
         <v>16</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -31425,10 +31425,10 @@
       <c r="O27" s="108"/>
     </row>
     <row r="28" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="235">
+      <c r="A28" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="135">
         <v>17</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -31462,46 +31462,46 @@
       <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="249"/>
-      <c r="B29" s="174" t="s">
+      <c r="A29" s="141"/>
+      <c r="B29" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="183"/>
       <c r="M29" s="113"/>
     </row>
     <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="245" t="s">
+      <c r="A30" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="138">
+      <c r="B30" s="178">
         <v>18</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="135" t="s">
+      <c r="D30" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="146"/>
-      <c r="F30" s="162" t="s">
+      <c r="E30" s="172"/>
+      <c r="F30" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="178" t="s">
+      <c r="H30" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="189"/>
+      <c r="I30" s="150"/>
       <c r="J30" s="32" t="s">
         <v>81</v>
       </c>
@@ -31514,15 +31514,15 @@
       <c r="M30" s="42"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="245"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="151"/>
       <c r="J31" s="34" t="s">
         <v>82</v>
       </c>
@@ -31538,10 +31538,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="236">
+      <c r="A32" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="136">
         <v>19</v>
       </c>
       <c r="C32" s="115" t="s">
@@ -31556,63 +31556,63 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="236">
+      <c r="A33" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="136">
         <v>20</v>
       </c>
       <c r="C33" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="185" t="s">
         <v>231</v>
       </c>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="236">
+      <c r="A34" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="136">
         <v>21</v>
       </c>
       <c r="C34" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="136"/>
+      <c r="D34" s="201"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="236">
+      <c r="A35" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="136">
         <v>22</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="136"/>
+      <c r="D35" s="201"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="248" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="236">
+    <row r="36" spans="1:5" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="136">
         <v>23</v>
       </c>
       <c r="C36" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="136"/>
+      <c r="D36" s="201"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="123"/>
       <c r="C37" s="115"/>
-      <c r="D37" s="137"/>
+      <c r="D37" s="186"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
@@ -31627,17 +31627,59 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="C19:C20"/>
@@ -31654,59 +31696,17 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31718,7 +31718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
@@ -31737,18 +31737,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="197"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="236"/>
       <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31789,10 +31789,10 @@
       <c r="O2" s="108"/>
     </row>
     <row r="3" spans="1:16" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="237">
+      <c r="B3" s="137">
         <v>1</v>
       </c>
       <c r="C3" s="72" t="s">
@@ -31826,31 +31826,31 @@
       <c r="O3" s="108"/>
     </row>
     <row r="4" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="224">
         <v>2</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="206" t="s">
+      <c r="D4" s="197"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="206" t="s">
+      <c r="G4" s="207" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="206" t="s">
+      <c r="H4" s="207" t="s">
         <v>130</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="202"/>
-      <c r="K4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="221"/>
       <c r="L4" s="39" t="s">
         <v>98</v>
       </c>
@@ -31866,51 +31866,51 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="245"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="225"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
       <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="203"/>
-      <c r="K5" s="205"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="223"/>
       <c r="L5" s="75" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="238">
+      <c r="B6" s="224">
         <v>3</v>
       </c>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="197" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="200"/>
-      <c r="F6" s="206" t="s">
+      <c r="E6" s="226"/>
+      <c r="F6" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="206" t="s">
+      <c r="G6" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="206" t="s">
+      <c r="H6" s="207" t="s">
         <v>130</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="202"/>
-      <c r="K6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="221"/>
       <c r="L6" s="39" t="s">
         <v>100</v>
       </c>
@@ -31923,19 +31923,19 @@
       <c r="O6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
-      <c r="B7" s="239"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
       <c r="I7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="203"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="223"/>
       <c r="L7" s="75" t="s">
         <v>98</v>
       </c>
@@ -31948,49 +31948,49 @@
       <c r="O7" s="108"/>
     </row>
     <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="245" t="s">
+      <c r="A8" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="238">
+      <c r="B8" s="224">
         <v>4</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="206" t="s">
+      <c r="D8" s="215"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="206" t="s">
+      <c r="G8" s="207" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="206" t="s">
+      <c r="H8" s="207" t="s">
         <v>130</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="202"/>
-      <c r="K8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="221"/>
       <c r="L8" s="39" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
       <c r="I9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="203"/>
-      <c r="K9" s="205"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="223"/>
       <c r="L9" s="75" t="s">
         <v>98</v>
       </c>
@@ -32000,10 +32000,10 @@
       <c r="O9" s="108"/>
     </row>
     <row r="10" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="247" t="s">
+      <c r="A10" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="237">
+      <c r="B10" s="137">
         <v>5</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -32044,10 +32044,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="237">
+      <c r="B11" s="137">
         <v>6</v>
       </c>
       <c r="C11" s="72" t="s">
@@ -32078,8 +32078,8 @@
       <c r="O11" s="108"/>
     </row>
     <row r="12" spans="1:16" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="250"/>
-      <c r="B12" s="237">
+      <c r="A12" s="142"/>
+      <c r="B12" s="137">
         <v>7</v>
       </c>
       <c r="C12" s="72" t="s">
@@ -32110,10 +32110,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="247" t="s">
+      <c r="A13" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="237">
+      <c r="B13" s="137">
         <v>8</v>
       </c>
       <c r="C13" s="72" t="s">
@@ -32147,7 +32147,7 @@
       <c r="O13" s="108"/>
     </row>
     <row r="14" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="250"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="134">
         <v>9</v>
       </c>
@@ -32183,7 +32183,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="250"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="134">
         <v>10</v>
       </c>
@@ -32211,214 +32211,214 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="251"/>
-      <c r="B16" s="238">
+      <c r="A16" s="203"/>
+      <c r="B16" s="224">
         <v>11</v>
       </c>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="191" t="s">
+      <c r="D16" s="230" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="210" t="s">
+      <c r="E16" s="172"/>
+      <c r="F16" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="210" t="s">
+      <c r="G16" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="210" t="s">
+      <c r="H16" s="209" t="s">
         <v>130</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="17"/>
-      <c r="K16" s="204" t="s">
+      <c r="K16" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="202" t="s">
+      <c r="L16" s="204" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="251"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
       <c r="I17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="217"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="205"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="251"/>
-      <c r="B18" s="240"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
       <c r="I18" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="217"/>
+      <c r="K18" s="222"/>
+      <c r="L18" s="205"/>
       <c r="P18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
+      <c r="A19" s="203"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
       <c r="I19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="17"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="217"/>
+      <c r="K19" s="222"/>
+      <c r="L19" s="205"/>
     </row>
     <row r="20" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="251"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="217"/>
+      <c r="K20" s="222"/>
+      <c r="L20" s="205"/>
     </row>
     <row r="21" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="251"/>
-      <c r="B21" s="239"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
+      <c r="A21" s="203"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="203"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="206"/>
     </row>
     <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="251"/>
-      <c r="B22" s="241">
+      <c r="A22" s="203"/>
+      <c r="B22" s="212">
         <v>12</v>
       </c>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="198"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="154" t="s">
+      <c r="D22" s="215"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="154" t="s">
+      <c r="H22" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>34</v>
       </c>
       <c r="J22" s="76"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="202" t="s">
+      <c r="K22" s="221"/>
+      <c r="L22" s="204" t="s">
         <v>98</v>
       </c>
       <c r="M22" t="s">
         <v>210</v>
       </c>
-      <c r="N22" s="194" t="s">
+      <c r="N22" s="233" t="s">
         <v>156</v>
       </c>
       <c r="O22" s="114"/>
     </row>
     <row r="23" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
-      <c r="B23" s="242"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
       <c r="I23" s="17" t="s">
         <v>35</v>
       </c>
       <c r="J23" s="17"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="217"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="205"/>
       <c r="M23" t="s">
         <v>211</v>
       </c>
-      <c r="N23" s="194"/>
+      <c r="N23" s="233"/>
       <c r="O23" s="114"/>
     </row>
     <row r="24" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="251"/>
-      <c r="B24" s="242"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
+      <c r="A24" s="203"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
       <c r="I24" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J24" s="77"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="217"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="205"/>
       <c r="M24" t="s">
         <v>212</v>
       </c>
-      <c r="N24" s="194"/>
+      <c r="N24" s="233"/>
       <c r="O24" s="114"/>
     </row>
     <row r="25" spans="1:16" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="251"/>
-      <c r="B25" s="243"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="177"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J25" s="78"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="203"/>
-      <c r="N25" s="194"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="206"/>
+      <c r="N25" s="233"/>
       <c r="O25" s="114"/>
     </row>
     <row r="26" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="250"/>
-      <c r="B26" s="237">
+      <c r="A26" s="142"/>
+      <c r="B26" s="137">
         <v>13</v>
       </c>
       <c r="C26" s="72" t="s">
@@ -32445,10 +32445,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="247" t="s">
+      <c r="A27" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="237">
+      <c r="B27" s="137">
         <v>14</v>
       </c>
       <c r="C27" s="72" t="s">
@@ -32489,10 +32489,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="247" t="s">
+      <c r="A28" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="237">
+      <c r="B28" s="137">
         <v>15</v>
       </c>
       <c r="C28" s="72" t="s">
@@ -32529,36 +32529,36 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="245" t="s">
+      <c r="A29" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="238">
+      <c r="B29" s="224">
         <v>16</v>
       </c>
-      <c r="C29" s="198" t="s">
+      <c r="C29" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="198"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="210" t="s">
+      <c r="D29" s="215"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="210" t="s">
+      <c r="G29" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="210" t="s">
+      <c r="H29" s="209" t="s">
         <v>130</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="202" t="s">
+      <c r="J29" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="204" t="s">
+      <c r="K29" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="202" t="s">
+      <c r="L29" s="204" t="s">
         <v>98</v>
       </c>
       <c r="P29" t="s">
@@ -32566,23 +32566,23 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="245"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
       <c r="I30" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="203"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="203"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="206"/>
     </row>
     <row r="31" spans="1:16" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="250"/>
+      <c r="A31" s="142"/>
       <c r="B31" s="134">
         <v>17</v>
       </c>
@@ -32614,7 +32614,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="250"/>
+      <c r="A32" s="142"/>
       <c r="B32" s="134">
         <v>18</v>
       </c>
@@ -32646,10 +32646,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="247" t="s">
+      <c r="A33" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="237">
+      <c r="B33" s="137">
         <v>19</v>
       </c>
       <c r="C33" s="72" t="s">
@@ -32685,10 +32685,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="247" t="s">
+      <c r="A34" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="237">
+      <c r="B34" s="137">
         <v>20</v>
       </c>
       <c r="C34" s="72" t="s">
@@ -32722,8 +32722,8 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="250"/>
-      <c r="B35" s="244">
+      <c r="A35" s="142"/>
+      <c r="B35" s="138">
         <v>21</v>
       </c>
       <c r="C35" s="84" t="s">
@@ -32746,11 +32746,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="L16:L21"/>
     <mergeCell ref="L22:L25"/>
@@ -32767,48 +32804,11 @@
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32838,18 +32838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
       <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -33024,70 +33024,70 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="228">
+      <c r="A8" s="237">
         <v>11</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="162" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="148"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="102" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="110"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="229"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
+      <c r="A9" s="238"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
       <c r="G9" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="186"/>
-      <c r="I9" s="149"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="103" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="110"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="228">
+      <c r="A10" s="237">
         <v>12</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="154" t="s">
+      <c r="C10" s="164"/>
+      <c r="D10" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="187"/>
+      <c r="H10" s="170"/>
       <c r="I10" s="100"/>
       <c r="J10" s="102" t="s">
         <v>98</v>
@@ -33095,16 +33095,16 @@
       <c r="K10" s="110"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="229"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
+      <c r="A11" s="238"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
       <c r="G11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="188"/>
+      <c r="H11" s="171"/>
       <c r="I11" s="46"/>
       <c r="J11" s="103" t="s">
         <v>102</v>
@@ -33143,20 +33143,20 @@
       <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228">
+      <c r="A13" s="237">
         <v>14</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="162" t="s">
+      <c r="C13" s="160"/>
+      <c r="D13" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="154" t="s">
+      <c r="E13" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="154" t="s">
+      <c r="F13" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="39" t="s">
@@ -33177,12 +33177,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="229"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+      <c r="A14" s="238"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="104" t="s">
         <v>64</v>
       </c>
@@ -33194,20 +33194,20 @@
       <c r="K14" s="110"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="228">
+      <c r="A15" s="237">
         <v>15</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="162" t="s">
+      <c r="C15" s="160"/>
+      <c r="D15" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="154" t="s">
+      <c r="E15" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -33225,12 +33225,12 @@
       <c r="K15" s="111"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
+      <c r="A16" s="239"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="40" t="s">
         <v>63</v>
       </c>
@@ -33249,12 +33249,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="229"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
+      <c r="A17" s="238"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="23"/>
       <c r="H17" s="28" t="s">
         <v>78</v>
@@ -33268,20 +33268,20 @@
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="228">
+      <c r="A18" s="237">
         <v>16</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="154" t="s">
+      <c r="C18" s="160"/>
+      <c r="D18" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="154" t="s">
+      <c r="E18" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="154" t="s">
+      <c r="F18" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="39" t="s">
@@ -33299,12 +33299,12 @@
       <c r="K18" s="112"/>
     </row>
     <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="229"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
+      <c r="A19" s="238"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="104" t="s">
         <v>63</v>
       </c>
@@ -33413,38 +33413,38 @@
       <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="174" t="s">
+      <c r="A23" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="113"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="228">
+      <c r="A24" s="237">
         <v>20</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="162" t="s">
+      <c r="C24" s="172"/>
+      <c r="D24" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="178" t="s">
+      <c r="E24" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="178" t="s">
+      <c r="F24" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="189"/>
+      <c r="G24" s="150"/>
       <c r="H24" s="32" t="s">
         <v>81</v>
       </c>
@@ -33457,13 +33457,13 @@
       <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="229"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="190"/>
+      <c r="A25" s="238"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="151"/>
       <c r="H25" s="34" t="s">
         <v>82</v>
       </c>
@@ -33479,23 +33479,23 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="228">
+      <c r="A26" s="237">
         <v>21</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="162" t="s">
+      <c r="C26" s="245"/>
+      <c r="D26" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="178" t="s">
+      <c r="F26" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="189"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="25" t="s">
         <v>70</v>
       </c>
@@ -33508,13 +33508,13 @@
       <c r="K26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="229"/>
-      <c r="B27" s="225"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="190"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="29" t="s">
         <v>83</v>
       </c>
@@ -33530,23 +33530,23 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="222">
+      <c r="A28" s="240">
         <v>22</v>
       </c>
-      <c r="B28" s="224" t="s">
+      <c r="B28" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="162" t="s">
+      <c r="C28" s="172"/>
+      <c r="D28" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="178" t="s">
+      <c r="E28" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="178" t="s">
+      <c r="F28" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="189"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="38" t="s">
         <v>84</v>
       </c>
@@ -33562,13 +33562,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="226"/>
-      <c r="B29" s="227"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="190"/>
+      <c r="A29" s="241"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="35" t="s">
         <v>83</v>
       </c>
@@ -33584,23 +33584,23 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="222">
+      <c r="A30" s="240">
         <v>23</v>
       </c>
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="162" t="s">
+      <c r="C30" s="164"/>
+      <c r="D30" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="178" t="s">
+      <c r="E30" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="189"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="36" t="s">
         <v>85</v>
       </c>
@@ -33616,13 +33616,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="223"/>
-      <c r="B31" s="225"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="190"/>
+      <c r="A31" s="251"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="37" t="s">
         <v>70</v>
       </c>
@@ -33638,20 +33638,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="222">
+      <c r="A32" s="240">
         <v>24</v>
       </c>
-      <c r="B32" s="224" t="s">
+      <c r="B32" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="162" t="s">
+      <c r="C32" s="160"/>
+      <c r="D32" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="F32" s="148" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="95"/>
@@ -33670,12 +33670,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="223"/>
-      <c r="B33" s="225"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
+      <c r="A33" s="251"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
       <c r="G33" s="96"/>
       <c r="H33" s="33" t="s">
         <v>70</v>
@@ -33707,7 +33707,7 @@
       <c r="B35" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="218"/>
+      <c r="G35" s="247"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -33716,7 +33716,7 @@
       <c r="B36" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="218"/>
+      <c r="G36" s="247"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -33762,18 +33762,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="219" t="s">
+      <c r="A42" s="248" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="221"/>
+      <c r="B42" s="249"/>
+      <c r="C42" s="249"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="249"/>
+      <c r="J42" s="250"/>
       <c r="K42" s="92"/>
       <c r="L42" s="91"/>
     </row>
@@ -33816,62 +33816,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -33887,6 +33831,62 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -5,38 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\Granja\GV\FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37BE03-D8D7-48A6-B049-6920067A1052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE056E43-6212-4EAC-81C0-2EEDCC3B4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10728" yWindow="1728" windowWidth="11940" windowHeight="10308" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
     <sheet name="Huevo" sheetId="2" r:id="rId2"/>
     <sheet name="Cerdo Produccion" sheetId="3" r:id="rId3"/>
+    <sheet name="NOTAS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="246">
   <si>
     <t>No.</t>
   </si>
@@ -797,6 +789,15 @@
   </si>
   <si>
     <t>Alimento (Formulas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA CAPA </t>
+  </si>
+  <si>
+    <t>GV1-01-010120</t>
+  </si>
+  <si>
+    <t>AUN HAY 8</t>
   </si>
 </sst>
 </file>
@@ -1885,19 +1886,67 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,10 +1955,22 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1918,11 +1979,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1930,11 +1991,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1942,10 +2048,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,92 +2078,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2074,65 +2192,35 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2146,95 +2234,8 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30528,37 +30529,37 @@
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="85.140625" customWidth="1"/>
-    <col min="6" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" customWidth="1"/>
-    <col min="12" max="12" width="43.42578125" customWidth="1"/>
-    <col min="13" max="13" width="78.85546875" customWidth="1"/>
-    <col min="14" max="15" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="3" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="85.109375" customWidth="1"/>
+    <col min="6" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" customWidth="1"/>
+    <col min="12" max="12" width="43.44140625" customWidth="1"/>
+    <col min="13" max="13" width="78.88671875" customWidth="1"/>
+    <col min="14" max="15" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="181" t="s">
+    <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="101"/>
     </row>
-    <row r="2" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -30600,32 +30601,32 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+    <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="233">
+      <c r="B3" s="162">
         <v>1</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="156" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="118"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="150" t="s">
+      <c r="E3" s="164"/>
+      <c r="F3" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="199" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="187" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="146"/>
-      <c r="K3" s="148"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39" t="s">
         <v>102</v>
       </c>
@@ -30639,20 +30640,20 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="245"/>
-      <c r="B4" s="234"/>
-      <c r="C4" s="141"/>
+    <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="143"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="117"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="153"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="188"/>
       <c r="I4" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="149"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="169"/>
       <c r="L4" s="58" t="s">
         <v>100</v>
       </c>
@@ -30664,34 +30665,34 @@
       </c>
       <c r="O4" s="108"/>
     </row>
-    <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="245" t="s">
+    <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="233">
+      <c r="B5" s="162">
         <v>2</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="195" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="152" t="s">
+      <c r="E5" s="164"/>
+      <c r="F5" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="187" t="s">
         <v>194</v>
       </c>
       <c r="I5" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="146"/>
-      <c r="K5" s="148"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="168"/>
       <c r="L5" s="59" t="s">
         <v>100</v>
       </c>
@@ -30703,20 +30704,20 @@
       </c>
       <c r="O5" s="108"/>
     </row>
-    <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="245"/>
-      <c r="B6" s="234"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+    <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="143"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
       <c r="I6" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="149"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="169"/>
       <c r="L6" s="58" t="s">
         <v>97</v>
       </c>
@@ -30732,33 +30733,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="245" t="s">
+    <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="233">
+      <c r="B7" s="162">
         <v>3</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="154" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="156" t="s">
+      <c r="I7" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="183" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="154" t="s">
         <v>188</v>
       </c>
       <c r="M7" s="110" t="s">
@@ -30773,19 +30774,19 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="245"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="184"/>
+    <row r="8" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="143"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="155"/>
       <c r="M8" s="110" t="s">
         <v>190</v>
       </c>
@@ -30794,11 +30795,11 @@
       </c>
       <c r="O8" s="108"/>
     </row>
-    <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="247" t="s">
+    <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="235">
+      <c r="B9" s="135">
         <v>4</v>
       </c>
       <c r="C9" s="105" t="s">
@@ -30823,11 +30824,11 @@
       </c>
       <c r="M9" s="110"/>
     </row>
-    <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="248" t="s">
+    <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="235">
+      <c r="B10" s="135">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -30859,11 +30860,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="248" t="s">
+    <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="235">
+      <c r="B11" s="135">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -30890,8 +30891,8 @@
       </c>
       <c r="O11" s="108"/>
     </row>
-    <row r="12" spans="1:17" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="249"/>
+    <row r="12" spans="1:17" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="141"/>
       <c r="B12" s="133">
         <v>7</v>
       </c>
@@ -30924,11 +30925,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="247" t="s">
+    <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="235">
+      <c r="B13" s="135">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -30964,34 +30965,34 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="245" t="s">
+    <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="233">
+      <c r="B14" s="162">
         <v>9</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="156" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="191" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="162" t="s">
+      <c r="E14" s="164"/>
+      <c r="F14" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="154" t="s">
+      <c r="G14" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="154" t="s">
+      <c r="H14" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I14" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="185"/>
-      <c r="K14" s="148"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="168"/>
       <c r="L14" s="59" t="s">
         <v>98</v>
       </c>
@@ -31003,20 +31004,20 @@
       </c>
       <c r="O14" s="108"/>
     </row>
-    <row r="15" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="245"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+    <row r="15" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="143"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="186"/>
-      <c r="K15" s="149"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="58" t="s">
         <v>100</v>
       </c>
@@ -31028,33 +31029,33 @@
       </c>
       <c r="O15" s="108"/>
     </row>
-    <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="248" t="s">
+    <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="233">
+      <c r="B16" s="162">
         <v>10</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="156" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="154" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I16" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="187"/>
+      <c r="J16" s="170"/>
       <c r="K16" s="22"/>
       <c r="L16" s="59" t="s">
         <v>98</v>
@@ -31067,19 +31068,19 @@
       </c>
       <c r="O16" s="108"/>
     </row>
-    <row r="17" spans="1:16" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="249"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
+    <row r="17" spans="1:16" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="141"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
       <c r="I17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="188"/>
+      <c r="J17" s="171"/>
       <c r="K17" s="46"/>
       <c r="L17" s="58" t="s">
         <v>102</v>
@@ -31092,11 +31093,11 @@
       </c>
       <c r="O17" s="108"/>
     </row>
-    <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="247" t="s">
+    <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="235">
+      <c r="B18" s="135">
         <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -31127,25 +31128,25 @@
       </c>
       <c r="M18" s="110"/>
     </row>
-    <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="246" t="s">
+    <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="233">
+      <c r="B19" s="162">
         <v>12</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="156" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="118"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="162" t="s">
+      <c r="E19" s="160"/>
+      <c r="F19" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="154" t="s">
+      <c r="G19" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="154" t="s">
+      <c r="H19" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I19" s="126" t="s">
@@ -31171,15 +31172,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
-      <c r="B20" s="234"/>
-      <c r="C20" s="141"/>
+    <row r="20" spans="1:16" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="144"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="117"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
       <c r="I20" s="24" t="s">
         <v>64</v>
       </c>
@@ -31190,23 +31191,23 @@
       </c>
       <c r="M20" s="110"/>
     </row>
-    <row r="21" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="249"/>
-      <c r="B21" s="138">
+    <row r="21" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="141"/>
+      <c r="B21" s="178">
         <v>13</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="175" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="118"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="162" t="s">
+      <c r="E21" s="160"/>
+      <c r="F21" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I21" s="126" t="s">
@@ -31229,15 +31230,15 @@
       </c>
       <c r="O21" s="108"/>
     </row>
-    <row r="22" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="249"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="172"/>
+    <row r="22" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="141"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="176"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="40" t="s">
         <v>63</v>
       </c>
@@ -31255,15 +31256,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="173"/>
+    <row r="23" spans="1:16" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="141"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="177"/>
       <c r="D23" s="117"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
       <c r="I23" s="23"/>
       <c r="J23" s="28" t="s">
         <v>78</v>
@@ -31276,23 +31277,23 @@
       </c>
       <c r="M23" s="111"/>
     </row>
-    <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.25">
-      <c r="A24" s="249"/>
-      <c r="B24" s="138">
+    <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.3">
+      <c r="A24" s="141"/>
+      <c r="B24" s="178">
         <v>14</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="175" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="118"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="154" t="s">
+      <c r="E24" s="160"/>
+      <c r="F24" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="154" t="s">
+      <c r="G24" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="154" t="s">
+      <c r="H24" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I24" s="39" t="s">
@@ -31315,15 +31316,15 @@
       </c>
       <c r="O24" s="108"/>
     </row>
-    <row r="25" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="249"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="173"/>
+    <row r="25" spans="1:16" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="177"/>
       <c r="D25" s="117"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
       <c r="I25" s="24" t="s">
         <v>63</v>
       </c>
@@ -31338,11 +31339,11 @@
       </c>
       <c r="M25" s="112"/>
     </row>
-    <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="248" t="s">
+    <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="235">
+      <c r="B26" s="135">
         <v>15</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -31381,11 +31382,11 @@
       </c>
       <c r="O26" s="108"/>
     </row>
-    <row r="27" spans="1:16" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="248" t="s">
+    <row r="27" spans="1:16" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="235">
+      <c r="B27" s="135">
         <v>16</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -31424,11 +31425,11 @@
       </c>
       <c r="O27" s="108"/>
     </row>
-    <row r="28" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="248" t="s">
+    <row r="28" spans="1:16" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="235">
+      <c r="B28" s="135">
         <v>17</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -31461,47 +31462,47 @@
       </c>
       <c r="M28" s="42"/>
     </row>
-    <row r="29" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="249"/>
-      <c r="B29" s="174" t="s">
+    <row r="29" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="141"/>
+      <c r="B29" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="183"/>
       <c r="M29" s="113"/>
     </row>
-    <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="245" t="s">
+    <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="138">
+      <c r="B30" s="178">
         <v>18</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="135" t="s">
+      <c r="D30" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="146"/>
-      <c r="F30" s="162" t="s">
+      <c r="E30" s="172"/>
+      <c r="F30" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="178" t="s">
+      <c r="H30" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="189"/>
+      <c r="I30" s="150"/>
       <c r="J30" s="32" t="s">
         <v>81</v>
       </c>
@@ -31513,16 +31514,16 @@
       </c>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="245"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="190"/>
+    <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="143"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="151"/>
       <c r="J31" s="34" t="s">
         <v>82</v>
       </c>
@@ -31537,11 +31538,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="248" t="s">
+    <row r="32" spans="1:16" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B32" s="236">
+      <c r="B32" s="136">
         <v>19</v>
       </c>
       <c r="C32" s="115" t="s">
@@ -31555,89 +31556,131 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="248" t="s">
+    <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="236">
+      <c r="B33" s="136">
         <v>20</v>
       </c>
       <c r="C33" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="185" t="s">
         <v>231</v>
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="248" t="s">
+    <row r="34" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="236">
+      <c r="B34" s="136">
         <v>21</v>
       </c>
       <c r="C34" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="136"/>
+      <c r="D34" s="201"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="248" t="s">
+    <row r="35" spans="1:5" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="236">
+      <c r="B35" s="136">
         <v>22</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="136"/>
+      <c r="D35" s="201"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="248" t="s">
+    <row r="36" spans="1:5" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="236">
+      <c r="B36" s="136">
         <v>23</v>
       </c>
       <c r="C36" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="136"/>
+      <c r="D36" s="201"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="123"/>
       <c r="C37" s="115"/>
-      <c r="D37" s="137"/>
+      <c r="D37" s="186"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B38" s="124"/>
       <c r="C38" s="121"/>
       <c r="D38" s="121"/>
     </row>
-    <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B39" s="124"/>
       <c r="C39" s="121"/>
       <c r="D39" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="C19:C20"/>
@@ -31654,59 +31697,17 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31718,40 +31719,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="75.140625" customWidth="1"/>
-    <col min="6" max="8" width="37.7109375" customWidth="1"/>
+    <col min="3" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" customWidth="1"/>
+    <col min="6" max="8" width="37.6640625" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1"/>
-    <col min="12" max="12" width="39.7109375" customWidth="1"/>
-    <col min="13" max="13" width="63.28515625" customWidth="1"/>
-    <col min="14" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="128.7109375" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="39.6640625" customWidth="1"/>
+    <col min="13" max="13" width="63.33203125" customWidth="1"/>
+    <col min="14" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="128.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="195" t="s">
+    <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="197"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="236"/>
       <c r="L1" s="73"/>
     </row>
-    <row r="2" spans="1:16" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
@@ -31788,11 +31789,11 @@
       </c>
       <c r="O2" s="108"/>
     </row>
-    <row r="3" spans="1:16" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="247" t="s">
+    <row r="3" spans="1:16" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="237">
+      <c r="B3" s="137">
         <v>1</v>
       </c>
       <c r="C3" s="72" t="s">
@@ -31825,32 +31826,32 @@
       </c>
       <c r="O3" s="108"/>
     </row>
-    <row r="4" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="245" t="s">
+    <row r="4" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="224">
         <v>2</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="206" t="s">
+      <c r="D4" s="197"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="206" t="s">
+      <c r="G4" s="207" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="206" t="s">
+      <c r="H4" s="207" t="s">
         <v>130</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="202"/>
-      <c r="K4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="221"/>
       <c r="L4" s="39" t="s">
         <v>98</v>
       </c>
@@ -31865,52 +31866,52 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="245"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
+    <row r="5" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="143"/>
+      <c r="B5" s="225"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
       <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="203"/>
-      <c r="K5" s="205"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="223"/>
       <c r="L5" s="75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="245" t="s">
+    <row r="6" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="238">
+      <c r="B6" s="224">
         <v>3</v>
       </c>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="197" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="200"/>
-      <c r="F6" s="206" t="s">
+      <c r="E6" s="226"/>
+      <c r="F6" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="206" t="s">
+      <c r="G6" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="206" t="s">
+      <c r="H6" s="207" t="s">
         <v>130</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="202"/>
-      <c r="K6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="221"/>
       <c r="L6" s="39" t="s">
         <v>100</v>
       </c>
@@ -31922,20 +31923,20 @@
       </c>
       <c r="O6" s="108"/>
     </row>
-    <row r="7" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="245"/>
-      <c r="B7" s="239"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207"/>
+    <row r="7" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="143"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
       <c r="I7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="203"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="223"/>
       <c r="L7" s="75" t="s">
         <v>98</v>
       </c>
@@ -31947,50 +31948,50 @@
       </c>
       <c r="O7" s="108"/>
     </row>
-    <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="245" t="s">
+    <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="238">
+      <c r="B8" s="224">
         <v>4</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="206" t="s">
+      <c r="D8" s="215"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="206" t="s">
+      <c r="G8" s="207" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="206" t="s">
+      <c r="H8" s="207" t="s">
         <v>130</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="202"/>
-      <c r="K8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="221"/>
       <c r="L8" s="39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
+    <row r="9" spans="1:16" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="143"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
       <c r="I9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="203"/>
-      <c r="K9" s="205"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="223"/>
       <c r="L9" s="75" t="s">
         <v>98</v>
       </c>
@@ -31999,11 +32000,11 @@
       </c>
       <c r="O9" s="108"/>
     </row>
-    <row r="10" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="247" t="s">
+    <row r="10" spans="1:16" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="237">
+      <c r="B10" s="137">
         <v>5</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -32043,11 +32044,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="247" t="s">
+    <row r="11" spans="1:16" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="237">
+      <c r="B11" s="137">
         <v>6</v>
       </c>
       <c r="C11" s="72" t="s">
@@ -32077,9 +32078,9 @@
       </c>
       <c r="O11" s="108"/>
     </row>
-    <row r="12" spans="1:16" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="250"/>
-      <c r="B12" s="237">
+    <row r="12" spans="1:16" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="142"/>
+      <c r="B12" s="137">
         <v>7</v>
       </c>
       <c r="C12" s="72" t="s">
@@ -32109,11 +32110,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="247" t="s">
+    <row r="13" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="237">
+      <c r="B13" s="137">
         <v>8</v>
       </c>
       <c r="C13" s="72" t="s">
@@ -32146,8 +32147,8 @@
       </c>
       <c r="O13" s="108"/>
     </row>
-    <row r="14" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="250"/>
+    <row r="14" spans="1:16" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="142"/>
       <c r="B14" s="134">
         <v>9</v>
       </c>
@@ -32182,8 +32183,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="250"/>
+    <row r="15" spans="1:16" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="142"/>
       <c r="B15" s="134">
         <v>10</v>
       </c>
@@ -32210,215 +32211,215 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="251"/>
-      <c r="B16" s="238">
+    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="203"/>
+      <c r="B16" s="224">
         <v>11</v>
       </c>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="191" t="s">
+      <c r="D16" s="230" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="210" t="s">
+      <c r="E16" s="172"/>
+      <c r="F16" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="210" t="s">
+      <c r="G16" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="210" t="s">
+      <c r="H16" s="209" t="s">
         <v>130</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="17"/>
-      <c r="K16" s="204" t="s">
+      <c r="K16" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="202" t="s">
+      <c r="L16" s="204" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="251"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
+    <row r="17" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="203"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
       <c r="I17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="217"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="205"/>
     </row>
-    <row r="18" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="251"/>
-      <c r="B18" s="240"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
+    <row r="18" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="203"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
       <c r="I18" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="217"/>
+      <c r="K18" s="222"/>
+      <c r="L18" s="205"/>
       <c r="P18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
+    <row r="19" spans="1:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19" s="203"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
       <c r="I19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="17"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="217"/>
+      <c r="K19" s="222"/>
+      <c r="L19" s="205"/>
     </row>
-    <row r="20" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="251"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
+    <row r="20" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="203"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="217"/>
+      <c r="K20" s="222"/>
+      <c r="L20" s="205"/>
     </row>
-    <row r="21" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="251"/>
-      <c r="B21" s="239"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
+    <row r="21" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="203"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="203"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="206"/>
     </row>
-    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="251"/>
-      <c r="B22" s="241">
+    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="203"/>
+      <c r="B22" s="212">
         <v>12</v>
       </c>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="198"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="154" t="s">
+      <c r="D22" s="215"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="154" t="s">
+      <c r="H22" s="145" t="s">
         <v>130</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>34</v>
       </c>
       <c r="J22" s="76"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="202" t="s">
+      <c r="K22" s="221"/>
+      <c r="L22" s="204" t="s">
         <v>98</v>
       </c>
       <c r="M22" t="s">
         <v>210</v>
       </c>
-      <c r="N22" s="194" t="s">
+      <c r="N22" s="233" t="s">
         <v>156</v>
       </c>
       <c r="O22" s="114"/>
     </row>
-    <row r="23" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
-      <c r="B23" s="242"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
+    <row r="23" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="203"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
       <c r="I23" s="17" t="s">
         <v>35</v>
       </c>
       <c r="J23" s="17"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="217"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="205"/>
       <c r="M23" t="s">
         <v>211</v>
       </c>
-      <c r="N23" s="194"/>
+      <c r="N23" s="233"/>
       <c r="O23" s="114"/>
     </row>
-    <row r="24" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="251"/>
-      <c r="B24" s="242"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
+    <row r="24" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="203"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
       <c r="I24" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J24" s="77"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="217"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="205"/>
       <c r="M24" t="s">
         <v>212</v>
       </c>
-      <c r="N24" s="194"/>
+      <c r="N24" s="233"/>
       <c r="O24" s="114"/>
     </row>
-    <row r="25" spans="1:16" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="251"/>
-      <c r="B25" s="243"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="177"/>
+    <row r="25" spans="1:16" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="203"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J25" s="78"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="203"/>
-      <c r="N25" s="194"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="206"/>
+      <c r="N25" s="233"/>
       <c r="O25" s="114"/>
     </row>
-    <row r="26" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="250"/>
-      <c r="B26" s="237">
+    <row r="26" spans="1:16" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="142"/>
+      <c r="B26" s="137">
         <v>13</v>
       </c>
       <c r="C26" s="72" t="s">
@@ -32444,11 +32445,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="247" t="s">
+    <row r="27" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="237">
+      <c r="B27" s="137">
         <v>14</v>
       </c>
       <c r="C27" s="72" t="s">
@@ -32488,11 +32489,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="247" t="s">
+    <row r="28" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="237">
+      <c r="B28" s="137">
         <v>15</v>
       </c>
       <c r="C28" s="72" t="s">
@@ -32528,61 +32529,61 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="245" t="s">
+    <row r="29" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="238">
+      <c r="B29" s="224">
         <v>16</v>
       </c>
-      <c r="C29" s="198" t="s">
+      <c r="C29" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="198"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="210" t="s">
+      <c r="D29" s="215"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="210" t="s">
+      <c r="G29" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="210" t="s">
+      <c r="H29" s="209" t="s">
         <v>130</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="202" t="s">
+      <c r="J29" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="204" t="s">
+      <c r="K29" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="202" t="s">
+      <c r="L29" s="204" t="s">
         <v>98</v>
       </c>
       <c r="P29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="245"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
+    <row r="30" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="143"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
       <c r="I30" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="203"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="203"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="206"/>
     </row>
-    <row r="31" spans="1:16" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="250"/>
+    <row r="31" spans="1:16" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="142"/>
       <c r="B31" s="134">
         <v>17</v>
       </c>
@@ -32613,8 +32614,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="250"/>
+    <row r="32" spans="1:16" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="142"/>
       <c r="B32" s="134">
         <v>18</v>
       </c>
@@ -32645,11 +32646,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="247" t="s">
+    <row r="33" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="237">
+      <c r="B33" s="137">
         <v>19</v>
       </c>
       <c r="C33" s="72" t="s">
@@ -32684,11 +32685,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="247" t="s">
+    <row r="34" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="237">
+      <c r="B34" s="137">
         <v>20</v>
       </c>
       <c r="C34" s="72" t="s">
@@ -32721,9 +32722,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="250"/>
-      <c r="B35" s="244">
+    <row r="35" spans="1:16" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="142"/>
+      <c r="B35" s="138">
         <v>21</v>
       </c>
       <c r="C35" s="84" t="s">
@@ -32734,23 +32735,60 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="L16:L21"/>
     <mergeCell ref="L22:L25"/>
@@ -32767,48 +32805,11 @@
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32824,35 +32825,35 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" customWidth="1"/>
-    <col min="12" max="12" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
+    <col min="4" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" customWidth="1"/>
+    <col min="12" max="12" width="48.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
       <c r="K1" s="101"/>
     </row>
-    <row r="2" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
@@ -32888,7 +32889,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="93">
         <v>4</v>
       </c>
@@ -32914,7 +32915,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="93">
         <v>5</v>
       </c>
@@ -32934,7 +32935,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="93">
         <v>8</v>
       </c>
@@ -32957,7 +32958,7 @@
       <c r="J5" s="60"/>
       <c r="K5" s="111"/>
     </row>
-    <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="93">
         <v>9</v>
       </c>
@@ -32989,7 +32990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="93">
         <v>10</v>
       </c>
@@ -33023,95 +33024,95 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="228">
+    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="237">
         <v>11</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="162" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="154" t="s">
+      <c r="F8" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="148"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="102" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="110"/>
     </row>
-    <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="229"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
+    <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="238"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
       <c r="G9" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="186"/>
-      <c r="I9" s="149"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="103" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="110"/>
     </row>
-    <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="228">
+    <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="237">
         <v>12</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="154" t="s">
+      <c r="C10" s="164"/>
+      <c r="D10" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="187"/>
+      <c r="H10" s="170"/>
       <c r="I10" s="100"/>
       <c r="J10" s="102" t="s">
         <v>98</v>
       </c>
       <c r="K10" s="110"/>
     </row>
-    <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="229"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
+    <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="238"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
       <c r="G11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="188"/>
+      <c r="H11" s="171"/>
       <c r="I11" s="46"/>
       <c r="J11" s="103" t="s">
         <v>102</v>
       </c>
       <c r="K11" s="110"/>
     </row>
-    <row r="12" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="93">
         <v>13</v>
       </c>
@@ -33142,21 +33143,21 @@
       </c>
       <c r="K12" s="110"/>
     </row>
-    <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228">
+    <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="237">
         <v>14</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="162" t="s">
+      <c r="C13" s="160"/>
+      <c r="D13" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="154" t="s">
+      <c r="E13" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="154" t="s">
+      <c r="F13" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="39" t="s">
@@ -33176,13 +33177,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="229"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+    <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="238"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="104" t="s">
         <v>64</v>
       </c>
@@ -33193,21 +33194,21 @@
       </c>
       <c r="K14" s="110"/>
     </row>
-    <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="228">
+    <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="237">
         <v>15</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="162" t="s">
+      <c r="C15" s="160"/>
+      <c r="D15" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="154" t="s">
+      <c r="E15" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -33224,13 +33225,13 @@
       </c>
       <c r="K15" s="111"/>
     </row>
-    <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
+    <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="239"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="40" t="s">
         <v>63</v>
       </c>
@@ -33248,13 +33249,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="229"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
+    <row r="17" spans="1:12" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="238"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="23"/>
       <c r="H17" s="28" t="s">
         <v>78</v>
@@ -33267,21 +33268,21 @@
       </c>
       <c r="K17" s="111"/>
     </row>
-    <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A18" s="228">
+    <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.3">
+      <c r="A18" s="237">
         <v>16</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="154" t="s">
+      <c r="C18" s="160"/>
+      <c r="D18" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="154" t="s">
+      <c r="E18" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="154" t="s">
+      <c r="F18" s="145" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="39" t="s">
@@ -33298,13 +33299,13 @@
       </c>
       <c r="K18" s="112"/>
     </row>
-    <row r="19" spans="1:12" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="229"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
+    <row r="19" spans="1:12" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="238"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="104" t="s">
         <v>63</v>
       </c>
@@ -33319,7 +33320,7 @@
       </c>
       <c r="K19" s="112"/>
     </row>
-    <row r="20" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="93">
         <v>17</v>
       </c>
@@ -33350,7 +33351,7 @@
       </c>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="93">
         <v>18</v>
       </c>
@@ -33381,7 +33382,7 @@
       </c>
       <c r="K21" s="42"/>
     </row>
-    <row r="22" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="93">
         <v>19</v>
       </c>
@@ -33412,39 +33413,39 @@
       </c>
       <c r="K22" s="42"/>
     </row>
-    <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="174" t="s">
+    <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="113"/>
     </row>
-    <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="228">
+    <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="237">
         <v>20</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="162" t="s">
+      <c r="C24" s="172"/>
+      <c r="D24" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="178" t="s">
+      <c r="E24" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="178" t="s">
+      <c r="F24" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="189"/>
+      <c r="G24" s="150"/>
       <c r="H24" s="32" t="s">
         <v>81</v>
       </c>
@@ -33456,14 +33457,14 @@
       </c>
       <c r="K24" s="42"/>
     </row>
-    <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="229"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="190"/>
+    <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="238"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="151"/>
       <c r="H25" s="34" t="s">
         <v>82</v>
       </c>
@@ -33478,24 +33479,24 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="228">
+    <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="237">
         <v>21</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="162" t="s">
+      <c r="C26" s="245"/>
+      <c r="D26" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="178" t="s">
+      <c r="F26" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="189"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="25" t="s">
         <v>70</v>
       </c>
@@ -33507,14 +33508,14 @@
       </c>
       <c r="K26" s="42"/>
     </row>
-    <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="229"/>
-      <c r="B27" s="225"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="190"/>
+    <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="238"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="29" t="s">
         <v>83</v>
       </c>
@@ -33529,24 +33530,24 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="222">
+    <row r="28" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="240">
         <v>22</v>
       </c>
-      <c r="B28" s="224" t="s">
+      <c r="B28" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="162" t="s">
+      <c r="C28" s="172"/>
+      <c r="D28" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="178" t="s">
+      <c r="E28" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="178" t="s">
+      <c r="F28" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="189"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="38" t="s">
         <v>84</v>
       </c>
@@ -33561,14 +33562,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="226"/>
-      <c r="B29" s="227"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="190"/>
+    <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="241"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="35" t="s">
         <v>83</v>
       </c>
@@ -33583,24 +33584,24 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A30" s="222">
+    <row r="30" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="240">
         <v>23</v>
       </c>
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="162" t="s">
+      <c r="C30" s="164"/>
+      <c r="D30" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="178" t="s">
+      <c r="E30" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="178" t="s">
+      <c r="F30" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="189"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="36" t="s">
         <v>85</v>
       </c>
@@ -33615,14 +33616,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="223"/>
-      <c r="B31" s="225"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="190"/>
+    <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="251"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="37" t="s">
         <v>70</v>
       </c>
@@ -33637,21 +33638,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A32" s="222">
+    <row r="32" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="240">
         <v>24</v>
       </c>
-      <c r="B32" s="224" t="s">
+      <c r="B32" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="162" t="s">
+      <c r="C32" s="160"/>
+      <c r="D32" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="F32" s="148" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="95"/>
@@ -33669,13 +33670,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="223"/>
-      <c r="B33" s="225"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
+    <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="251"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
       <c r="G33" s="96"/>
       <c r="H33" s="33" t="s">
         <v>70</v>
@@ -33691,7 +33692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>23</v>
       </c>
@@ -33700,25 +33701,25 @@
       </c>
       <c r="G34" s="100"/>
     </row>
-    <row r="35" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>24</v>
       </c>
       <c r="B35" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="218"/>
+      <c r="G35" s="247"/>
     </row>
-    <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>25</v>
       </c>
       <c r="B36" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="218"/>
+      <c r="G36" s="247"/>
     </row>
-    <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>26</v>
       </c>
@@ -33726,7 +33727,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>27</v>
       </c>
@@ -33734,7 +33735,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>28</v>
       </c>
@@ -33742,7 +33743,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>29</v>
       </c>
@@ -33753,7 +33754,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>30</v>
       </c>
@@ -33761,23 +33762,23 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="219" t="s">
+    <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="248" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="221"/>
+      <c r="B42" s="249"/>
+      <c r="C42" s="249"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="249"/>
+      <c r="J42" s="250"/>
       <c r="K42" s="92"/>
       <c r="L42" s="91"/>
     </row>
-    <row r="43" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>31</v>
       </c>
@@ -33785,7 +33786,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>32</v>
       </c>
@@ -33793,7 +33794,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>33</v>
       </c>
@@ -33801,7 +33802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>34</v>
       </c>
@@ -33809,69 +33810,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -33887,9 +33832,91 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036B65D6-F953-4795-9B18-53E82AA75E61}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GV/FINAL/ListaKPIS Buena.xlsx
+++ b/GV/FINAL/ListaKPIS Buena.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE056E43-6212-4EAC-81C0-2EEDCC3B4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D27AA8-9F39-4460-82FF-5C77A411FF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10728" yWindow="1728" windowWidth="11940" windowHeight="10308" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11448" yWindow="1776" windowWidth="11940" windowHeight="10308" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerdo Siman" sheetId="1" r:id="rId1"/>
@@ -767,9 +767,6 @@
     <t>Faltan gallinas que llega</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Gallinas será manual o conforme a un historial</t>
   </si>
   <si>
@@ -799,12 +796,15 @@
   <si>
     <t>AUN HAY 8</t>
   </si>
+  <si>
+    <t>Capacidad de naves</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1013,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1488,7 +1494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1856,9 +1862,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1910,43 +1913,22 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,22 +1937,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,11 +1952,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1991,56 +1964,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2048,16 +1976,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,107 +2000,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2192,35 +2108,86 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2234,7 +2201,50 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12828,12 +12838,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1703387</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1763495" cy="445315"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
@@ -12993,13 +13003,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="CuadroTexto 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523D2010-8066-4151-A93D-E2EF24B022EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13035,13 +13045,14 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-MX" sz="1400" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -13278,7 +13289,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1712119</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1606274" cy="446789"/>
@@ -13533,7 +13544,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>981869</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>237331</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3147528" cy="219163"/>
@@ -13860,7 +13871,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4303999" cy="445315"/>
@@ -14332,7 +14343,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4218784" cy="328295"/>
@@ -14816,7 +14827,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>91281</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4322850" cy="356701"/>
@@ -15276,7 +15287,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>432594</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4938853" cy="357855"/>
@@ -15772,7 +15783,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1154906</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3290094" cy="445315"/>
@@ -16256,7 +16267,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1132681</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2561342" cy="445315"/>
@@ -16560,7 +16571,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1205706</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>296863</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2517805" cy="445315"/>
@@ -16864,7 +16875,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1024731</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>20638</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2949334" cy="445315"/>
@@ -17252,7 +17263,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>431006</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4228081" cy="438325"/>
@@ -17806,12 +17817,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1631156</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1589346" cy="409086"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
@@ -17975,7 +17986,19 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t> </m:t>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑣𝑖𝑣𝑎𝑠</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -17995,13 +18018,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="CuadroTexto 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55768FA3-0A6F-4A97-B9B7-505886692206}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18060,11 +18083,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(# 𝐺𝑎𝑙𝑙𝑖𝑛𝑎𝑠 𝑚𝑢𝑒𝑟𝑡𝑎𝑠)/(# 𝐺𝑎𝑙𝑙𝑖𝑛𝑎𝑠 )</a:t>
+                <a:t>(# 𝐺𝑎𝑙𝑙𝑖𝑛𝑎𝑠 𝑚𝑢𝑒𝑟𝑡𝑎𝑠)/(# 𝐺𝑎𝑙𝑙𝑖𝑛𝑎𝑠 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑣𝑖𝑣𝑎𝑠)</a:t>
               </a:r>
               <a:endParaRPr lang="es-MX" sz="7200">
                 <a:solidFill>
@@ -18086,7 +18121,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1742734</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>201160</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5088060" cy="219163"/>
@@ -18432,6 +18467,334 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1012370</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>293915</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3505201" cy="446661"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="CuadroTexto 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF72CAB-5B8D-4E43-9478-F308DF30AAED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6237513" y="9144001"/>
+              <a:ext cx="3505201" cy="446661"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-MX" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑎𝑝𝑎𝑐𝑖𝑑𝑎𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑜𝑐𝑢𝑝𝑎𝑑𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(# </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑎𝑙𝑙𝑖𝑛𝑎𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑜𝑠𝑡𝑢𝑟𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑎𝑝𝑎𝑐𝑖𝑑𝑎𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑛𝑠𝑡𝑎𝑙𝑎𝑑𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-MX" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-MX" sz="13800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="CuadroTexto 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF72CAB-5B8D-4E43-9478-F308DF30AAED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6237513" y="9144001"/>
+              <a:ext cx="3505201" cy="446661"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶𝑎𝑝𝑎𝑐𝑖𝑑𝑎𝑑 𝑜𝑐𝑢𝑝𝑎𝑑𝑎(# 𝑔𝑎𝑙𝑙𝑖𝑛𝑎𝑠 𝑒𝑛 𝑝𝑜𝑠𝑡𝑢𝑟𝑎))/(𝐶𝑎𝑝𝑎𝑐𝑖𝑑𝑎𝑑 𝑖𝑛𝑠𝑡𝑎𝑙𝑎𝑑𝑎 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-MX" sz="13800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -30544,19 +30907,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
       <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:17" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -30602,31 +30965,31 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="162">
+      <c r="A3" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="146">
         <v>1</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="148" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="118"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="153"/>
+      <c r="F3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="199" t="s">
+      <c r="G3" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="187" t="s">
+      <c r="H3" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="168"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="39" t="s">
         <v>102</v>
       </c>
@@ -30641,19 +31004,19 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="143"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="157"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="117"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="127" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="173"/>
-      <c r="K4" s="169"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="158"/>
       <c r="L4" s="58" t="s">
         <v>100</v>
       </c>
@@ -30666,33 +31029,33 @@
       <c r="O4" s="108"/>
     </row>
     <row r="5" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="162">
+      <c r="A5" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="146">
         <v>2</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="195" t="s">
+      <c r="D5" s="167" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="164"/>
-      <c r="F5" s="187" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="187" t="s">
+      <c r="G5" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="187" t="s">
+      <c r="H5" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="126" t="s">
+      <c r="I5" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="172"/>
-      <c r="K5" s="168"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="157"/>
       <c r="L5" s="59" t="s">
         <v>100</v>
       </c>
@@ -30705,19 +31068,19 @@
       <c r="O5" s="108"/>
     </row>
     <row r="6" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="143"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="128" t="s">
+      <c r="A6" s="201"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="173"/>
-      <c r="K6" s="169"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="158"/>
       <c r="L6" s="58" t="s">
         <v>97</v>
       </c>
@@ -30734,32 +31097,32 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="162">
+      <c r="A7" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="146">
         <v>3</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="145" t="s">
+      <c r="D7" s="169"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="145" t="s">
+      <c r="G7" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="187" t="s">
+      <c r="H7" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="193" t="s">
+      <c r="I7" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="172"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="154" t="s">
+      <c r="J7" s="155"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="193" t="s">
         <v>188</v>
       </c>
       <c r="M7" s="110" t="s">
@@ -30775,18 +31138,18 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="143"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="155"/>
+      <c r="A8" s="201"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="194"/>
       <c r="M8" s="110" t="s">
         <v>190</v>
       </c>
@@ -30796,10 +31159,10 @@
       <c r="O8" s="108"/>
     </row>
     <row r="9" spans="1:17" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="139" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="135">
+      <c r="A9" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="134">
         <v>4</v>
       </c>
       <c r="C9" s="105" t="s">
@@ -30825,10 +31188,10 @@
       <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="135">
+      <c r="A10" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="134">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -30843,10 +31206,10 @@
         <v>193</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="130" t="s">
+      <c r="J10" s="129" t="s">
         <v>70</v>
       </c>
       <c r="K10" s="44" t="s">
@@ -30861,10 +31224,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="135">
+      <c r="A11" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="134">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -30892,8 +31255,8 @@
       <c r="O11" s="108"/>
     </row>
     <row r="12" spans="1:17" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="141"/>
-      <c r="B12" s="133">
+      <c r="A12" s="140"/>
+      <c r="B12" s="132">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -30911,7 +31274,7 @@
         <v>130</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="130" t="s">
+      <c r="J12" s="129" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="44" t="s">
@@ -30926,10 +31289,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="139" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="135">
+      <c r="A13" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="134">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -30966,33 +31329,33 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="162">
+      <c r="A14" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="146">
         <v>9</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="191" t="s">
+      <c r="D14" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="158" t="s">
+      <c r="E14" s="153"/>
+      <c r="F14" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="145" t="s">
+      <c r="G14" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="145" t="s">
+      <c r="H14" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="126" t="s">
+      <c r="I14" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="166"/>
-      <c r="K14" s="168"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="59" t="s">
         <v>98</v>
       </c>
@@ -31005,19 +31368,19 @@
       <c r="O14" s="108"/>
     </row>
     <row r="15" spans="1:17" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="143"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="131" t="s">
+      <c r="A15" s="201"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="169"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="58" t="s">
         <v>100</v>
       </c>
@@ -31030,32 +31393,32 @@
       <c r="O15" s="108"/>
     </row>
     <row r="16" spans="1:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="162">
+      <c r="A16" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="146">
         <v>10</v>
       </c>
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="148" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="189" t="s">
+      <c r="D16" s="173" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="145" t="s">
+      <c r="E16" s="153"/>
+      <c r="F16" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="145" t="s">
+      <c r="G16" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="145" t="s">
+      <c r="H16" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="170"/>
+      <c r="J16" s="197"/>
       <c r="K16" s="22"/>
       <c r="L16" s="59" t="s">
         <v>98</v>
@@ -31069,18 +31432,18 @@
       <c r="O16" s="108"/>
     </row>
     <row r="17" spans="1:16" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="141"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
       <c r="I17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="171"/>
+      <c r="J17" s="198"/>
       <c r="K17" s="46"/>
       <c r="L17" s="58" t="s">
         <v>102</v>
@@ -31094,10 +31457,10 @@
       <c r="O17" s="108"/>
     </row>
     <row r="18" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="139" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="135">
+      <c r="A18" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="134">
         <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -31117,7 +31480,7 @@
       <c r="I18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="128" t="s">
+      <c r="J18" s="127" t="s">
         <v>74</v>
       </c>
       <c r="K18" s="42" t="s">
@@ -31129,30 +31492,30 @@
       <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="144" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="162">
+      <c r="A19" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="146">
         <v>12</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="148" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="118"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="158" t="s">
+      <c r="E19" s="177"/>
+      <c r="F19" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="145" t="s">
+      <c r="H19" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="126" t="s">
+      <c r="I19" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="132" t="s">
+      <c r="J19" s="131" t="s">
         <v>76</v>
       </c>
       <c r="K19" s="47" t="s">
@@ -31173,14 +31536,14 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="144"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="157"/>
+      <c r="A20" s="202"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="117"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
       <c r="I20" s="24" t="s">
         <v>64</v>
       </c>
@@ -31192,28 +31555,28 @@
       <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="141"/>
-      <c r="B21" s="178">
+      <c r="A21" s="140"/>
+      <c r="B21" s="150">
         <v>13</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="180" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="118"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="158" t="s">
+      <c r="E21" s="177"/>
+      <c r="F21" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="145" t="s">
+      <c r="G21" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="145" t="s">
+      <c r="H21" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="126" t="s">
+      <c r="I21" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="132" t="s">
+      <c r="J21" s="131" t="s">
         <v>76</v>
       </c>
       <c r="K21" s="47" t="s">
@@ -31231,14 +31594,14 @@
       <c r="O21" s="108"/>
     </row>
     <row r="22" spans="1:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="176"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="181"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
       <c r="I22" s="40" t="s">
         <v>63</v>
       </c>
@@ -31257,14 +31620,14 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="141"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="177"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="117"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
       <c r="I23" s="23"/>
       <c r="J23" s="28" t="s">
         <v>78</v>
@@ -31278,22 +31641,22 @@
       <c r="M23" s="111"/>
     </row>
     <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
-      <c r="B24" s="178">
+      <c r="A24" s="140"/>
+      <c r="B24" s="150">
         <v>14</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="180" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="118"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="145" t="s">
+      <c r="E24" s="177"/>
+      <c r="F24" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="145" t="s">
+      <c r="G24" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="145" t="s">
+      <c r="H24" s="163" t="s">
         <v>130</v>
       </c>
       <c r="I24" s="39" t="s">
@@ -31317,14 +31680,14 @@
       <c r="O24" s="108"/>
     </row>
     <row r="25" spans="1:16" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="141"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="177"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="117"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
       <c r="I25" s="24" t="s">
         <v>63</v>
       </c>
@@ -31340,10 +31703,10 @@
       <c r="M25" s="112"/>
     </row>
     <row r="26" spans="1:16" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="135">
+      <c r="A26" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="134">
         <v>15</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -31383,10 +31746,10 @@
       <c r="O26" s="108"/>
     </row>
     <row r="27" spans="1:16" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="135">
+      <c r="A27" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="134">
         <v>16</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -31426,10 +31789,10 @@
       <c r="O27" s="108"/>
     </row>
     <row r="28" spans="1:16" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="135">
+      <c r="A28" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="134">
         <v>17</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -31463,46 +31826,46 @@
       <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="141"/>
-      <c r="B29" s="181" t="s">
+      <c r="A29" s="140"/>
+      <c r="B29" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="183"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="186"/>
       <c r="M29" s="113"/>
     </row>
     <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="178">
+      <c r="A30" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="150">
         <v>18</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="143" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="172"/>
-      <c r="F30" s="158" t="s">
+      <c r="E30" s="155"/>
+      <c r="F30" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="148" t="s">
+      <c r="G30" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="148" t="s">
+      <c r="H30" s="188" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="150"/>
+      <c r="I30" s="199"/>
       <c r="J30" s="32" t="s">
         <v>81</v>
       </c>
@@ -31515,15 +31878,15 @@
       <c r="M30" s="42"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="143"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="151"/>
+      <c r="A31" s="201"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="200"/>
       <c r="J31" s="34" t="s">
         <v>82</v>
       </c>
@@ -31539,10 +31902,10 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="136">
+      <c r="A32" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="135">
         <v>19</v>
       </c>
       <c r="C32" s="115" t="s">
@@ -31557,63 +31920,63 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="136">
+      <c r="A33" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="135">
         <v>20</v>
       </c>
       <c r="C33" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="185" t="s">
+      <c r="D33" s="143" t="s">
         <v>231</v>
       </c>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="135">
+        <v>21</v>
+      </c>
+      <c r="C34" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="136">
-        <v>21</v>
-      </c>
-      <c r="C34" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="201"/>
+      <c r="D34" s="144"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="136">
+      <c r="A35" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="135">
         <v>22</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="201"/>
+      <c r="D35" s="144"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="136">
+      <c r="A36" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="135">
         <v>23</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="201"/>
+        <v>241</v>
+      </c>
+      <c r="D36" s="144"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="123"/>
       <c r="C37" s="115"/>
-      <c r="D37" s="186"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
@@ -31628,59 +31991,17 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="C19:C20"/>
@@ -31697,17 +32018,59 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31717,10 +32080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31738,18 +32101,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="236"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="206"/>
       <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -31790,16 +32153,16 @@
       <c r="O2" s="108"/>
     </row>
     <row r="3" spans="1:16" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="137">
+      <c r="A3" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="136">
         <v>1</v>
       </c>
       <c r="C3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="120"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="4"/>
       <c r="F3" s="13" t="s">
         <v>60</v>
@@ -31827,31 +32190,31 @@
       <c r="O3" s="108"/>
     </row>
     <row r="4" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="224">
+      <c r="A4" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="207">
         <v>2</v>
       </c>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="197"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="207" t="s">
+      <c r="D4" s="240"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="217" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="207" t="s">
+      <c r="H4" s="217" t="s">
         <v>130</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="204"/>
-      <c r="K4" s="221"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="215"/>
       <c r="L4" s="39" t="s">
         <v>98</v>
       </c>
@@ -31867,51 +32230,49 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="143"/>
-      <c r="B5" s="225"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
       <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="206"/>
-      <c r="K5" s="223"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="216"/>
       <c r="L5" s="75" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="224">
+      <c r="A6" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="207">
         <v>3</v>
       </c>
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="197" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="226"/>
-      <c r="F6" s="207" t="s">
+      <c r="D6" s="240"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="207" t="s">
+      <c r="G6" s="217" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="207" t="s">
+      <c r="H6" s="217" t="s">
         <v>130</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="204"/>
-      <c r="K6" s="221"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="215"/>
       <c r="L6" s="39" t="s">
         <v>100</v>
       </c>
@@ -31924,19 +32285,19 @@
       <c r="O6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="143"/>
-      <c r="B7" s="225"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
       <c r="I7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="223"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="75" t="s">
         <v>98</v>
       </c>
@@ -31949,49 +32310,49 @@
       <c r="O7" s="108"/>
     </row>
     <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="143" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="224">
+      <c r="A8" s="201" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="207">
         <v>4</v>
       </c>
-      <c r="C8" s="215" t="s">
+      <c r="C8" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="215"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="207" t="s">
+      <c r="D8" s="240"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="207" t="s">
+      <c r="G8" s="217" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="207" t="s">
+      <c r="H8" s="217" t="s">
         <v>130</v>
       </c>
       <c r="I8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="204"/>
-      <c r="K8" s="221"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="215"/>
       <c r="L8" s="39" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="143"/>
-      <c r="B9" s="225"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
       <c r="I9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="206"/>
-      <c r="K9" s="223"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="216"/>
       <c r="L9" s="75" t="s">
         <v>98</v>
       </c>
@@ -32001,16 +32362,16 @@
       <c r="O9" s="108"/>
     </row>
     <row r="10" spans="1:16" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="137">
+      <c r="A10" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="136">
         <v>5</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="5"/>
       <c r="F10" s="12" t="s">
         <v>59</v>
@@ -32044,49 +32405,33 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="137">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:16" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="5.4">
+      <c r="A11" s="138"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>115</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>156</v>
-      </c>
+      <c r="L11" s="19"/>
+      <c r="N11" s="108"/>
       <c r="O11" s="108"/>
     </row>
     <row r="12" spans="1:16" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="142"/>
-      <c r="B12" s="137">
+      <c r="A12" s="141"/>
+      <c r="B12" s="136">
         <v>7</v>
       </c>
       <c r="C12" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="5"/>
       <c r="F12" s="12" t="s">
         <v>128</v>
@@ -32110,17 +32455,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="137">
-        <v>8</v>
+    <row r="13" spans="1:16" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="136">
+        <v>6</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="72"/>
+        <v>28</v>
+      </c>
+      <c r="D13" s="105"/>
       <c r="E13" s="5"/>
       <c r="F13" s="12" t="s">
         <v>59</v>
@@ -32132,377 +32477,367 @@
         <v>130</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="30"/>
       <c r="L13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="N13" s="43" t="s">
         <v>156</v>
       </c>
       <c r="O13" s="108"/>
     </row>
-    <row r="14" spans="1:16" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="142"/>
-      <c r="B14" s="134">
+    <row r="14" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="136">
+        <v>8</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="108"/>
+    </row>
+    <row r="15" spans="1:16" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="141"/>
+      <c r="B15" s="133">
         <v>9</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C15" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="82" t="s">
+      <c r="D15" s="105"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G15" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H15" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M15" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="P14" s="89" t="s">
+      <c r="P15" s="89" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="142"/>
-      <c r="B15" s="134">
+    <row r="16" spans="1:16" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="141"/>
+      <c r="B16" s="133">
         <v>10</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6" t="s">
+      <c r="D16" s="105"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="19" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
-      <c r="B16" s="224">
+    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="233"/>
+      <c r="B17" s="207">
         <v>11</v>
       </c>
-      <c r="C16" s="215" t="s">
+      <c r="C17" s="209" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="230" t="s">
+      <c r="D17" s="250" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="209" t="s">
+      <c r="E17" s="155"/>
+      <c r="F17" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="209" t="s">
+      <c r="G17" s="219" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="209" t="s">
+      <c r="H17" s="219" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="221" t="s">
+      <c r="J17" s="17"/>
+      <c r="K17" s="215" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="204" t="s">
+      <c r="L17" s="213" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
-      <c r="B17" s="228"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="205"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
-      <c r="B18" s="228"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
+      <c r="A18" s="233"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="231"/>
       <c r="I18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="232"/>
+    </row>
+    <row r="19" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="233"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="222"/>
-      <c r="L18" s="205"/>
-      <c r="P18" t="s">
+      <c r="J19" s="17"/>
+      <c r="K19" s="228"/>
+      <c r="L19" s="232"/>
+      <c r="P19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="42" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
-      <c r="B19" s="228"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="17" t="s">
+    <row r="20" spans="1:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="A20" s="233"/>
+      <c r="B20" s="229"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="222"/>
-      <c r="L19" s="205"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="228"/>
+      <c r="L20" s="232"/>
     </row>
-    <row r="20" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="203"/>
-      <c r="B20" s="228"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="222"/>
-      <c r="L20" s="205"/>
+    <row r="21" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="233"/>
+      <c r="B21" s="229"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="232"/>
     </row>
-    <row r="21" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="203"/>
-      <c r="B21" s="225"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="206"/>
+    <row r="22" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="233"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="214"/>
     </row>
-    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
-      <c r="B22" s="212">
+    <row r="23" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="233"/>
+      <c r="B23" s="222">
         <v>12</v>
       </c>
-      <c r="C22" s="215" t="s">
+      <c r="C23" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="215"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="145" t="s">
+      <c r="D23" s="240"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="145" t="s">
+      <c r="G23" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="145" t="s">
+      <c r="H23" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="204" t="s">
+      <c r="J23" s="76"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
         <v>210</v>
       </c>
-      <c r="N22" s="233" t="s">
+      <c r="N23" s="203" t="s">
         <v>156</v>
       </c>
-      <c r="O22" s="114"/>
-    </row>
-    <row r="23" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="222"/>
-      <c r="L23" s="205"/>
-      <c r="M23" t="s">
-        <v>211</v>
-      </c>
-      <c r="N23" s="233"/>
       <c r="O23" s="114"/>
     </row>
     <row r="24" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
+      <c r="A24" s="233"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
       <c r="I24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="205"/>
+        <v>35</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="232"/>
       <c r="M24" t="s">
-        <v>212</v>
-      </c>
-      <c r="N24" s="233"/>
+        <v>211</v>
+      </c>
+      <c r="N24" s="203"/>
       <c r="O24" s="114"/>
     </row>
-    <row r="25" spans="1:16" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="203"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
+    <row r="25" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="233"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
       <c r="I25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="206"/>
-      <c r="N25" s="233"/>
+        <v>36</v>
+      </c>
+      <c r="J25" s="77"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="232"/>
+      <c r="M25" t="s">
+        <v>212</v>
+      </c>
+      <c r="N25" s="203"/>
       <c r="O25" s="114"/>
     </row>
-    <row r="26" spans="1:16" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="142"/>
-      <c r="B26" s="137">
+    <row r="26" spans="1:16" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="233"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="78"/>
+      <c r="K26" s="216"/>
+      <c r="L26" s="214"/>
+      <c r="N26" s="203"/>
+      <c r="O26" s="114"/>
+    </row>
+    <row r="27" spans="1:16" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="141"/>
+      <c r="B27" s="136">
         <v>13</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C27" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="83" t="s">
+      <c r="D27" s="105"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G27" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="86" t="s">
+      <c r="H27" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="79" t="s">
+      <c r="I27" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="79" t="s">
+      <c r="J27" s="80"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="79" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="137">
+    <row r="28" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="136">
         <v>14</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C28" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="N27" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="89" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="B28" s="137">
-        <v>15</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="1"/>
       <c r="F28" s="6" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>137</v>
@@ -32511,10 +32846,10 @@
         <v>130</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>91</v>
@@ -32523,109 +32858,121 @@
         <v>98</v>
       </c>
       <c r="M28" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="136">
+        <v>15</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="P28" s="89" t="s">
+      <c r="P29" s="89" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29" s="224">
+    <row r="30" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="201" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="207">
         <v>16</v>
       </c>
-      <c r="C29" s="215" t="s">
+      <c r="C30" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="215"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="209" t="s">
+      <c r="D30" s="240"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="209" t="s">
+      <c r="G30" s="219" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="209" t="s">
+      <c r="H30" s="219" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="204" t="s">
+      <c r="J30" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="221" t="s">
+      <c r="K30" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="204" t="s">
+      <c r="L30" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="143"/>
-      <c r="B30" s="225"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="21" t="s">
+    <row r="31" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="201"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="206"/>
-      <c r="K30" s="223"/>
-      <c r="L30" s="206"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="214"/>
     </row>
-    <row r="31" spans="1:16" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="142"/>
-      <c r="B31" s="134">
+    <row r="32" spans="1:16" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="141"/>
+      <c r="B32" s="133">
         <v>17</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C32" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="142"/>
-      <c r="B32" s="134">
-        <v>18</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>137</v>
@@ -32634,7 +32981,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>49</v>
@@ -32646,22 +32993,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" s="137">
-        <v>19</v>
+    <row r="33" spans="1:16" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="141"/>
+      <c r="B33" s="133">
+        <v>18</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="125" t="s">
-        <v>236</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D33" s="105"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>137</v>
@@ -32670,10 +33013,10 @@
         <v>130</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K33" s="30" t="s">
         <v>94</v>
@@ -32681,33 +33024,32 @@
       <c r="L33" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="P33" s="89" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="34" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="137">
-        <v>20</v>
+    <row r="34" spans="1:16" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="136">
+        <v>19</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="253" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="6" t="s">
         <v>130</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>52</v>
@@ -32719,38 +33061,122 @@
         <v>98</v>
       </c>
       <c r="P34" s="89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="63.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="136">
+        <v>20</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="105"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="89" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="142"/>
-      <c r="B35" s="138">
+    <row r="36" spans="1:16" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="141"/>
+      <c r="B36" s="137">
         <v>21</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C36" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="D35" s="84"/>
-      <c r="M35" t="s">
+      <c r="D36" s="84"/>
+      <c r="M36" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P38" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="N23:N26"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -32763,53 +33189,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32839,18 +33218,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
       <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:12" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -33025,70 +33404,70 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237">
+      <c r="A8" s="244">
         <v>11</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="158" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="145" t="s">
+      <c r="E8" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="F8" s="163" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="166"/>
-      <c r="I8" s="168"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="157"/>
       <c r="J8" s="102" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="110"/>
     </row>
     <row r="9" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="238"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
       <c r="G9" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="169"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="158"/>
       <c r="J9" s="103" t="s">
         <v>100</v>
       </c>
       <c r="K9" s="110"/>
     </row>
     <row r="10" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237">
+      <c r="A10" s="244">
         <v>12</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="145" t="s">
+      <c r="C10" s="153"/>
+      <c r="D10" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="145" t="s">
+      <c r="F10" s="163" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="170"/>
+      <c r="H10" s="197"/>
       <c r="I10" s="100"/>
       <c r="J10" s="102" t="s">
         <v>98</v>
@@ -33096,16 +33475,16 @@
       <c r="K10" s="110"/>
     </row>
     <row r="11" spans="1:12" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="238"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="171"/>
+      <c r="H11" s="198"/>
       <c r="I11" s="46"/>
       <c r="J11" s="103" t="s">
         <v>102</v>
@@ -33144,20 +33523,20 @@
       <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="237">
+      <c r="A13" s="244">
         <v>14</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="158" t="s">
+      <c r="C13" s="177"/>
+      <c r="D13" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="145" t="s">
+      <c r="F13" s="163" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="39" t="s">
@@ -33178,12 +33557,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="238"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
+      <c r="A14" s="245"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="104" t="s">
         <v>64</v>
       </c>
@@ -33195,20 +33574,20 @@
       <c r="K14" s="110"/>
     </row>
     <row r="15" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="237">
+      <c r="A15" s="244">
         <v>15</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="158" t="s">
+      <c r="C15" s="177"/>
+      <c r="D15" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="145" t="s">
+      <c r="F15" s="163" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -33226,12 +33605,12 @@
       <c r="K15" s="111"/>
     </row>
     <row r="16" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="239"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
+      <c r="A16" s="248"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="40" t="s">
         <v>63</v>
       </c>
@@ -33250,12 +33629,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="238"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="23"/>
       <c r="H17" s="28" t="s">
         <v>78</v>
@@ -33269,20 +33648,20 @@
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.3">
-      <c r="A18" s="237">
+      <c r="A18" s="244">
         <v>16</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="145" t="s">
+      <c r="C18" s="177"/>
+      <c r="D18" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="163" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="39" t="s">
@@ -33300,12 +33679,12 @@
       <c r="K18" s="112"/>
     </row>
     <row r="19" spans="1:12" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="238"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
       <c r="G19" s="104" t="s">
         <v>63</v>
       </c>
@@ -33414,38 +33793,38 @@
       <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
       <c r="K23" s="113"/>
     </row>
     <row r="24" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="237">
+      <c r="A24" s="244">
         <v>20</v>
       </c>
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="158" t="s">
+      <c r="C24" s="155"/>
+      <c r="D24" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="148" t="s">
+      <c r="E24" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="148" t="s">
+      <c r="F24" s="188" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="150"/>
+      <c r="G24" s="199"/>
       <c r="H24" s="32" t="s">
         <v>81</v>
       </c>
@@ -33458,13 +33837,13 @@
       <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="238"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="151"/>
+      <c r="A25" s="245"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="200"/>
       <c r="H25" s="34" t="s">
         <v>82</v>
       </c>
@@ -33480,23 +33859,23 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="237">
+      <c r="A26" s="244">
         <v>21</v>
       </c>
-      <c r="B26" s="242" t="s">
+      <c r="B26" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="245"/>
-      <c r="D26" s="158" t="s">
+      <c r="C26" s="246"/>
+      <c r="D26" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="148" t="s">
+      <c r="E26" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="148" t="s">
+      <c r="F26" s="188" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="150"/>
+      <c r="G26" s="199"/>
       <c r="H26" s="25" t="s">
         <v>70</v>
       </c>
@@ -33509,13 +33888,13 @@
       <c r="K26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="238"/>
-      <c r="B27" s="244"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="151"/>
+      <c r="A27" s="245"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="200"/>
       <c r="H27" s="29" t="s">
         <v>83</v>
       </c>
@@ -33531,23 +33910,23 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="240">
+      <c r="A28" s="238">
         <v>22</v>
       </c>
-      <c r="B28" s="242" t="s">
+      <c r="B28" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="172"/>
-      <c r="D28" s="158" t="s">
+      <c r="C28" s="155"/>
+      <c r="D28" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="148" t="s">
+      <c r="E28" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="148" t="s">
+      <c r="F28" s="188" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="150"/>
+      <c r="G28" s="199"/>
       <c r="H28" s="38" t="s">
         <v>84</v>
       </c>
@@ -33563,13 +33942,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="241"/>
+      <c r="A29" s="242"/>
       <c r="B29" s="243"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="200"/>
       <c r="H29" s="35" t="s">
         <v>83</v>
       </c>
@@ -33585,23 +33964,23 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="240">
+      <c r="A30" s="238">
         <v>23</v>
       </c>
-      <c r="B30" s="242" t="s">
+      <c r="B30" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="158" t="s">
+      <c r="C30" s="153"/>
+      <c r="D30" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="148" t="s">
+      <c r="E30" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="148" t="s">
+      <c r="F30" s="188" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="150"/>
+      <c r="G30" s="199"/>
       <c r="H30" s="36" t="s">
         <v>85</v>
       </c>
@@ -33617,13 +33996,13 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="251"/>
-      <c r="B31" s="244"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="151"/>
+      <c r="A31" s="239"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="200"/>
       <c r="H31" s="37" t="s">
         <v>70</v>
       </c>
@@ -33639,20 +34018,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="240">
+      <c r="A32" s="238">
         <v>24</v>
       </c>
-      <c r="B32" s="242" t="s">
+      <c r="B32" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="158" t="s">
+      <c r="C32" s="177"/>
+      <c r="D32" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="148" t="s">
+      <c r="E32" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="148" t="s">
+      <c r="F32" s="188" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="95"/>
@@ -33671,12 +34050,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="251"/>
-      <c r="B33" s="244"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
+      <c r="A33" s="239"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="96"/>
       <c r="H33" s="33" t="s">
         <v>70</v>
@@ -33708,7 +34087,7 @@
       <c r="B35" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="247"/>
+      <c r="G35" s="234"/>
     </row>
     <row r="36" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
@@ -33717,7 +34096,7 @@
       <c r="B36" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="247"/>
+      <c r="G36" s="234"/>
     </row>
     <row r="37" spans="1:12" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
@@ -33763,18 +34142,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="248" t="s">
+      <c r="A42" s="235" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="249"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="249"/>
-      <c r="H42" s="249"/>
-      <c r="I42" s="249"/>
-      <c r="J42" s="250"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="236"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="237"/>
       <c r="K42" s="92"/>
       <c r="L42" s="91"/>
     </row>
@@ -33817,6 +34196,62 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="G30:G31"/>
@@ -33832,62 +34267,6 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33899,21 +34278,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036B65D6-F953-4795-9B18-53E82AA75E61}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
         <v>243</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
